--- a/testdata/Smoke_WEB_MED_098_NEWREPORT_01.xlsx
+++ b/testdata/Smoke_WEB_MED_098_NEWREPORT_01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\docker0814\test_RobotFramework\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A1A79EE-E440-43B7-8044-98AD912E94D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81253C76-7E28-49B3-8D2C-F2C4EE14CEB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="430" windowWidth="12200" windowHeight="9420" tabRatio="603" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="603" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="190">
   <si>
     <t>User</t>
   </si>
@@ -245,6 +245,9 @@
   </si>
   <si>
     <t>備註</t>
+  </si>
+  <si>
+    <t>必填</t>
   </si>
   <si>
     <t>不填寫</t>
@@ -633,25 +636,17 @@
     <t>REPORT_ID</t>
   </si>
   <si>
-    <t>產生編號</t>
-  </si>
-  <si>
-    <t>需手動將產生編號移過來</t>
-  </si>
-  <si>
-    <t>細菌,PCR</t>
+    <t>1120111004028</t>
   </si>
   <si>
     <t>學生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
-  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -708,7 +703,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -738,24 +733,11 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1089,11 +1071,12 @@
   <dimension ref="A1:BP4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="8.796875" style="11" customWidth="1"/>
     <col min="3" max="3" width="17.3984375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.59765625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.8984375" style="1" bestFit="1" customWidth="1"/>
@@ -1358,13 +1341,16 @@
       </c>
     </row>
     <row r="2" spans="1:68" s="2" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="4"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="4" t="s">
+        <v>74</v>
+      </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
@@ -1377,382 +1363,382 @@
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
       <c r="P2" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q2" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="S2" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="R2" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="S2" s="4" t="s">
-        <v>76</v>
-      </c>
       <c r="T2" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U2" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V2" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W2" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X2" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y2" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Z2" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AA2" s="4"/>
       <c r="AB2" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC2" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AD2" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE2" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AF2" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AG2" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AH2" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI2" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AJ2" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AK2" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AL2" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AM2" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AN2" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AO2" s="4"/>
       <c r="AP2" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AQ2" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AR2" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AS2" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AT2" s="4"/>
       <c r="AU2" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AV2" s="4"/>
       <c r="AW2" s="4"/>
       <c r="AX2" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AY2" s="4"/>
       <c r="AZ2" s="4"/>
       <c r="BA2" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="BB2" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="BC2" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="BD2" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="BE2" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="BF2" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="BG2" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="BH2" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="BI2" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="BJ2" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="BK2" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="BL2" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="BM2" s="4"/>
       <c r="BN2" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="BO2" s="4"/>
       <c r="BP2" s="4"/>
     </row>
     <row r="3" spans="1:68" s="3" customFormat="1" ht="53" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
-        <v>106</v>
+      <c r="A3" s="11" t="s">
+        <v>107</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="S3" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="T3" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="U3" s="4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="V3" s="4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="W3" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="X3" s="4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Y3" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Z3" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AA3" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AB3" s="8" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AC3" s="8" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AD3" s="4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AE3" s="4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AF3" s="4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AG3" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AH3" s="4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AI3" s="4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AJ3" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AK3" s="4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AL3" s="4" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AM3" s="4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AN3" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AO3" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AP3" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AQ3" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AR3" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AS3" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AT3" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AU3" s="4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AV3" s="4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AW3" s="4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AX3" s="4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AY3" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AZ3" s="4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="BA3" s="4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="BB3" s="4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="BC3" s="4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="BD3" s="4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="BE3" s="4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="BF3" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="BG3" s="4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="BH3" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="BI3" s="4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="BJ3" s="4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="BK3" s="4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="BL3" s="4" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="BM3" s="4" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="BN3" s="4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="BO3" s="4" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="BP3" s="4" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:68" ht="48.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="12">
+      <c r="A4" s="11">
         <v>1</v>
       </c>
       <c r="B4" s="4">
         <v>1</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4">
         <v>3</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L4" s="4">
         <v>12345</v>
@@ -1761,10 +1747,10 @@
         <v>54321</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="P4" s="4" t="b">
         <v>0</v>
@@ -1786,13 +1772,13 @@
       <c r="W4" s="4"/>
       <c r="X4" s="4"/>
       <c r="Y4" s="4" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Z4" s="4">
         <v>2</v>
       </c>
       <c r="AA4" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AB4" s="8" t="b">
         <v>0</v>
@@ -1849,28 +1835,42 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.796875" style="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.796875" style="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
-        <v>185</v>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="13"/>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="12"/>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
-        <v>186</v>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="B3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>188</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1881,647 +1881,617 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:BR4"/>
+  <dimension ref="A1:BP4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="AA4" sqref="AA4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.296875" style="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.796875" style="11" customWidth="1"/>
+    <col min="2" max="16384" width="8.796875" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:70" ht="58" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
-        <v>187</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="C1" s="11" t="s">
+    <row r="1" spans="1:68" ht="58" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
         <v>6</v>
       </c>
+      <c r="B1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="D1" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>12</v>
       </c>
+      <c r="H1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="J1" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="R1" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="T1" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="U1" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="V1" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="W1" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="X1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="X1" s="4" t="s">
         <v>29</v>
       </c>
+      <c r="Y1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z1" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="AA1" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB1" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="AD1" s="7" t="s">
+      <c r="AB1" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="AE1" s="8" t="s">
+      <c r="AC1" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="AF1" s="5" t="s">
+      <c r="AD1" s="5" t="s">
         <v>35</v>
       </c>
+      <c r="AE1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF1" s="4" t="s">
+        <v>37</v>
+      </c>
       <c r="AG1" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AH1" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AI1" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AJ1" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="AK1" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AL1" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="AM1" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AN1" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AO1" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AP1" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="AQ1" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AR1" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="AS1" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AT1" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="AU1" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="AV1" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="AW1" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="AX1" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AY1" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="AZ1" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="BA1" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="BB1" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="BC1" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="BD1" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="BE1" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="BF1" s="4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="BG1" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="BH1" s="4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="BI1" s="4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="BJ1" s="4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="BK1" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="BL1" s="4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="BM1" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="BN1" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
+      </c>
+      <c r="BN1" s="9" t="s">
+        <v>71</v>
       </c>
       <c r="BO1" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="BP1" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="BQ1" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="BR1" s="4" t="s">
+      <c r="BP1" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:70" ht="66" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="16"/>
-      <c r="B2" s="13" t="s">
-        <v>188</v>
-      </c>
-      <c r="C2" s="13"/>
+    <row r="2" spans="1:68" ht="66" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="4"/>
       <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>74</v>
-      </c>
+      <c r="E2" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
+      <c r="P2" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>78</v>
+      </c>
       <c r="R2" s="4" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="S2" s="4" t="s">
         <v>77</v>
       </c>
       <c r="T2" s="4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="U2" s="4" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="V2" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="W2" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="X2" s="4" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="Y2" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z2" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA2" s="4"/>
+      <c r="AB2" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC2" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="AD2" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="AE2" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF2" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG2" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="AH2" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="AI2" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="AJ2" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK2" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL2" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="AM2" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="AN2" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="AO2" s="4"/>
+      <c r="AP2" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="AQ2" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="AR2" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="AS2" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="AT2" s="4"/>
+      <c r="AU2" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="AV2" s="4"/>
+      <c r="AW2" s="4"/>
+      <c r="AX2" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="AY2" s="4"/>
+      <c r="AZ2" s="4"/>
+      <c r="BA2" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="BB2" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="BC2" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="BD2" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="BE2" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="BF2" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="BG2" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="BH2" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="BI2" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ2" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="BK2" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="BL2" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="BM2" s="4"/>
+      <c r="BN2" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="Z2" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="AA2" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="AB2" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="AC2" s="4"/>
-      <c r="AD2" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="AE2" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="AF2" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="AG2" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="AH2" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="AI2" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="AJ2" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="AK2" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="AL2" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="AM2" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="AN2" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="AO2" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="AP2" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="AQ2" s="4"/>
-      <c r="AR2" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="AS2" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="AT2" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AU2" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="AV2" s="4"/>
-      <c r="AW2" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="AX2" s="4"/>
-      <c r="AY2" s="4"/>
-      <c r="AZ2" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="BA2" s="4"/>
-      <c r="BB2" s="4"/>
-      <c r="BC2" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="BD2" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="BE2" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="BF2" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="BG2" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="BH2" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="BI2" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="BJ2" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="BK2" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="BL2" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="BM2" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="BN2" s="4" t="s">
-        <v>105</v>
-      </c>
       <c r="BO2" s="4"/>
-      <c r="BP2" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="BQ2" s="4"/>
-      <c r="BR2" s="4"/>
+      <c r="BP2" s="4"/>
     </row>
-    <row r="3" spans="1:70" ht="58" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="17"/>
-      <c r="B3" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>106</v>
+    <row r="3" spans="1:68" ht="58" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>110</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="H3" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="F3" s="10" t="s">
         <v>112</v>
       </c>
+      <c r="G3" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>115</v>
+      </c>
       <c r="J3" s="4" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="S3" s="4" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="T3" s="4" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="U3" s="4" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="V3" s="4" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="W3" s="4" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="X3" s="4" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="Y3" s="4" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="Z3" s="4" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="AA3" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="AB3" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="AC3" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="AD3" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="AE3" s="8" t="s">
+      <c r="AB3" s="8" t="s">
         <v>134</v>
       </c>
+      <c r="AC3" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD3" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="AE3" s="4" t="s">
+        <v>137</v>
+      </c>
       <c r="AF3" s="4" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="AG3" s="4" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="AH3" s="4" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="AI3" s="4" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="AJ3" s="4" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="AK3" s="4" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="AL3" s="4" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="AM3" s="4" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AN3" s="4" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AO3" s="4" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AP3" s="4" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="AQ3" s="4" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="AR3" s="4" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="AS3" s="4" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="AT3" s="4" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="AU3" s="4" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="AV3" s="4" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="AW3" s="4" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="AX3" s="4" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="AY3" s="4" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="AZ3" s="4" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="BA3" s="4" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="BB3" s="4" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="BC3" s="4" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="BD3" s="4" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="BE3" s="4" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="BF3" s="4" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="BG3" s="4" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="BH3" s="4" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="BI3" s="4" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="BJ3" s="4" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="BK3" s="4" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="BL3" s="4" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="BM3" s="4" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="BN3" s="4" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="BO3" s="4" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="BP3" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="BQ3" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="BR3" s="4" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
-    <row r="4" spans="1:70" ht="29" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="14"/>
-      <c r="C4" s="12">
+    <row r="4" spans="1:68" ht="29" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="11">
         <v>2</v>
       </c>
-      <c r="D4" s="4">
+      <c r="B4" s="4">
         <v>1</v>
       </c>
-      <c r="E4" s="4">
-        <v>1016</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>174</v>
-      </c>
+      <c r="C4" s="4">
+        <v>1018</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="10"/>
       <c r="G4" s="4"/>
-      <c r="H4" s="10"/>
+      <c r="H4" s="4"/>
       <c r="I4" s="4"/>
-      <c r="J4" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="N4" s="4">
-        <v>12345</v>
-      </c>
-      <c r="O4" s="4">
-        <v>54321</v>
-      </c>
-      <c r="P4" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q4" s="4" t="s">
-        <v>182</v>
-      </c>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
       <c r="S4" s="4"/>
       <c r="T4" s="4"/>
@@ -2534,16 +2504,10 @@
       <c r="AA4" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="AB4" s="4"/>
-      <c r="AC4" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="AD4" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE4" s="8">
-        <v>-5</v>
-      </c>
+      <c r="AB4" s="8"/>
+      <c r="AC4" s="8"/>
+      <c r="AD4" s="4"/>
+      <c r="AE4" s="4"/>
       <c r="AF4" s="4"/>
       <c r="AG4" s="4"/>
       <c r="AH4" s="4"/>
@@ -2581,8 +2545,6 @@
       <c r="BN4" s="4"/>
       <c r="BO4" s="4"/>
       <c r="BP4" s="4"/>
-      <c r="BQ4" s="4"/>
-      <c r="BR4" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/testdata/Smoke_WEB_MED_098_NEWREPORT_01.xlsx
+++ b/testdata/Smoke_WEB_MED_098_NEWREPORT_01.xlsx
@@ -8,22 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\docker0814\test_RobotFramework\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81253C76-7E28-49B3-8D2C-F2C4EE14CEB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61C8EE60-CCB5-4078-B220-94C97B5FB65A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="603" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
     <sheet name="report" sheetId="2" r:id="rId2"/>
-    <sheet name="ID" sheetId="3" r:id="rId3"/>
-    <sheet name="update" sheetId="4" r:id="rId4"/>
+    <sheet name="update" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="192">
   <si>
     <t>User</t>
   </si>
@@ -630,16 +629,27 @@
     <t>家管</t>
   </si>
   <si>
-    <t>報表編號</t>
-  </si>
-  <si>
-    <t>REPORT_ID</t>
-  </si>
-  <si>
-    <t>1120111004028</t>
-  </si>
-  <si>
     <t>學生</t>
+  </si>
+  <si>
+    <t>廚師</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1新增
+2增修</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PCR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>細菌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家管</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1061,17 +1071,17 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="工作表1"/>
-  <dimension ref="A1:BP4"/>
+  <dimension ref="A1:BP5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -1341,7 +1351,9 @@
       </c>
     </row>
     <row r="2" spans="1:68" s="2" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="11"/>
+      <c r="A2" s="12" t="s">
+        <v>188</v>
+      </c>
       <c r="B2" s="4" t="s">
         <v>74</v>
       </c>
@@ -1826,6 +1838,126 @@
       <c r="BO4" s="4"/>
       <c r="BP4" s="4"/>
     </row>
+    <row r="5" spans="1:68" ht="48.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="11">
+        <v>1</v>
+      </c>
+      <c r="B5" s="4">
+        <v>2</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4">
+        <v>3</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="L5" s="4">
+        <v>12345</v>
+      </c>
+      <c r="M5" s="4">
+        <v>54321</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="P5" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="4">
+        <v>-3</v>
+      </c>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="T5" s="4">
+        <v>-15</v>
+      </c>
+      <c r="U5" s="4">
+        <v>-10</v>
+      </c>
+      <c r="V5" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="W5" s="4"/>
+      <c r="X5" s="4"/>
+      <c r="Y5" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="Z5" s="4">
+        <v>2</v>
+      </c>
+      <c r="AA5" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="AB5" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="8"/>
+      <c r="AD5" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="4"/>
+      <c r="AF5" s="4"/>
+      <c r="AG5" s="4"/>
+      <c r="AH5" s="4"/>
+      <c r="AI5" s="4"/>
+      <c r="AJ5" s="4"/>
+      <c r="AK5" s="4"/>
+      <c r="AL5" s="4"/>
+      <c r="AM5" s="4"/>
+      <c r="AN5" s="4"/>
+      <c r="AO5" s="4"/>
+      <c r="AP5" s="4"/>
+      <c r="AQ5" s="4"/>
+      <c r="AR5" s="4"/>
+      <c r="AS5" s="4"/>
+      <c r="AT5" s="4"/>
+      <c r="AU5" s="4"/>
+      <c r="AV5" s="4"/>
+      <c r="AW5" s="4"/>
+      <c r="AX5" s="4"/>
+      <c r="AY5" s="4"/>
+      <c r="AZ5" s="4"/>
+      <c r="BA5" s="4"/>
+      <c r="BB5" s="4"/>
+      <c r="BC5" s="4"/>
+      <c r="BD5" s="4"/>
+      <c r="BE5" s="4"/>
+      <c r="BF5" s="4"/>
+      <c r="BG5" s="4"/>
+      <c r="BH5" s="4"/>
+      <c r="BI5" s="4"/>
+      <c r="BJ5" s="4"/>
+      <c r="BK5" s="4"/>
+      <c r="BL5" s="4"/>
+      <c r="BM5" s="4"/>
+      <c r="BN5" s="4"/>
+      <c r="BO5" s="4"/>
+      <c r="BP5" s="4"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1834,63 +1966,17 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:BP5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection activeCell="AB5" sqref="AB5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.796875" style="11" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
-        <v>186</v>
-      </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="12"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="B3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>188</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:BP4"/>
-  <sheetViews>
-    <sheetView topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="AA4" sqref="AA4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="8.796875" style="11" customWidth="1"/>
-    <col min="2" max="16384" width="8.796875" style="11"/>
+    <col min="1" max="2" width="8.796875" style="11" customWidth="1"/>
+    <col min="3" max="16384" width="8.796875" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:68" ht="58" customHeight="1" x14ac:dyDescent="0.3">
@@ -2100,6 +2186,9 @@
       </c>
     </row>
     <row r="2" spans="1:68" ht="66" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="s">
+        <v>188</v>
+      </c>
       <c r="B2" s="4" t="s">
         <v>74</v>
       </c>
@@ -2272,9 +2361,7 @@
       <c r="C3" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>109</v>
-      </c>
+      <c r="D3" s="4"/>
       <c r="E3" s="4" t="s">
         <v>111</v>
       </c>
@@ -2490,8 +2577,12 @@
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
+      <c r="P4" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="4">
+        <v>-1</v>
+      </c>
       <c r="R4" s="4"/>
       <c r="S4" s="4"/>
       <c r="T4" s="4"/>
@@ -2499,10 +2590,12 @@
       <c r="V4" s="4"/>
       <c r="W4" s="4"/>
       <c r="X4" s="4"/>
-      <c r="Y4" s="4"/>
+      <c r="Y4" s="4" t="s">
+        <v>190</v>
+      </c>
       <c r="Z4" s="4"/>
       <c r="AA4" s="4" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="AB4" s="8"/>
       <c r="AC4" s="8"/>
@@ -2546,6 +2639,23 @@
       <c r="BO4" s="4"/>
       <c r="BP4" s="4"/>
     </row>
+    <row r="5" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="A5" s="11">
+        <v>2</v>
+      </c>
+      <c r="B5" s="11">
+        <v>2</v>
+      </c>
+      <c r="C5" s="11">
+        <v>1017</v>
+      </c>
+      <c r="Y5" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="AA5" s="11" t="s">
+        <v>191</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/testdata/Smoke_WEB_MED_098_NEWREPORT_01.xlsx
+++ b/testdata/Smoke_WEB_MED_098_NEWREPORT_01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\docker0814\test_RobotFramework\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61C8EE60-CCB5-4078-B220-94C97B5FB65A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F1F2370-B8CE-43EE-98A5-76B4C026F6DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="603" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-80" yWindow="220" windowWidth="12270" windowHeight="9420" tabRatio="603" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="209">
   <si>
     <t>User</t>
   </si>
@@ -244,9 +244,6 @@
   </si>
   <si>
     <t>備註</t>
-  </si>
-  <si>
-    <t>必填</t>
   </si>
   <si>
     <t>不填寫</t>
@@ -605,35 +602,7 @@
     <t>淋病</t>
   </si>
   <si>
-    <t>測試醫師</t>
-  </si>
-  <si>
-    <t>Z987654321</t>
-  </si>
-  <si>
-    <t>測試姓名</t>
-  </si>
-  <si>
-    <t>民國70/06/02</t>
-  </si>
-  <si>
-    <t>基隆市</t>
-  </si>
-  <si>
-    <t>中正區</t>
-  </si>
-  <si>
     <t>細菌,染色,PCR</t>
-  </si>
-  <si>
-    <t>家管</t>
-  </si>
-  <si>
-    <t>學生</t>
-  </si>
-  <si>
-    <t>廚師</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1新增
@@ -641,15 +610,127 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PCR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>細菌</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>診斷醫師</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身分證統一編號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>個案姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出生日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>居住縣市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鄉鎮市區</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>必填
+需和report編號對齊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>必填
+需和update編號對齊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z987654321</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>測試姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>民國70/06/02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南投縣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鹿谷鄉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>測試醫師</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>農業人員</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test1023</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>病患動向: 3
+需填寫/
+以現在日期+-N日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>細菌,染色或PCR  以 , 分隔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前者為TRUE需填寫 以 , 分隔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子宮頸炎,骨盤腔腹膜炎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>098</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>淋病</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基隆市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中正區</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>家管</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雙球菌實驗室診斷未填寫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>愛滋篩檢填寫時 篩檢日期未填寫</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -713,7 +794,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -748,6 +829,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1078,10 +1168,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="工作表1"/>
-  <dimension ref="A1:BP5"/>
+  <dimension ref="A1:BP6"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="Y2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AA6" sqref="AA6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -1146,7 +1236,7 @@
   <sheetData>
     <row r="1" spans="1:68" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
-        <v>6</v>
+        <v>201</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>7</v>
@@ -1167,16 +1257,16 @@
         <v>12</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>13</v>
+        <v>180</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>14</v>
+        <v>181</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>15</v>
+        <v>182</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>16</v>
+        <v>183</v>
       </c>
       <c r="L1" s="5" t="s">
         <v>17</v>
@@ -1185,10 +1275,10 @@
         <v>18</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>19</v>
+        <v>184</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>20</v>
+        <v>185</v>
       </c>
       <c r="P1" s="5" t="s">
         <v>21</v>
@@ -1350,19 +1440,19 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:68" s="2" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:68" s="2" customFormat="1" ht="55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>74</v>
+        <v>187</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>75</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>76</v>
       </c>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
@@ -1375,349 +1465,349 @@
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
       <c r="P2" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q2" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="R2" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="S2" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="T2" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="S2" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="T2" s="4" t="s">
+      <c r="U2" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="V2" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="W2" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="U2" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="V2" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="W2" s="4" t="s">
+      <c r="X2" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="X2" s="4" t="s">
+      <c r="Y2" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="Y2" s="4" t="s">
+      <c r="Z2" s="4" t="s">
         <v>83</v>
-      </c>
-      <c r="Z2" s="4" t="s">
-        <v>84</v>
       </c>
       <c r="AA2" s="4"/>
       <c r="AB2" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AC2" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD2" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE2" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="AD2" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="AE2" s="4" t="s">
+      <c r="AF2" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="AF2" s="4" t="s">
+      <c r="AG2" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="AG2" s="4" t="s">
+      <c r="AH2" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="AI2" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="AH2" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="AI2" s="4" t="s">
+      <c r="AJ2" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="AJ2" s="4" t="s">
+      <c r="AK2" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="AL2" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="AK2" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL2" s="4" t="s">
+      <c r="AM2" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="AM2" s="4" t="s">
-        <v>92</v>
-      </c>
       <c r="AN2" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AO2" s="4"/>
       <c r="AP2" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="AQ2" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="AQ2" s="4" t="s">
+      <c r="AR2" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="AR2" s="4" t="s">
+      <c r="AS2" s="4" t="s">
         <v>95</v>
-      </c>
-      <c r="AS2" s="4" t="s">
-        <v>96</v>
       </c>
       <c r="AT2" s="4"/>
       <c r="AU2" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AV2" s="4"/>
       <c r="AW2" s="4"/>
       <c r="AX2" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AY2" s="4"/>
       <c r="AZ2" s="4"/>
       <c r="BA2" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="BB2" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="BB2" s="4" t="s">
+      <c r="BC2" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="BC2" s="4" t="s">
+      <c r="BD2" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="BE2" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="BD2" s="4" t="s">
+      <c r="BF2" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="BE2" s="4" t="s">
+      <c r="BG2" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="BF2" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="BG2" s="4" t="s">
+      <c r="BH2" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="BH2" s="4" t="s">
+      <c r="BI2" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="BI2" s="4" t="s">
+      <c r="BJ2" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="BJ2" s="4" t="s">
+      <c r="BK2" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL2" s="4" t="s">
         <v>105</v>
-      </c>
-      <c r="BK2" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="BL2" s="4" t="s">
-        <v>106</v>
       </c>
       <c r="BM2" s="4"/>
       <c r="BN2" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="BO2" s="4"/>
       <c r="BP2" s="4"/>
     </row>
     <row r="3" spans="1:68" s="3" customFormat="1" ht="53" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="G3" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="H3" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="I3" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="J3" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="K3" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="L3" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="M3" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="N3" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="O3" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="P3" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="P3" s="4" t="s">
+      <c r="Q3" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="Q3" s="4" t="s">
+      <c r="R3" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="R3" s="4" t="s">
+      <c r="S3" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="S3" s="4" t="s">
+      <c r="T3" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="T3" s="4" t="s">
+      <c r="U3" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="U3" s="4" t="s">
+      <c r="V3" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="V3" s="4" t="s">
+      <c r="W3" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="W3" s="4" t="s">
+      <c r="X3" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="X3" s="4" t="s">
+      <c r="Y3" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="Y3" s="4" t="s">
+      <c r="Z3" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="Z3" s="4" t="s">
+      <c r="AA3" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="AA3" s="4" t="s">
+      <c r="AB3" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="AB3" s="8" t="s">
+      <c r="AC3" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="AC3" s="8" t="s">
+      <c r="AD3" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="AD3" s="4" t="s">
+      <c r="AE3" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="AE3" s="4" t="s">
+      <c r="AF3" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="AF3" s="4" t="s">
+      <c r="AG3" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="AG3" s="4" t="s">
+      <c r="AH3" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="AH3" s="4" t="s">
+      <c r="AI3" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="AI3" s="4" t="s">
+      <c r="AJ3" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="AJ3" s="4" t="s">
+      <c r="AK3" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="AK3" s="4" t="s">
+      <c r="AL3" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="AL3" s="4" t="s">
+      <c r="AM3" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="AM3" s="4" t="s">
+      <c r="AN3" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="AN3" s="4" t="s">
+      <c r="AO3" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="AO3" s="4" t="s">
+      <c r="AP3" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="AP3" s="4" t="s">
+      <c r="AQ3" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="AQ3" s="4" t="s">
+      <c r="AR3" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="AR3" s="4" t="s">
+      <c r="AS3" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="AS3" s="4" t="s">
+      <c r="AT3" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="AT3" s="4" t="s">
+      <c r="AU3" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="AU3" s="4" t="s">
+      <c r="AV3" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="AV3" s="4" t="s">
+      <c r="AW3" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="AW3" s="4" t="s">
+      <c r="AX3" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="AX3" s="4" t="s">
+      <c r="AY3" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="AY3" s="4" t="s">
+      <c r="AZ3" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="AZ3" s="4" t="s">
+      <c r="BA3" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="BA3" s="4" t="s">
+      <c r="BB3" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="BB3" s="4" t="s">
+      <c r="BC3" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="BC3" s="4" t="s">
+      <c r="BD3" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="BD3" s="4" t="s">
+      <c r="BE3" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="BE3" s="4" t="s">
+      <c r="BF3" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="BF3" s="4" t="s">
+      <c r="BG3" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="BG3" s="4" t="s">
+      <c r="BH3" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="BH3" s="4" t="s">
+      <c r="BI3" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="BI3" s="4" t="s">
+      <c r="BJ3" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="BJ3" s="4" t="s">
+      <c r="BK3" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="BK3" s="4" t="s">
+      <c r="BL3" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="BL3" s="4" t="s">
+      <c r="BM3" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="BM3" s="4" t="s">
+      <c r="BN3" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="BN3" s="4" t="s">
+      <c r="BO3" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="BO3" s="4" t="s">
+      <c r="BP3" s="4" t="s">
         <v>173</v>
-      </c>
-      <c r="BP3" s="4" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:68" ht="48.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1728,29 +1818,29 @@
         <v>1</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4">
         <v>3</v>
       </c>
       <c r="F4" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>177</v>
-      </c>
       <c r="H4" s="4" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="L4" s="4">
         <v>12345</v>
@@ -1759,10 +1849,10 @@
         <v>54321</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="P4" s="4" t="b">
         <v>0</v>
@@ -1784,13 +1874,13 @@
       <c r="W4" s="4"/>
       <c r="X4" s="4"/>
       <c r="Y4" s="4" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="Z4" s="4">
         <v>2</v>
       </c>
       <c r="AA4" s="4" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="AB4" s="8" t="b">
         <v>0</v>
@@ -1838,37 +1928,36 @@
       <c r="BO4" s="4"/>
       <c r="BP4" s="4"/>
     </row>
-    <row r="5" spans="1:68" ht="48.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:68" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.3">
       <c r="A5" s="11">
         <v>1</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="11">
         <v>2</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="D5" s="4"/>
+        <v>207</v>
+      </c>
       <c r="E5" s="4">
         <v>3</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>176</v>
+        <v>202</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>177</v>
+        <v>203</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="L5" s="4">
         <v>12345</v>
@@ -1877,48 +1966,42 @@
         <v>54321</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>182</v>
+        <v>204</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>183</v>
+        <v>205</v>
       </c>
       <c r="P5" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="4">
-        <v>-3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
       <c r="S5" s="4" t="b">
         <v>1</v>
       </c>
       <c r="T5" s="4">
-        <v>-15</v>
+        <v>-10</v>
       </c>
       <c r="U5" s="4">
-        <v>-10</v>
+        <v>-9</v>
       </c>
       <c r="V5" s="4" t="b">
         <v>0</v>
       </c>
       <c r="W5" s="4"/>
       <c r="X5" s="4"/>
-      <c r="Y5" s="4" t="s">
-        <v>184</v>
-      </c>
+      <c r="Y5" s="4"/>
       <c r="Z5" s="4">
         <v>2</v>
       </c>
       <c r="AA5" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="AB5" s="8" t="b">
+        <v>206</v>
+      </c>
+      <c r="AB5" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="AC5" s="8"/>
-      <c r="AD5" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="AC5" s="4"/>
+      <c r="AD5" s="4"/>
       <c r="AE5" s="4"/>
       <c r="AF5" s="4"/>
       <c r="AG5" s="4"/>
@@ -1954,9 +2037,127 @@
       <c r="BK5" s="4"/>
       <c r="BL5" s="4"/>
       <c r="BM5" s="4"/>
-      <c r="BN5" s="4"/>
-      <c r="BO5" s="4"/>
-      <c r="BP5" s="4"/>
+      <c r="BN5" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="BO5" s="8">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:68" ht="29" x14ac:dyDescent="0.3">
+      <c r="A6" s="11">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="E6" s="4">
+        <v>3</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="L6" s="4">
+        <v>12345</v>
+      </c>
+      <c r="M6" s="4">
+        <v>54321</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="P6" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="T6" s="4">
+        <v>-10</v>
+      </c>
+      <c r="U6" s="4">
+        <v>-9</v>
+      </c>
+      <c r="V6" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="W6" s="4"/>
+      <c r="X6" s="4"/>
+      <c r="Y6" s="4"/>
+      <c r="Z6" s="4">
+        <v>2</v>
+      </c>
+      <c r="AA6" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="AB6" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="4"/>
+      <c r="AD6" s="4"/>
+      <c r="AE6" s="4"/>
+      <c r="AF6" s="4"/>
+      <c r="AG6" s="4"/>
+      <c r="AH6" s="4"/>
+      <c r="AI6" s="4"/>
+      <c r="AJ6" s="4"/>
+      <c r="AK6" s="4"/>
+      <c r="AL6" s="4"/>
+      <c r="AM6" s="4"/>
+      <c r="AN6" s="4"/>
+      <c r="AO6" s="4"/>
+      <c r="AP6" s="4"/>
+      <c r="AQ6" s="4"/>
+      <c r="AR6" s="4"/>
+      <c r="AS6" s="4"/>
+      <c r="AT6" s="4"/>
+      <c r="AU6" s="4"/>
+      <c r="AV6" s="4"/>
+      <c r="AW6" s="4"/>
+      <c r="AX6" s="4"/>
+      <c r="AY6" s="4"/>
+      <c r="AZ6" s="4"/>
+      <c r="BA6" s="4"/>
+      <c r="BB6" s="4"/>
+      <c r="BC6" s="4"/>
+      <c r="BD6" s="4"/>
+      <c r="BE6" s="4"/>
+      <c r="BF6" s="4"/>
+      <c r="BG6" s="4"/>
+      <c r="BH6" s="4"/>
+      <c r="BI6" s="4"/>
+      <c r="BJ6" s="4"/>
+      <c r="BK6" s="4"/>
+      <c r="BL6" s="4"/>
+      <c r="BM6" s="4"/>
+      <c r="BN6" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="BO6" s="8"/>
+      <c r="BP6" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1967,10 +2168,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:BP5"/>
+  <dimension ref="A1:BP4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AB5" sqref="AB5"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -1979,8 +2180,8 @@
     <col min="3" max="16384" width="8.796875" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:68" ht="58" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:68" s="14" customFormat="1" ht="58" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="5" t="s">
@@ -1989,219 +2190,219 @@
       <c r="C1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="O1" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="P1" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="R1" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="S1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="T1" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="U1" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="V1" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="W1" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="X1" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="Y1" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="Z1" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AA1" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="AB1" s="7" t="s">
+      <c r="AB1" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="AC1" s="8" t="s">
+      <c r="AC1" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="AD1" s="5" t="s">
+      <c r="AD1" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="AE1" s="4" t="s">
+      <c r="AE1" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="AF1" s="4" t="s">
+      <c r="AF1" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="AG1" s="4" t="s">
+      <c r="AG1" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="AH1" s="4" t="s">
+      <c r="AH1" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="AI1" s="4" t="s">
+      <c r="AI1" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="AJ1" s="4" t="s">
+      <c r="AJ1" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="AK1" s="4" t="s">
+      <c r="AK1" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="AL1" s="4" t="s">
+      <c r="AL1" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="AM1" s="4" t="s">
+      <c r="AM1" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="AN1" s="4" t="s">
+      <c r="AN1" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="AO1" s="4" t="s">
+      <c r="AO1" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="AP1" s="4" t="s">
+      <c r="AP1" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="AQ1" s="4" t="s">
+      <c r="AQ1" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="AR1" s="4" t="s">
+      <c r="AR1" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="AS1" s="4" t="s">
+      <c r="AS1" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="AT1" s="4" t="s">
+      <c r="AT1" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="AU1" s="4" t="s">
+      <c r="AU1" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="AV1" s="4" t="s">
+      <c r="AV1" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="AW1" s="4" t="s">
+      <c r="AW1" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="AX1" s="4" t="s">
+      <c r="AX1" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="AY1" s="4" t="s">
+      <c r="AY1" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="AZ1" s="4" t="s">
+      <c r="AZ1" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="BA1" s="4" t="s">
+      <c r="BA1" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="BB1" s="4" t="s">
+      <c r="BB1" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="BC1" s="4" t="s">
+      <c r="BC1" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="BD1" s="4" t="s">
+      <c r="BD1" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="BE1" s="4" t="s">
+      <c r="BE1" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="BF1" s="4" t="s">
+      <c r="BF1" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="BG1" s="4" t="s">
+      <c r="BG1" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="BH1" s="4" t="s">
+      <c r="BH1" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="BI1" s="4" t="s">
+      <c r="BI1" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="BJ1" s="4" t="s">
+      <c r="BJ1" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="BK1" s="4" t="s">
+      <c r="BK1" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="BL1" s="4" t="s">
+      <c r="BL1" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="BM1" s="4" t="s">
+      <c r="BM1" s="9" t="s">
         <v>70</v>
       </c>
       <c r="BN1" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="BO1" s="4" t="s">
+      <c r="BO1" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="BP1" s="4" t="s">
+      <c r="BP1" s="9" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:68" ht="66" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:68" ht="91" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>74</v>
+        <v>186</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
@@ -2212,347 +2413,347 @@
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
       <c r="P2" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q2" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="R2" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="S2" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="T2" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="S2" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="T2" s="4" t="s">
-        <v>80</v>
-      </c>
       <c r="U2" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="V2" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="W2" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="X2" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="X2" s="4" t="s">
-        <v>82</v>
-      </c>
       <c r="Y2" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="Z2" s="4" t="s">
         <v>83</v>
-      </c>
-      <c r="Z2" s="4" t="s">
-        <v>84</v>
       </c>
       <c r="AA2" s="4"/>
       <c r="AB2" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AC2" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD2" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE2" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="AD2" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="AE2" s="4" t="s">
+      <c r="AF2" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="AF2" s="4" t="s">
+      <c r="AG2" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="AG2" s="4" t="s">
+      <c r="AH2" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="AI2" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="AH2" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="AI2" s="4" t="s">
+      <c r="AJ2" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="AJ2" s="4" t="s">
+      <c r="AK2" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="AL2" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="AK2" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL2" s="4" t="s">
+      <c r="AM2" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="AM2" s="4" t="s">
-        <v>92</v>
-      </c>
       <c r="AN2" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AO2" s="4"/>
       <c r="AP2" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="AQ2" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="AQ2" s="4" t="s">
+      <c r="AR2" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="AR2" s="4" t="s">
+      <c r="AS2" s="4" t="s">
         <v>95</v>
-      </c>
-      <c r="AS2" s="4" t="s">
-        <v>96</v>
       </c>
       <c r="AT2" s="4"/>
       <c r="AU2" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AV2" s="4"/>
       <c r="AW2" s="4"/>
       <c r="AX2" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AY2" s="4"/>
       <c r="AZ2" s="4"/>
       <c r="BA2" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BB2" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="BC2" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="BC2" s="4" t="s">
+      <c r="BD2" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="BE2" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="BD2" s="4" t="s">
+      <c r="BF2" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="BE2" s="4" t="s">
+      <c r="BG2" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="BF2" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="BG2" s="4" t="s">
+      <c r="BH2" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="BH2" s="4" t="s">
+      <c r="BI2" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="BI2" s="4" t="s">
+      <c r="BJ2" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="BJ2" s="4" t="s">
+      <c r="BK2" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL2" s="4" t="s">
         <v>105</v>
-      </c>
-      <c r="BK2" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="BL2" s="4" t="s">
-        <v>106</v>
       </c>
       <c r="BM2" s="4"/>
       <c r="BN2" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="BO2" s="4"/>
       <c r="BP2" s="4"/>
     </row>
     <row r="3" spans="1:68" ht="58" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>108</v>
-      </c>
       <c r="C3" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="F3" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="G3" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="H3" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="I3" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="J3" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="K3" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="L3" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="M3" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="N3" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="O3" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="P3" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="P3" s="4" t="s">
+      <c r="Q3" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="Q3" s="4" t="s">
+      <c r="R3" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="R3" s="4" t="s">
+      <c r="S3" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="S3" s="4" t="s">
+      <c r="T3" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="T3" s="4" t="s">
+      <c r="U3" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="U3" s="4" t="s">
+      <c r="V3" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="V3" s="4" t="s">
+      <c r="W3" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="W3" s="4" t="s">
+      <c r="X3" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="X3" s="4" t="s">
+      <c r="Y3" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="Y3" s="4" t="s">
+      <c r="Z3" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="Z3" s="4" t="s">
+      <c r="AA3" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="AA3" s="4" t="s">
+      <c r="AB3" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="AB3" s="8" t="s">
+      <c r="AC3" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="AC3" s="8" t="s">
+      <c r="AD3" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="AD3" s="4" t="s">
+      <c r="AE3" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="AE3" s="4" t="s">
+      <c r="AF3" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="AF3" s="4" t="s">
+      <c r="AG3" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="AG3" s="4" t="s">
+      <c r="AH3" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="AH3" s="4" t="s">
+      <c r="AI3" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="AI3" s="4" t="s">
+      <c r="AJ3" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="AJ3" s="4" t="s">
+      <c r="AK3" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="AK3" s="4" t="s">
+      <c r="AL3" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="AL3" s="4" t="s">
+      <c r="AM3" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="AM3" s="4" t="s">
+      <c r="AN3" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="AN3" s="4" t="s">
+      <c r="AO3" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="AO3" s="4" t="s">
+      <c r="AP3" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="AP3" s="4" t="s">
+      <c r="AQ3" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="AQ3" s="4" t="s">
+      <c r="AR3" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="AR3" s="4" t="s">
+      <c r="AS3" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="AS3" s="4" t="s">
+      <c r="AT3" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="AT3" s="4" t="s">
+      <c r="AU3" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="AU3" s="4" t="s">
+      <c r="AV3" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="AV3" s="4" t="s">
+      <c r="AW3" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="AW3" s="4" t="s">
+      <c r="AX3" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="AX3" s="4" t="s">
+      <c r="AY3" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="AY3" s="4" t="s">
+      <c r="AZ3" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="AZ3" s="4" t="s">
+      <c r="BA3" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="BA3" s="4" t="s">
+      <c r="BB3" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="BB3" s="4" t="s">
+      <c r="BC3" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="BC3" s="4" t="s">
+      <c r="BD3" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="BD3" s="4" t="s">
+      <c r="BE3" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="BE3" s="4" t="s">
+      <c r="BF3" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="BF3" s="4" t="s">
+      <c r="BG3" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="BG3" s="4" t="s">
+      <c r="BH3" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="BH3" s="4" t="s">
+      <c r="BI3" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="BI3" s="4" t="s">
+      <c r="BJ3" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="BJ3" s="4" t="s">
+      <c r="BK3" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="BK3" s="4" t="s">
+      <c r="BL3" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="BL3" s="4" t="s">
+      <c r="BM3" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="BM3" s="4" t="s">
+      <c r="BN3" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="BN3" s="4" t="s">
+      <c r="BO3" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="BO3" s="4" t="s">
+      <c r="BP3" s="4" t="s">
         <v>173</v>
-      </c>
-      <c r="BP3" s="4" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:68" ht="29" customHeight="1" x14ac:dyDescent="0.3">
@@ -2563,7 +2764,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="4">
-        <v>1018</v>
+        <v>1023</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -2577,26 +2778,30 @@
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
-      <c r="P4" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="4">
-        <v>-1</v>
-      </c>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4">
+        <v>-13</v>
+      </c>
+      <c r="S4" s="4" t="b">
+        <v>0</v>
+      </c>
       <c r="T4" s="4"/>
       <c r="U4" s="4"/>
-      <c r="V4" s="4"/>
-      <c r="W4" s="4"/>
+      <c r="V4" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="W4" s="4" t="s">
+        <v>199</v>
+      </c>
       <c r="X4" s="4"/>
       <c r="Y4" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="Z4" s="4"/>
-      <c r="AA4" s="4" t="s">
-        <v>186</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="Z4" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA4" s="4"/>
       <c r="AB4" s="8"/>
       <c r="AC4" s="8"/>
       <c r="AD4" s="4"/>
@@ -2610,8 +2815,12 @@
       <c r="AL4" s="4"/>
       <c r="AM4" s="4"/>
       <c r="AN4" s="4"/>
-      <c r="AO4" s="4"/>
-      <c r="AP4" s="4"/>
+      <c r="AO4" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="AP4" s="4">
+        <v>1</v>
+      </c>
       <c r="AQ4" s="4"/>
       <c r="AR4" s="4"/>
       <c r="AS4" s="4"/>
@@ -2622,8 +2831,12 @@
       <c r="AX4" s="4"/>
       <c r="AY4" s="4"/>
       <c r="AZ4" s="4"/>
-      <c r="BA4" s="4"/>
-      <c r="BB4" s="4"/>
+      <c r="BA4" s="4">
+        <v>3</v>
+      </c>
+      <c r="BB4" s="4">
+        <v>-5</v>
+      </c>
       <c r="BC4" s="4"/>
       <c r="BD4" s="4"/>
       <c r="BE4" s="4"/>
@@ -2639,23 +2852,6 @@
       <c r="BO4" s="4"/>
       <c r="BP4" s="4"/>
     </row>
-    <row r="5" spans="1:68" x14ac:dyDescent="0.3">
-      <c r="A5" s="11">
-        <v>2</v>
-      </c>
-      <c r="B5" s="11">
-        <v>2</v>
-      </c>
-      <c r="C5" s="11">
-        <v>1017</v>
-      </c>
-      <c r="Y5" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="AA5" s="11" t="s">
-        <v>191</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/testdata/Smoke_WEB_MED_098_NEWREPORT_01.xlsx
+++ b/testdata/Smoke_WEB_MED_098_NEWREPORT_01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\docker0814\test_RobotFramework\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F1F2370-B8CE-43EE-98A5-76B4C026F6DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC6C760D-FE3A-411A-B2C8-0EB3BD76A2D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-80" yWindow="220" windowWidth="12270" windowHeight="9420" tabRatio="603" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="160" windowWidth="12270" windowHeight="9420" tabRatio="603" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="213">
   <si>
     <t>User</t>
   </si>
@@ -610,10 +610,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>細菌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>診斷醫師</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -673,10 +669,6 @@
   </si>
   <si>
     <t>農業人員</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test1023</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -694,10 +686,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>子宮頸炎,骨盤腔腹膜炎</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Num</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -731,6 +719,34 @@
   </si>
   <si>
     <t>愛滋篩檢填寫時 篩檢日期未填寫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>廚師</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>學生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>預期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXPECTED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>True</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>False</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>數值設定須為文字/ True 或 False</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -738,7 +754,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -760,6 +776,13 @@
       <family val="1"/>
       <charset val="136"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Microsoft JhengHei"/>
+      <family val="1"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="4">
@@ -794,7 +817,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -838,6 +861,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1125,12 +1151,12 @@
       <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="4" max="4" width="29" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1144,7 +1170,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1168,75 +1194,76 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="工作表1"/>
-  <dimension ref="A1:BP6"/>
+  <dimension ref="A1:BQ7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AA6" sqref="AA6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="8.796875" style="11" customWidth="1"/>
     <col min="3" max="3" width="17.3984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.59765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="30.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.19921875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.19921875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.19921875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.8984375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.09765625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.59765625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.8984375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="23.3984375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="21.796875" customWidth="1"/>
-    <col min="19" max="19" width="15.19921875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18.19921875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="17.59765625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="21" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="29.3984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="42.19921875" style="2" customWidth="1"/>
-    <col min="27" max="27" width="30.8984375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="22.296875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="22.296875" customWidth="1"/>
-    <col min="30" max="30" width="26.3984375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="28.796875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="26.3984375" customWidth="1"/>
-    <col min="33" max="33" width="28.796875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="26.296875" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="26.3984375" customWidth="1"/>
-    <col min="36" max="36" width="28.796875" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="26.296875" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="18.09765625" customWidth="1"/>
-    <col min="39" max="39" width="28.796875" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="26.296875" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="26" bestFit="1" customWidth="1"/>
-    <col min="42" max="47" width="26" customWidth="1"/>
-    <col min="48" max="49" width="9.59765625" customWidth="1"/>
-    <col min="50" max="50" width="16.09765625" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="29.09765625" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="12.69921875" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="19.59765625" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="26.5" bestFit="1" customWidth="1"/>
-    <col min="55" max="56" width="22.19921875" customWidth="1"/>
-    <col min="57" max="57" width="27.8984375" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="33.3984375" bestFit="1" customWidth="1"/>
-    <col min="59" max="60" width="22.19921875" customWidth="1"/>
-    <col min="61" max="61" width="32.59765625" bestFit="1" customWidth="1"/>
-    <col min="62" max="63" width="32.59765625" customWidth="1"/>
-    <col min="64" max="64" width="32.09765625" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="23.59765625" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="31" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="10.296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.3984375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="23.59765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.19921875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.19921875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.8984375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.09765625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.8984375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="23.3984375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21.796875" customWidth="1"/>
+    <col min="20" max="20" width="15.19921875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.19921875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="17.59765625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="21" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="29.3984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="42.19921875" style="2" customWidth="1"/>
+    <col min="28" max="28" width="30.8984375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="22.296875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="22.296875" customWidth="1"/>
+    <col min="31" max="31" width="26.3984375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="28.796875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="26.3984375" customWidth="1"/>
+    <col min="34" max="34" width="28.796875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="26.296875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="26.3984375" customWidth="1"/>
+    <col min="37" max="37" width="28.796875" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="26.296875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="18.09765625" customWidth="1"/>
+    <col min="40" max="40" width="28.796875" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="26.296875" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="26" bestFit="1" customWidth="1"/>
+    <col min="43" max="48" width="26" customWidth="1"/>
+    <col min="49" max="50" width="9.59765625" customWidth="1"/>
+    <col min="51" max="51" width="16.09765625" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="29.09765625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="12.69921875" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="19.59765625" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="26.5" bestFit="1" customWidth="1"/>
+    <col min="56" max="57" width="22.19921875" customWidth="1"/>
+    <col min="58" max="58" width="27.8984375" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="33.3984375" bestFit="1" customWidth="1"/>
+    <col min="60" max="61" width="22.19921875" customWidth="1"/>
+    <col min="62" max="62" width="32.59765625" bestFit="1" customWidth="1"/>
+    <col min="63" max="64" width="32.59765625" customWidth="1"/>
+    <col min="65" max="65" width="32.09765625" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="23.59765625" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="31" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="10.296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:68" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:69" ht="43.5" customHeight="1">
       <c r="A1" s="11" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>7</v>
@@ -1244,219 +1271,224 @@
       <c r="C1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="M1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="O1" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="L1" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="N1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="O1" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="P1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="S1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="T1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="U1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="V1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="W1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="X1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="Z1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="AA1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AB1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="AB1" s="7" t="s">
+      <c r="AC1" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="AC1" s="8" t="s">
+      <c r="AD1" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="AD1" s="5" t="s">
+      <c r="AE1" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="AE1" s="4" t="s">
+      <c r="AF1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="AF1" s="4" t="s">
+      <c r="AG1" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="AG1" s="4" t="s">
+      <c r="AH1" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AH1" s="4" t="s">
+      <c r="AI1" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AI1" s="4" t="s">
+      <c r="AJ1" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="AJ1" s="4" t="s">
+      <c r="AK1" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="AK1" s="4" t="s">
+      <c r="AL1" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="AL1" s="4" t="s">
+      <c r="AM1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="AM1" s="4" t="s">
+      <c r="AN1" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="AN1" s="4" t="s">
+      <c r="AO1" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="AO1" s="4" t="s">
+      <c r="AP1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AP1" s="4" t="s">
+      <c r="AQ1" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="AQ1" s="4" t="s">
+      <c r="AR1" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="AR1" s="4" t="s">
+      <c r="AS1" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="AS1" s="4" t="s">
+      <c r="AT1" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="AT1" s="4" t="s">
+      <c r="AU1" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="AU1" s="4" t="s">
+      <c r="AV1" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="AV1" s="4" t="s">
+      <c r="AW1" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="AW1" s="4" t="s">
+      <c r="AX1" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="AX1" s="4" t="s">
+      <c r="AY1" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="AY1" s="4" t="s">
+      <c r="AZ1" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="AZ1" s="4" t="s">
+      <c r="BA1" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="BA1" s="4" t="s">
+      <c r="BB1" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="BB1" s="4" t="s">
+      <c r="BC1" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="BC1" s="4" t="s">
+      <c r="BD1" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="BD1" s="4" t="s">
+      <c r="BE1" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="BE1" s="4" t="s">
+      <c r="BF1" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="BF1" s="4" t="s">
+      <c r="BG1" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="BG1" s="4" t="s">
+      <c r="BH1" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="BH1" s="4" t="s">
+      <c r="BI1" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="BI1" s="4" t="s">
+      <c r="BJ1" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="BJ1" s="4" t="s">
+      <c r="BK1" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="BK1" s="4" t="s">
+      <c r="BL1" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="BL1" s="4" t="s">
+      <c r="BM1" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="BM1" s="4" t="s">
+      <c r="BN1" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="BN1" s="9" t="s">
+      <c r="BO1" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="BO1" s="4" t="s">
+      <c r="BP1" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="BP1" s="4" t="s">
+      <c r="BQ1" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:68" s="2" customFormat="1" ht="55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:69" s="2" customFormat="1" ht="55" customHeight="1">
       <c r="A2" s="12" t="s">
         <v>178</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C2" s="4"/>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="F2" s="10"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="4"/>
+      <c r="H2" s="10"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
@@ -1464,431 +1496,432 @@
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
-      <c r="P2" s="4" t="s">
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="R2" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="S2" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="S2" s="4" t="s">
+      <c r="T2" s="4" t="s">
         <v>76</v>
-      </c>
-      <c r="T2" s="4" t="s">
-        <v>79</v>
       </c>
       <c r="U2" s="4" t="s">
         <v>79</v>
       </c>
       <c r="V2" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="W2" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="W2" s="4" t="s">
+      <c r="X2" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="X2" s="4" t="s">
+      <c r="Y2" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="Y2" s="4" t="s">
+      <c r="Z2" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="Z2" s="4" t="s">
+      <c r="AA2" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="AA2" s="4"/>
-      <c r="AB2" s="4" t="s">
+      <c r="AB2" s="4"/>
+      <c r="AC2" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="AC2" s="4" t="s">
+      <c r="AD2" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="AD2" s="4" t="s">
+      <c r="AE2" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="AE2" s="4" t="s">
+      <c r="AF2" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="AF2" s="4" t="s">
+      <c r="AG2" s="4" t="s">
         <v>86</v>
-      </c>
-      <c r="AG2" s="4" t="s">
-        <v>87</v>
       </c>
       <c r="AH2" s="4" t="s">
         <v>87</v>
       </c>
       <c r="AI2" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="AJ2" s="4" t="s">
         <v>88</v>
-      </c>
-      <c r="AJ2" s="4" t="s">
-        <v>89</v>
       </c>
       <c r="AK2" s="4" t="s">
         <v>89</v>
       </c>
       <c r="AL2" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="AM2" s="4" t="s">
         <v>90</v>
-      </c>
-      <c r="AM2" s="4" t="s">
-        <v>91</v>
       </c>
       <c r="AN2" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="AO2" s="4"/>
-      <c r="AP2" s="4" t="s">
+      <c r="AO2" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="AP2" s="4"/>
+      <c r="AQ2" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="AQ2" s="4" t="s">
+      <c r="AR2" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="AR2" s="4" t="s">
+      <c r="AS2" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="AS2" s="4" t="s">
+      <c r="AT2" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="AT2" s="4"/>
-      <c r="AU2" s="4" t="s">
+      <c r="AU2" s="4"/>
+      <c r="AV2" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="AV2" s="4"/>
       <c r="AW2" s="4"/>
-      <c r="AX2" s="4" t="s">
+      <c r="AX2" s="4"/>
+      <c r="AY2" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="AY2" s="4"/>
       <c r="AZ2" s="4"/>
-      <c r="BA2" s="4" t="s">
+      <c r="BA2" s="4"/>
+      <c r="BB2" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="BB2" s="4" t="s">
+      <c r="BC2" s="4" t="s">
         <v>98</v>
-      </c>
-      <c r="BC2" s="4" t="s">
-        <v>99</v>
       </c>
       <c r="BD2" s="4" t="s">
         <v>99</v>
       </c>
       <c r="BE2" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="BF2" s="4" t="s">
         <v>100</v>
       </c>
       <c r="BG2" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="BH2" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="BH2" s="4" t="s">
+      <c r="BI2" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="BI2" s="4" t="s">
+      <c r="BJ2" s="4" t="s">
         <v>103</v>
-      </c>
-      <c r="BJ2" s="4" t="s">
-        <v>104</v>
       </c>
       <c r="BK2" s="4" t="s">
         <v>104</v>
       </c>
       <c r="BL2" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="BM2" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="BM2" s="4"/>
-      <c r="BN2" s="4" t="s">
+      <c r="BN2" s="4"/>
+      <c r="BO2" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="BO2" s="4"/>
       <c r="BP2" s="4"/>
+      <c r="BQ2" s="4"/>
     </row>
-    <row r="3" spans="1:68" s="3" customFormat="1" ht="53" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:69" s="3" customFormat="1" ht="53" customHeight="1">
       <c r="A3" s="11" t="s">
         <v>106</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="G3" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="H3" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="I3" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="J3" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="K3" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="L3" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="M3" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="N3" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="O3" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="P3" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="P3" s="4" t="s">
+      <c r="Q3" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="Q3" s="4" t="s">
+      <c r="R3" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="R3" s="4" t="s">
+      <c r="S3" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="S3" s="4" t="s">
+      <c r="T3" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="T3" s="4" t="s">
+      <c r="U3" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="U3" s="4" t="s">
+      <c r="V3" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="V3" s="4" t="s">
+      <c r="W3" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="W3" s="4" t="s">
+      <c r="X3" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="X3" s="4" t="s">
+      <c r="Y3" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="Y3" s="4" t="s">
+      <c r="Z3" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="Z3" s="4" t="s">
+      <c r="AA3" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="AA3" s="4" t="s">
+      <c r="AB3" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="AB3" s="8" t="s">
+      <c r="AC3" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="AC3" s="8" t="s">
+      <c r="AD3" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="AD3" s="4" t="s">
+      <c r="AE3" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="AE3" s="4" t="s">
+      <c r="AF3" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="AF3" s="4" t="s">
+      <c r="AG3" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="AG3" s="4" t="s">
+      <c r="AH3" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="AH3" s="4" t="s">
+      <c r="AI3" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="AI3" s="4" t="s">
+      <c r="AJ3" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="AJ3" s="4" t="s">
+      <c r="AK3" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="AK3" s="4" t="s">
+      <c r="AL3" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="AL3" s="4" t="s">
+      <c r="AM3" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="AM3" s="4" t="s">
+      <c r="AN3" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="AN3" s="4" t="s">
+      <c r="AO3" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="AO3" s="4" t="s">
+      <c r="AP3" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="AP3" s="4" t="s">
+      <c r="AQ3" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="AQ3" s="4" t="s">
+      <c r="AR3" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="AR3" s="4" t="s">
+      <c r="AS3" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="AS3" s="4" t="s">
+      <c r="AT3" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="AT3" s="4" t="s">
+      <c r="AU3" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="AU3" s="4" t="s">
+      <c r="AV3" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="AV3" s="4" t="s">
+      <c r="AW3" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="AW3" s="4" t="s">
+      <c r="AX3" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="AX3" s="4" t="s">
+      <c r="AY3" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="AY3" s="4" t="s">
+      <c r="AZ3" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="AZ3" s="4" t="s">
+      <c r="BA3" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="BA3" s="4" t="s">
+      <c r="BB3" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="BB3" s="4" t="s">
+      <c r="BC3" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="BC3" s="4" t="s">
+      <c r="BD3" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="BD3" s="4" t="s">
+      <c r="BE3" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="BE3" s="4" t="s">
+      <c r="BF3" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="BF3" s="4" t="s">
+      <c r="BG3" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="BG3" s="4" t="s">
+      <c r="BH3" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="BH3" s="4" t="s">
+      <c r="BI3" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="BI3" s="4" t="s">
+      <c r="BJ3" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="BJ3" s="4" t="s">
+      <c r="BK3" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="BK3" s="4" t="s">
+      <c r="BL3" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="BL3" s="4" t="s">
+      <c r="BM3" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="BM3" s="4" t="s">
+      <c r="BN3" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="BN3" s="4" t="s">
+      <c r="BO3" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="BO3" s="4" t="s">
+      <c r="BP3" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="BP3" s="4" t="s">
+      <c r="BQ3" s="4" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="4" spans="1:68" ht="48.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:69" s="11" customFormat="1" ht="29">
       <c r="A4" s="11">
         <v>1</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="11">
         <v>1</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4">
+        <v>204</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="F4" s="4">
         <v>3</v>
       </c>
-      <c r="F4" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>176</v>
+      <c r="G4" s="10" t="s">
+        <v>199</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="I4" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="K4" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="L4" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="K4" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="L4" s="4">
+      <c r="M4" s="4">
         <v>12345</v>
       </c>
-      <c r="M4" s="4">
+      <c r="N4" s="4">
         <v>54321</v>
       </c>
-      <c r="N4" s="4" t="s">
-        <v>191</v>
-      </c>
       <c r="O4" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="P4" s="4" t="b">
+        <v>201</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q4" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
-      <c r="S4" s="4" t="b">
+      <c r="S4" s="4"/>
+      <c r="T4" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="T4" s="4">
+      <c r="U4" s="4">
         <v>-10</v>
       </c>
-      <c r="U4" s="4">
+      <c r="V4" s="4">
         <v>-9</v>
       </c>
-      <c r="V4" s="4" t="b">
+      <c r="W4" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="W4" s="4"/>
       <c r="X4" s="4"/>
-      <c r="Y4" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="Z4" s="4">
+      <c r="Y4" s="4"/>
+      <c r="Z4" s="4"/>
+      <c r="AA4" s="4">
         <v>2</v>
       </c>
-      <c r="AA4" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="AB4" s="8" t="b">
+      <c r="AB4" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="AC4" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="AC4" s="8"/>
-      <c r="AD4" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD4" s="4"/>
       <c r="AE4" s="4"/>
       <c r="AF4" s="4"/>
       <c r="AG4" s="4"/>
@@ -1925,10 +1958,10 @@
       <c r="BL4" s="4"/>
       <c r="BM4" s="4"/>
       <c r="BN4" s="4"/>
-      <c r="BO4" s="4"/>
-      <c r="BP4" s="4"/>
+      <c r="BO4" s="8"/>
+      <c r="BP4" s="8"/>
     </row>
-    <row r="5" spans="1:68" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:69" s="11" customFormat="1" ht="29">
       <c r="A5" s="11">
         <v>1</v>
       </c>
@@ -1936,71 +1969,73 @@
         <v>2</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="E5" s="4">
+        <v>205</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="F5" s="4">
         <v>3</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="G5" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="M5" s="4">
+        <v>12345</v>
+      </c>
+      <c r="N5" s="4">
+        <v>54321</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="P5" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="L5" s="4">
-        <v>12345</v>
-      </c>
-      <c r="M5" s="4">
-        <v>54321</v>
-      </c>
-      <c r="N5" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="O5" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="P5" s="4" t="b">
+      <c r="Q5" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
-      <c r="S5" s="4" t="b">
+      <c r="S5" s="4"/>
+      <c r="T5" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="T5" s="4">
+      <c r="U5" s="4">
         <v>-10</v>
       </c>
-      <c r="U5" s="4">
+      <c r="V5" s="4">
         <v>-9</v>
       </c>
-      <c r="V5" s="4" t="b">
+      <c r="W5" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="W5" s="4"/>
       <c r="X5" s="4"/>
       <c r="Y5" s="4"/>
-      <c r="Z5" s="4">
+      <c r="Z5" s="4"/>
+      <c r="AA5" s="4">
         <v>2</v>
       </c>
-      <c r="AA5" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="AB5" s="4" t="b">
+      <c r="AB5" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="AC5" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="AC5" s="4"/>
       <c r="AD5" s="4"/>
       <c r="AE5" s="4"/>
       <c r="AF5" s="4"/>
@@ -2037,88 +2072,93 @@
       <c r="BK5" s="4"/>
       <c r="BL5" s="4"/>
       <c r="BM5" s="4"/>
-      <c r="BN5" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="BO5" s="8">
-        <v>-8</v>
-      </c>
+      <c r="BN5" s="4"/>
+      <c r="BO5" s="8"/>
+      <c r="BP5" s="8"/>
+      <c r="BQ5" s="4"/>
     </row>
-    <row r="6" spans="1:68" ht="29" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:69" s="11" customFormat="1" ht="48.5" customHeight="1">
       <c r="A6" s="11">
         <v>1</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="4">
         <v>3</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="E6" s="4">
+        <v>174</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4">
         <v>3</v>
       </c>
-      <c r="F6" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>203</v>
+      <c r="G6" s="10" t="s">
+        <v>175</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
       <c r="I6" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="K6" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="L6" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="M6" s="4">
+        <v>12345</v>
+      </c>
+      <c r="N6" s="4">
+        <v>54321</v>
+      </c>
+      <c r="O6" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="L6" s="4">
-        <v>12345</v>
-      </c>
-      <c r="M6" s="4">
-        <v>54321</v>
-      </c>
-      <c r="N6" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="O6" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="P6" s="4" t="b">
+      <c r="P6" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q6" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
-      <c r="S6" s="4" t="b">
+      <c r="S6" s="4"/>
+      <c r="T6" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="T6" s="4">
+      <c r="U6" s="4">
         <v>-10</v>
       </c>
-      <c r="U6" s="4">
+      <c r="V6" s="4">
         <v>-9</v>
       </c>
-      <c r="V6" s="4" t="b">
+      <c r="W6" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="W6" s="4"/>
       <c r="X6" s="4"/>
       <c r="Y6" s="4"/>
-      <c r="Z6" s="4">
+      <c r="Z6" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="AA6" s="4">
         <v>2</v>
       </c>
-      <c r="AA6" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="AB6" s="4" t="b">
+      <c r="AB6" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="AC6" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="AC6" s="4"/>
-      <c r="AD6" s="4"/>
-      <c r="AE6" s="4"/>
+      <c r="AD6" s="8"/>
+      <c r="AE6" s="4" t="b">
+        <v>0</v>
+      </c>
       <c r="AF6" s="4"/>
       <c r="AG6" s="4"/>
       <c r="AH6" s="4"/>
@@ -2153,11 +2193,131 @@
       <c r="BK6" s="4"/>
       <c r="BL6" s="4"/>
       <c r="BM6" s="4"/>
-      <c r="BN6" s="8" t="b">
+      <c r="BN6" s="4"/>
+      <c r="BO6" s="4"/>
+      <c r="BP6" s="4"/>
+      <c r="BQ6" s="4"/>
+    </row>
+    <row r="7" spans="1:69" s="11" customFormat="1" ht="48.5" customHeight="1">
+      <c r="A7" s="11">
         <v>1</v>
       </c>
-      <c r="BO6" s="8"/>
-      <c r="BP6" s="4"/>
+      <c r="B7" s="4">
+        <v>4</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4">
+        <v>3</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="M7" s="4">
+        <v>12345</v>
+      </c>
+      <c r="N7" s="4">
+        <v>54321</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q7" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="U7" s="4">
+        <v>-10</v>
+      </c>
+      <c r="V7" s="4">
+        <v>-9</v>
+      </c>
+      <c r="W7" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="4"/>
+      <c r="Z7" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="AA7" s="4">
+        <v>2</v>
+      </c>
+      <c r="AB7" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="AC7" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="8"/>
+      <c r="AE7" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="4"/>
+      <c r="AG7" s="4"/>
+      <c r="AH7" s="4"/>
+      <c r="AI7" s="4"/>
+      <c r="AJ7" s="4"/>
+      <c r="AK7" s="4"/>
+      <c r="AL7" s="4"/>
+      <c r="AM7" s="4"/>
+      <c r="AN7" s="4"/>
+      <c r="AO7" s="4"/>
+      <c r="AP7" s="4"/>
+      <c r="AQ7" s="4"/>
+      <c r="AR7" s="4"/>
+      <c r="AS7" s="4"/>
+      <c r="AT7" s="4"/>
+      <c r="AU7" s="4"/>
+      <c r="AV7" s="4"/>
+      <c r="AW7" s="4"/>
+      <c r="AX7" s="4"/>
+      <c r="AY7" s="4"/>
+      <c r="AZ7" s="4"/>
+      <c r="BA7" s="4"/>
+      <c r="BB7" s="4"/>
+      <c r="BC7" s="4"/>
+      <c r="BD7" s="4"/>
+      <c r="BE7" s="4"/>
+      <c r="BF7" s="4"/>
+      <c r="BG7" s="4"/>
+      <c r="BH7" s="4"/>
+      <c r="BI7" s="4"/>
+      <c r="BJ7" s="4"/>
+      <c r="BK7" s="4"/>
+      <c r="BL7" s="4"/>
+      <c r="BM7" s="4"/>
+      <c r="BN7" s="4"/>
+      <c r="BO7" s="4"/>
+      <c r="BP7" s="4"/>
+      <c r="BQ7" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2168,19 +2328,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:BP4"/>
+  <dimension ref="A1:BQ5"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="R5" sqref="R5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="2" width="8.796875" style="11" customWidth="1"/>
-    <col min="3" max="16384" width="8.796875" style="11"/>
+    <col min="3" max="4" width="8.796875" style="11"/>
+    <col min="5" max="5" width="17.3984375" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.796875" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:68" s="14" customFormat="1" ht="58" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:69" s="14" customFormat="1" ht="58" customHeight="1">
       <c r="A1" s="14" t="s">
         <v>6</v>
       </c>
@@ -2193,218 +2355,223 @@
       <c r="D1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="F1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="G1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="H1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="I1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="J1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="K1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="L1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="M1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="N1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="O1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="P1" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="Q1" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="R1" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="R1" s="9" t="s">
+      <c r="S1" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="S1" s="9" t="s">
+      <c r="T1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="T1" s="9" t="s">
+      <c r="U1" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="U1" s="9" t="s">
+      <c r="V1" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="V1" s="9" t="s">
+      <c r="W1" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="W1" s="9" t="s">
+      <c r="X1" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="X1" s="9" t="s">
+      <c r="Y1" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="Y1" s="9" t="s">
+      <c r="Z1" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="Z1" s="9" t="s">
+      <c r="AA1" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="AA1" s="9" t="s">
+      <c r="AB1" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="AB1" s="15" t="s">
+      <c r="AC1" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="AC1" s="15" t="s">
+      <c r="AD1" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="AD1" s="9" t="s">
+      <c r="AE1" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="AE1" s="9" t="s">
+      <c r="AF1" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="AF1" s="9" t="s">
+      <c r="AG1" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="AG1" s="9" t="s">
+      <c r="AH1" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="AH1" s="9" t="s">
+      <c r="AI1" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="AI1" s="9" t="s">
+      <c r="AJ1" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="AJ1" s="9" t="s">
+      <c r="AK1" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="AK1" s="9" t="s">
+      <c r="AL1" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="AL1" s="9" t="s">
+      <c r="AM1" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="AM1" s="9" t="s">
+      <c r="AN1" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="AN1" s="9" t="s">
+      <c r="AO1" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="AO1" s="9" t="s">
+      <c r="AP1" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="AP1" s="9" t="s">
+      <c r="AQ1" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="AQ1" s="9" t="s">
+      <c r="AR1" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="AR1" s="9" t="s">
+      <c r="AS1" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="AS1" s="9" t="s">
+      <c r="AT1" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="AT1" s="9" t="s">
+      <c r="AU1" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="AU1" s="9" t="s">
+      <c r="AV1" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="AV1" s="9" t="s">
+      <c r="AW1" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="AW1" s="9" t="s">
+      <c r="AX1" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="AX1" s="9" t="s">
+      <c r="AY1" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="AY1" s="9" t="s">
+      <c r="AZ1" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="AZ1" s="9" t="s">
+      <c r="BA1" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="BA1" s="9" t="s">
+      <c r="BB1" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="BB1" s="9" t="s">
+      <c r="BC1" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="BC1" s="9" t="s">
+      <c r="BD1" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="BD1" s="9" t="s">
+      <c r="BE1" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="BE1" s="9" t="s">
+      <c r="BF1" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="BF1" s="9" t="s">
+      <c r="BG1" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="BG1" s="9" t="s">
+      <c r="BH1" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="BH1" s="9" t="s">
+      <c r="BI1" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="BI1" s="9" t="s">
+      <c r="BJ1" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="BJ1" s="9" t="s">
+      <c r="BK1" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="BK1" s="9" t="s">
+      <c r="BL1" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="BL1" s="9" t="s">
+      <c r="BM1" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="BM1" s="9" t="s">
+      <c r="BN1" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="BN1" s="9" t="s">
+      <c r="BO1" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="BO1" s="9" t="s">
+      <c r="BP1" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="BP1" s="9" t="s">
+      <c r="BQ1" s="9" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:68" ht="91" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:69" ht="91" customHeight="1">
       <c r="A2" s="12" t="s">
         <v>178</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
-      <c r="E2" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F2" s="10" t="s">
+      <c r="E2" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>74</v>
       </c>
       <c r="G2" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="H2" s="4"/>
+      <c r="H2" s="10" t="s">
+        <v>74</v>
+      </c>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
@@ -2412,147 +2579,148 @@
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
-      <c r="P2" s="4" t="s">
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="R2" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="S2" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="S2" s="4" t="s">
+      <c r="T2" s="4" t="s">
         <v>76</v>
-      </c>
-      <c r="T2" s="4" t="s">
-        <v>79</v>
       </c>
       <c r="U2" s="4" t="s">
         <v>79</v>
       </c>
       <c r="V2" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="W2" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="W2" s="4" t="s">
-        <v>198</v>
-      </c>
       <c r="X2" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="Y2" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="Y2" s="4" t="s">
-        <v>197</v>
-      </c>
       <c r="Z2" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="AA2" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="AA2" s="4"/>
-      <c r="AB2" s="4" t="s">
+      <c r="AB2" s="4"/>
+      <c r="AC2" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="AC2" s="4" t="s">
+      <c r="AD2" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="AD2" s="4" t="s">
+      <c r="AE2" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="AE2" s="4" t="s">
+      <c r="AF2" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="AF2" s="4" t="s">
+      <c r="AG2" s="4" t="s">
         <v>86</v>
-      </c>
-      <c r="AG2" s="4" t="s">
-        <v>87</v>
       </c>
       <c r="AH2" s="4" t="s">
         <v>87</v>
       </c>
       <c r="AI2" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="AJ2" s="4" t="s">
         <v>88</v>
-      </c>
-      <c r="AJ2" s="4" t="s">
-        <v>89</v>
       </c>
       <c r="AK2" s="4" t="s">
         <v>89</v>
       </c>
       <c r="AL2" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="AM2" s="4" t="s">
         <v>90</v>
-      </c>
-      <c r="AM2" s="4" t="s">
-        <v>91</v>
       </c>
       <c r="AN2" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="AO2" s="4"/>
-      <c r="AP2" s="4" t="s">
+      <c r="AO2" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="AP2" s="4"/>
+      <c r="AQ2" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="AQ2" s="4" t="s">
+      <c r="AR2" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="AR2" s="4" t="s">
+      <c r="AS2" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="AS2" s="4" t="s">
+      <c r="AT2" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="AT2" s="4"/>
-      <c r="AU2" s="4" t="s">
+      <c r="AU2" s="4"/>
+      <c r="AV2" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="AV2" s="4"/>
       <c r="AW2" s="4"/>
-      <c r="AX2" s="4" t="s">
+      <c r="AX2" s="4"/>
+      <c r="AY2" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="AY2" s="4"/>
       <c r="AZ2" s="4"/>
-      <c r="BA2" s="4" t="s">
+      <c r="BA2" s="4"/>
+      <c r="BB2" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="BB2" s="4" t="s">
-        <v>196</v>
-      </c>
       <c r="BC2" s="4" t="s">
-        <v>99</v>
+        <v>194</v>
       </c>
       <c r="BD2" s="4" t="s">
         <v>99</v>
       </c>
       <c r="BE2" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="BF2" s="4" t="s">
         <v>100</v>
       </c>
       <c r="BG2" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="BH2" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="BH2" s="4" t="s">
+      <c r="BI2" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="BI2" s="4" t="s">
+      <c r="BJ2" s="4" t="s">
         <v>103</v>
-      </c>
-      <c r="BJ2" s="4" t="s">
-        <v>104</v>
       </c>
       <c r="BK2" s="4" t="s">
         <v>104</v>
       </c>
       <c r="BL2" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="BM2" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="BM2" s="4"/>
-      <c r="BN2" s="4" t="s">
+      <c r="BN2" s="4"/>
+      <c r="BO2" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="BO2" s="4"/>
       <c r="BP2" s="4"/>
+      <c r="BQ2" s="4"/>
     </row>
-    <row r="3" spans="1:68" ht="58" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:69" ht="58" customHeight="1">
       <c r="A3" s="11" t="s">
         <v>106</v>
       </c>
@@ -2563,294 +2731,241 @@
         <v>109</v>
       </c>
       <c r="D3" s="4"/>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="G3" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="H3" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="I3" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="J3" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="K3" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="L3" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="M3" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="N3" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="O3" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="P3" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="P3" s="4" t="s">
+      <c r="Q3" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="Q3" s="4" t="s">
+      <c r="R3" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="R3" s="4" t="s">
+      <c r="S3" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="S3" s="4" t="s">
+      <c r="T3" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="T3" s="4" t="s">
+      <c r="U3" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="U3" s="4" t="s">
+      <c r="V3" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="V3" s="4" t="s">
+      <c r="W3" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="W3" s="4" t="s">
+      <c r="X3" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="X3" s="4" t="s">
+      <c r="Y3" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="Y3" s="4" t="s">
+      <c r="Z3" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="Z3" s="4" t="s">
+      <c r="AA3" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="AA3" s="4" t="s">
+      <c r="AB3" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="AB3" s="8" t="s">
+      <c r="AC3" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="AC3" s="8" t="s">
+      <c r="AD3" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="AD3" s="4" t="s">
+      <c r="AE3" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="AE3" s="4" t="s">
+      <c r="AF3" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="AF3" s="4" t="s">
+      <c r="AG3" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="AG3" s="4" t="s">
+      <c r="AH3" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="AH3" s="4" t="s">
+      <c r="AI3" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="AI3" s="4" t="s">
+      <c r="AJ3" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="AJ3" s="4" t="s">
+      <c r="AK3" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="AK3" s="4" t="s">
+      <c r="AL3" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="AL3" s="4" t="s">
+      <c r="AM3" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="AM3" s="4" t="s">
+      <c r="AN3" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="AN3" s="4" t="s">
+      <c r="AO3" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="AO3" s="4" t="s">
+      <c r="AP3" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="AP3" s="4" t="s">
+      <c r="AQ3" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="AQ3" s="4" t="s">
+      <c r="AR3" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="AR3" s="4" t="s">
+      <c r="AS3" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="AS3" s="4" t="s">
+      <c r="AT3" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="AT3" s="4" t="s">
+      <c r="AU3" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="AU3" s="4" t="s">
+      <c r="AV3" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="AV3" s="4" t="s">
+      <c r="AW3" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="AW3" s="4" t="s">
+      <c r="AX3" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="AX3" s="4" t="s">
+      <c r="AY3" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="AY3" s="4" t="s">
+      <c r="AZ3" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="AZ3" s="4" t="s">
+      <c r="BA3" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="BA3" s="4" t="s">
+      <c r="BB3" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="BB3" s="4" t="s">
+      <c r="BC3" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="BC3" s="4" t="s">
+      <c r="BD3" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="BD3" s="4" t="s">
+      <c r="BE3" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="BE3" s="4" t="s">
+      <c r="BF3" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="BF3" s="4" t="s">
+      <c r="BG3" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="BG3" s="4" t="s">
+      <c r="BH3" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="BH3" s="4" t="s">
+      <c r="BI3" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="BI3" s="4" t="s">
+      <c r="BJ3" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="BJ3" s="4" t="s">
+      <c r="BK3" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="BK3" s="4" t="s">
+      <c r="BL3" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="BL3" s="4" t="s">
+      <c r="BM3" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="BM3" s="4" t="s">
+      <c r="BN3" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="BN3" s="4" t="s">
+      <c r="BO3" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="BO3" s="4" t="s">
+      <c r="BP3" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="BP3" s="4" t="s">
+      <c r="BQ3" s="4" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="4" spans="1:68" ht="29" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:69">
       <c r="A4" s="11">
         <v>2</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="11">
+        <v>3</v>
+      </c>
+      <c r="C4" s="11">
+        <v>1023</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="AB4" s="11" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="5" spans="1:69">
+      <c r="A5" s="11">
+        <v>2</v>
+      </c>
+      <c r="B5" s="11">
+        <v>4</v>
+      </c>
+      <c r="C5" s="11">
+        <v>1024</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="AB5" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="AC5" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="C4" s="4">
-        <v>1023</v>
-      </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4">
-        <v>-13</v>
-      </c>
-      <c r="S4" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
-      <c r="V4" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="W4" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="X4" s="4"/>
-      <c r="Y4" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="Z4" s="4">
-        <v>1</v>
-      </c>
-      <c r="AA4" s="4"/>
-      <c r="AB4" s="8"/>
-      <c r="AC4" s="8"/>
-      <c r="AD4" s="4"/>
-      <c r="AE4" s="4"/>
-      <c r="AF4" s="4"/>
-      <c r="AG4" s="4"/>
-      <c r="AH4" s="4"/>
-      <c r="AI4" s="4"/>
-      <c r="AJ4" s="4"/>
-      <c r="AK4" s="4"/>
-      <c r="AL4" s="4"/>
-      <c r="AM4" s="4"/>
-      <c r="AN4" s="4"/>
-      <c r="AO4" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="AP4" s="4">
-        <v>1</v>
-      </c>
-      <c r="AQ4" s="4"/>
-      <c r="AR4" s="4"/>
-      <c r="AS4" s="4"/>
-      <c r="AT4" s="4"/>
-      <c r="AU4" s="4"/>
-      <c r="AV4" s="4"/>
-      <c r="AW4" s="4"/>
-      <c r="AX4" s="4"/>
-      <c r="AY4" s="4"/>
-      <c r="AZ4" s="4"/>
-      <c r="BA4" s="4">
-        <v>3</v>
-      </c>
-      <c r="BB4" s="4">
-        <v>-5</v>
-      </c>
-      <c r="BC4" s="4"/>
-      <c r="BD4" s="4"/>
-      <c r="BE4" s="4"/>
-      <c r="BF4" s="4"/>
-      <c r="BG4" s="4"/>
-      <c r="BH4" s="4"/>
-      <c r="BI4" s="4"/>
-      <c r="BJ4" s="4"/>
-      <c r="BK4" s="4"/>
-      <c r="BL4" s="4"/>
-      <c r="BM4" s="4"/>
-      <c r="BN4" s="4"/>
-      <c r="BO4" s="4"/>
-      <c r="BP4" s="4"/>
+      <c r="AD5" s="11">
+        <v>-1</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/testdata/Smoke_WEB_MED_098_NEWREPORT_01.xlsx
+++ b/testdata/Smoke_WEB_MED_098_NEWREPORT_01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\docker0814\test_RobotFramework\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC6C760D-FE3A-411A-B2C8-0EB3BD76A2D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D638F2DC-AED1-41F4-988E-818D7C85B7B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="160" windowWidth="12270" windowHeight="9420" tabRatio="603" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="80" windowWidth="12270" windowHeight="9420" tabRatio="603" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -1147,8 +1147,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1196,8 +1196,8 @@
   <sheetPr codeName="工作表1"/>
   <dimension ref="A1:BQ7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1846,7 +1846,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="4" spans="1:69" s="11" customFormat="1" ht="29">
+    <row r="4" spans="1:69" s="11" customFormat="1" ht="58">
       <c r="A4" s="11">
         <v>1</v>
       </c>
@@ -1961,7 +1961,7 @@
       <c r="BO4" s="8"/>
       <c r="BP4" s="8"/>
     </row>
-    <row r="5" spans="1:69" s="11" customFormat="1" ht="29">
+    <row r="5" spans="1:69" s="11" customFormat="1" ht="72.5">
       <c r="A5" s="11">
         <v>1</v>
       </c>

--- a/testdata/Smoke_WEB_MED_098_NEWREPORT_01.xlsx
+++ b/testdata/Smoke_WEB_MED_098_NEWREPORT_01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\docker0814\test_RobotFramework\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDFDA342-F7EA-4072-A828-524E0FEAC71D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E9F1FF5-1B46-4685-98F6-6F6AF8F2BA4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="603" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8060" yWindow="690" windowWidth="9960" windowHeight="9510" tabRatio="603" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -365,13 +365,6 @@
 以現在日期+-N日</t>
   </si>
   <si>
-    <t>前者為TRUE需填寫 可複選
-輸入1~3
-1 國內旅遊史
-2 國外旅遊史
-3 國外居住史</t>
-  </si>
-  <si>
     <t>旅遊史: 1
 需填寫</t>
   </si>
@@ -1547,6 +1540,14 @@
   </si>
   <si>
     <t>樂華村</t>
+  </si>
+  <si>
+    <t>前者為TRUE需填寫
+輸入1~3
+1 國內旅遊史
+2 國外旅遊史
+3 國外居住史</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2058,8 +2059,8 @@
   <sheetPr codeName="工作表1"/>
   <dimension ref="A1:BQ4"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4:Q4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2123,7 +2124,7 @@
   <sheetData>
     <row r="1" spans="1:69" ht="43.5" customHeight="1">
       <c r="A1" s="11" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>6</v>
@@ -2132,7 +2133,7 @@
         <v>7</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>8</v>
@@ -2147,16 +2148,16 @@
         <v>11</v>
       </c>
       <c r="I1" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>174</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>175</v>
       </c>
       <c r="M1" s="5" t="s">
         <v>12</v>
@@ -2165,7 +2166,7 @@
         <v>13</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="P1" s="17" t="s">
         <v>14</v>
@@ -2332,14 +2333,14 @@
     </row>
     <row r="2" spans="1:69" s="2" customFormat="1" ht="55" customHeight="1">
       <c r="A2" s="12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>68</v>
@@ -2403,51 +2404,51 @@
         <v>70</v>
       </c>
       <c r="AH2" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="AI2" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="AI2" s="4" t="s">
+      <c r="AJ2" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="AJ2" s="4" t="s">
+      <c r="AK2" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="AL2" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="AK2" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="AL2" s="4" t="s">
+      <c r="AM2" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="AM2" s="4" t="s">
+      <c r="AN2" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="AO2" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="AN2" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="AO2" s="4" t="s">
+      <c r="AP2" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="AP2" s="4" t="s">
-        <v>85</v>
-      </c>
       <c r="AQ2" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AR2" s="4"/>
       <c r="AS2" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="AT2" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="AT2" s="4" t="s">
+      <c r="AU2" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="AU2" s="4" t="s">
+      <c r="AV2" s="4" t="s">
         <v>88</v>
-      </c>
-      <c r="AV2" s="4" t="s">
-        <v>89</v>
       </c>
       <c r="AW2" s="4"/>
       <c r="AX2" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AY2" s="4" t="s">
         <v>70</v>
@@ -2455,40 +2456,40 @@
       <c r="AZ2" s="4"/>
       <c r="BA2" s="4"/>
       <c r="BB2" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="BC2" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="BC2" s="4" t="s">
+      <c r="BD2" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="BD2" s="4" t="s">
+      <c r="BE2" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="BF2" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="BE2" s="4" t="s">
+      <c r="BG2" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="BF2" s="4" t="s">
+      <c r="BH2" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="BG2" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="BH2" s="4" t="s">
+      <c r="BI2" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="BI2" s="4" t="s">
+      <c r="BJ2" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="BJ2" s="4" t="s">
+      <c r="BK2" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="BK2" s="4" t="s">
+      <c r="BL2" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="BM2" s="4" t="s">
         <v>98</v>
-      </c>
-      <c r="BL2" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="BM2" s="4" t="s">
-        <v>99</v>
       </c>
       <c r="BN2" s="4"/>
       <c r="BO2" s="4" t="s">
@@ -2499,211 +2500,211 @@
     </row>
     <row r="3" spans="1:69" s="3" customFormat="1" ht="53" customHeight="1">
       <c r="A3" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D3" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="G3" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="H3" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="I3" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="J3" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="K3" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="L3" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="M3" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="N3" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="O3" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="P3" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="P3" s="18" t="s">
+      <c r="Q3" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="R3" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="S3" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="Q3" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="R3" s="18" t="s">
+      <c r="T3" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="U3" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="V3" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="W3" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="X3" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y3" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z3" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA3" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB3" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="AC3" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD3" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="AE3" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="AF3" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="AG3" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="AH3" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="AI3" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="AJ3" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="AK3" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="AL3" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="AM3" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="AN3" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="AO3" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="AP3" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="AQ3" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="AR3" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="AS3" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="AT3" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="AU3" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="AV3" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="AW3" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="AX3" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="AY3" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="S3" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="T3" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="U3" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="V3" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="W3" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="X3" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="Y3" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="Z3" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="AA3" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="AB3" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="AC3" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="AD3" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="AE3" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="AF3" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="AG3" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="AH3" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="AI3" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="AJ3" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="AK3" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="AL3" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="AM3" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="AN3" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="AO3" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="AP3" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="AQ3" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="AR3" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="AS3" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="AT3" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="AU3" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="AV3" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="AW3" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="AX3" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="AY3" s="4" t="s">
+      <c r="AZ3" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="AZ3" s="4" t="s">
+      <c r="BA3" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="BA3" s="4" t="s">
+      <c r="BB3" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="BB3" s="4" t="s">
+      <c r="BC3" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="BC3" s="4" t="s">
+      <c r="BD3" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="BD3" s="4" t="s">
+      <c r="BE3" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="BE3" s="4" t="s">
+      <c r="BF3" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="BF3" s="4" t="s">
+      <c r="BG3" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="BG3" s="4" t="s">
+      <c r="BH3" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="BH3" s="4" t="s">
+      <c r="BI3" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="BI3" s="4" t="s">
+      <c r="BJ3" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="BJ3" s="4" t="s">
+      <c r="BK3" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="BK3" s="4" t="s">
+      <c r="BL3" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="BL3" s="4" t="s">
+      <c r="BM3" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="BM3" s="4" t="s">
+      <c r="BN3" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="BN3" s="4" t="s">
+      <c r="BO3" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="BO3" s="4" t="s">
+      <c r="BP3" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="BP3" s="4" t="s">
+      <c r="BQ3" s="4" t="s">
         <v>165</v>
-      </c>
-      <c r="BQ3" s="4" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="4" spans="1:69" s="11" customFormat="1" ht="48.5" customHeight="1">
@@ -2714,32 +2715,32 @@
         <v>1</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="12">
         <v>3</v>
       </c>
       <c r="G4" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="H4" s="4" t="s">
-        <v>169</v>
-      </c>
       <c r="I4" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J4" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="K4" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="L4" s="4" t="s">
         <v>179</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>180</v>
       </c>
       <c r="M4" s="4">
         <v>12345</v>
@@ -2748,13 +2749,13 @@
         <v>54321</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="P4" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="Q4" s="4" t="s">
         <v>425</v>
-      </c>
-      <c r="Q4" s="4" t="s">
-        <v>426</v>
       </c>
       <c r="R4" s="18"/>
       <c r="S4" s="4" t="b">
@@ -2777,13 +2778,13 @@
       <c r="Z4" s="4"/>
       <c r="AA4" s="4"/>
       <c r="AB4" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AC4" s="4">
         <v>2</v>
       </c>
       <c r="AD4" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AE4" s="4" t="b">
         <v>0</v>
@@ -2835,7 +2836,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="10">
+  <dataValidations count="9">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4" xr:uid="{A8F7BDED-0BCA-4093-A7BB-C2E9042B2100}">
       <formula1>"嚴重特殊傳染性肺炎(併發症),阿米巴性痢疾,登革熱,結核病,人類免疫缺乏病毒感染(含母子垂直感染及孕產婦疑似個案),梅毒,淋病,鉤端螺旋體病,"</formula1>
     </dataValidation>
@@ -2860,10 +2861,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BB4" xr:uid="{DAE093D4-4D6B-4B26-ABAC-957C8E9ED758}">
       <formula1>"1,2,3,4,5,6,7,8"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q4" xr:uid="{35BDC457-8DA0-4F88-BFC5-47AD3BD7B4BE}">
-      <formula1>INDIRECT(P4)</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P4" xr:uid="{686E7FA5-503B-410B-92E4-E7F547DF8D58}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P4:Q4" xr:uid="{35BDC457-8DA0-4F88-BFC5-47AD3BD7B4BE}">
       <formula1>INDIRECT(O4)</formula1>
     </dataValidation>
   </dataValidations>
@@ -2925,8 +2923,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:BS4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R4" sqref="R4"/>
+    <sheetView tabSelected="1" topLeftCell="AO1" workbookViewId="0">
+      <selection activeCell="AV5" sqref="AV5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2939,7 +2937,7 @@
   <sheetData>
     <row r="1" spans="1:71" s="13" customFormat="1" ht="58" customHeight="1">
       <c r="A1" s="11" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>6</v>
@@ -2948,7 +2946,7 @@
         <v>7</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>8</v>
@@ -2963,16 +2961,16 @@
         <v>11</v>
       </c>
       <c r="I1" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>174</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>175</v>
       </c>
       <c r="M1" s="5" t="s">
         <v>12</v>
@@ -2981,7 +2979,7 @@
         <v>13</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="P1" s="17" t="s">
         <v>14</v>
@@ -3154,14 +3152,14 @@
     </row>
     <row r="2" spans="1:71" ht="91" customHeight="1">
       <c r="A2" s="12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4" t="s">
@@ -3227,51 +3225,51 @@
         <v>70</v>
       </c>
       <c r="AH2" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="AI2" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="AI2" s="4" t="s">
+      <c r="AJ2" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="AJ2" s="4" t="s">
+      <c r="AK2" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="AL2" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="AK2" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="AL2" s="4" t="s">
+      <c r="AM2" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="AM2" s="4" t="s">
+      <c r="AN2" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="AO2" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="AN2" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="AO2" s="4" t="s">
+      <c r="AP2" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="AP2" s="4" t="s">
-        <v>85</v>
-      </c>
       <c r="AQ2" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AR2" s="4"/>
       <c r="AS2" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="AT2" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="AT2" s="4" t="s">
+      <c r="AU2" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="AU2" s="4" t="s">
+      <c r="AV2" s="4" t="s">
         <v>88</v>
-      </c>
-      <c r="AV2" s="4" t="s">
-        <v>89</v>
       </c>
       <c r="AW2" s="4"/>
       <c r="AX2" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AY2" s="4" t="s">
         <v>70</v>
@@ -3279,40 +3277,40 @@
       <c r="AZ2" s="4"/>
       <c r="BA2" s="4"/>
       <c r="BB2" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="BC2" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="BC2" s="4" t="s">
+      <c r="BD2" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="BD2" s="4" t="s">
+      <c r="BE2" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="BF2" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="BE2" s="4" t="s">
+      <c r="BG2" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="BF2" s="4" t="s">
+      <c r="BH2" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="BG2" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="BH2" s="4" t="s">
+      <c r="BI2" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="BI2" s="4" t="s">
+      <c r="BJ2" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="BJ2" s="4" t="s">
+      <c r="BK2" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="BK2" s="4" t="s">
+      <c r="BL2" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="BM2" s="4" t="s">
         <v>98</v>
-      </c>
-      <c r="BL2" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="BM2" s="4" t="s">
-        <v>99</v>
       </c>
       <c r="BN2" s="4"/>
       <c r="BO2" s="4" t="s">
@@ -3325,217 +3323,217 @@
     </row>
     <row r="3" spans="1:71" ht="58" customHeight="1">
       <c r="A3" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D3" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="G3" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="H3" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="I3" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="J3" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="K3" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="L3" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="M3" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="N3" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="O3" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="P3" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="P3" s="18" t="s">
+      <c r="Q3" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="R3" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="S3" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="Q3" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="R3" s="18" t="s">
+      <c r="T3" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="U3" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="V3" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="W3" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="X3" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y3" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z3" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA3" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB3" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="AC3" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD3" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="AE3" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="AF3" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="AG3" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="AH3" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="AI3" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="AJ3" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="AK3" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="AL3" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="AM3" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="AN3" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="AO3" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="AP3" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="AQ3" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="AR3" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="AS3" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="AT3" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="AU3" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="AV3" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="AW3" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="AX3" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="AY3" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="S3" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="T3" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="U3" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="V3" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="W3" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="X3" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="Y3" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="Z3" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="AA3" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="AB3" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="AC3" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="AD3" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="AE3" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="AF3" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="AG3" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="AH3" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="AI3" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="AJ3" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="AK3" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="AL3" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="AM3" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="AN3" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="AO3" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="AP3" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="AQ3" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="AR3" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="AS3" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="AT3" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="AU3" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="AV3" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="AW3" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="AX3" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="AY3" s="4" t="s">
+      <c r="AZ3" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="AZ3" s="4" t="s">
+      <c r="BA3" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="BA3" s="4" t="s">
+      <c r="BB3" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="BB3" s="4" t="s">
+      <c r="BC3" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="BC3" s="4" t="s">
+      <c r="BD3" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="BD3" s="4" t="s">
+      <c r="BE3" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="BE3" s="4" t="s">
+      <c r="BF3" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="BF3" s="4" t="s">
+      <c r="BG3" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="BG3" s="4" t="s">
+      <c r="BH3" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="BH3" s="4" t="s">
+      <c r="BI3" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="BI3" s="4" t="s">
+      <c r="BJ3" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="BJ3" s="4" t="s">
+      <c r="BK3" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="BK3" s="4" t="s">
+      <c r="BL3" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="BL3" s="4" t="s">
+      <c r="BM3" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="BM3" s="4" t="s">
+      <c r="BN3" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="BN3" s="4" t="s">
+      <c r="BO3" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="BO3" s="4" t="s">
+      <c r="BP3" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="BP3" s="4" t="s">
+      <c r="BQ3" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="BQ3" s="4" t="s">
-        <v>166</v>
-      </c>
       <c r="BR3" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="BS3" s="4" t="s">
         <v>165</v>
-      </c>
-      <c r="BS3" s="4" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="4" spans="1:71" ht="48.5" customHeight="1">
@@ -3547,7 +3545,7 @@
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E4" s="4">
         <v>1121</v>
@@ -3577,7 +3575,7 @@
       <c r="AB4" s="4"/>
       <c r="AC4" s="4"/>
       <c r="AD4" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AE4" s="4"/>
       <c r="AF4" s="8"/>
@@ -3738,865 +3736,865 @@
         <v>26</v>
       </c>
       <c r="B1" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>378</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>379</v>
+      </c>
+      <c r="E1" s="15" t="s">
         <v>188</v>
       </c>
-      <c r="C1" s="15" t="s">
-        <v>379</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>380</v>
-      </c>
-      <c r="E1" s="15" t="s">
+      <c r="F1" s="15" t="s">
         <v>189</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="G1" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="H1" t="s">
         <v>191</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" s="15" t="s">
         <v>192</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="J1" s="15" t="s">
         <v>193</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="K1" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="L1" s="15" t="s">
         <v>195</v>
-      </c>
-      <c r="L1" s="15" t="s">
-        <v>196</v>
       </c>
       <c r="M1" t="s">
         <v>25</v>
       </c>
       <c r="N1" t="s">
+        <v>196</v>
+      </c>
+      <c r="O1" t="s">
         <v>197</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>198</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>199</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>200</v>
-      </c>
-      <c r="R1" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="B2" s="15" t="s">
         <v>202</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="C2" s="15" t="s">
+        <v>380</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>381</v>
+      </c>
+      <c r="E2" s="15" t="s">
         <v>203</v>
       </c>
-      <c r="C2" s="15" t="s">
-        <v>381</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>382</v>
-      </c>
-      <c r="E2" s="15" t="s">
+      <c r="F2" s="15" t="s">
         <v>204</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="G2" s="15" t="s">
         <v>205</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="H2" t="s">
         <v>206</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>207</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>208</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>209</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>210</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>211</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>212</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>213</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>214</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
+        <v>214</v>
+      </c>
+      <c r="R2" t="s">
         <v>215</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>215</v>
-      </c>
-      <c r="R2" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="B3" s="15" t="s">
         <v>217</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="C3" s="15" t="s">
+        <v>382</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="E3" s="15" t="s">
         <v>218</v>
       </c>
-      <c r="C3" s="15" t="s">
-        <v>383</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>384</v>
-      </c>
-      <c r="E3" s="15" t="s">
+      <c r="F3" s="15" t="s">
         <v>219</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="G3" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="H3" t="s">
         <v>221</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>222</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>223</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>224</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>225</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>226</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>227</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>228</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>229</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
+        <v>229</v>
+      </c>
+      <c r="R3" t="s">
         <v>230</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>230</v>
-      </c>
-      <c r="R3" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="B4" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="C4" s="15" t="s">
+        <v>384</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>385</v>
+      </c>
+      <c r="E4" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="C4" s="15" t="s">
-        <v>385</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>386</v>
-      </c>
-      <c r="E4" s="15" t="s">
+      <c r="F4" s="15" t="s">
         <v>234</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="G4" s="15" t="s">
         <v>235</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="H4" t="s">
         <v>236</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>237</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>238</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>239</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>240</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>241</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>242</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>243</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>227</v>
+      </c>
+      <c r="R4" t="s">
         <v>244</v>
-      </c>
-      <c r="P4" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>228</v>
-      </c>
-      <c r="R4" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="B5" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="C5" s="15" t="s">
+        <v>386</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>387</v>
+      </c>
+      <c r="E5" s="15" t="s">
         <v>247</v>
       </c>
-      <c r="C5" s="15" t="s">
-        <v>387</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>388</v>
-      </c>
-      <c r="E5" s="15" t="s">
+      <c r="F5" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="G5" s="15" t="s">
         <v>249</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="H5" t="s">
         <v>250</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>251</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>252</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>253</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>254</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>255</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>256</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>257</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>258</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>259</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>260</v>
-      </c>
-      <c r="R5" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="B6" s="15" t="s">
         <v>262</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="C6" s="15" t="s">
+        <v>388</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>389</v>
+      </c>
+      <c r="E6" s="15" t="s">
         <v>263</v>
       </c>
-      <c r="C6" s="15" t="s">
-        <v>389</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>390</v>
-      </c>
-      <c r="E6" s="15" t="s">
+      <c r="F6" s="15" t="s">
         <v>264</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="G6" s="15" t="s">
         <v>265</v>
       </c>
-      <c r="G6" s="15" t="s">
+      <c r="H6" t="s">
         <v>266</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>267</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>268</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>269</v>
       </c>
-      <c r="K6" t="s">
+      <c r="M6" t="s">
         <v>270</v>
       </c>
-      <c r="M6" t="s">
+      <c r="O6" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>258</v>
+      </c>
+      <c r="R6" t="s">
         <v>271</v>
-      </c>
-      <c r="O6" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>259</v>
-      </c>
-      <c r="R6" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="15" t="s">
+        <v>272</v>
+      </c>
+      <c r="B7" s="15" t="s">
         <v>273</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="C7" s="15" t="s">
+        <v>390</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>391</v>
+      </c>
+      <c r="E7" s="15" t="s">
         <v>274</v>
       </c>
-      <c r="C7" s="15" t="s">
-        <v>391</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>392</v>
-      </c>
-      <c r="E7" s="15" t="s">
+      <c r="F7" s="15" t="s">
         <v>275</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="G7" t="s">
+        <v>271</v>
+      </c>
+      <c r="H7" t="s">
         <v>276</v>
       </c>
-      <c r="G7" t="s">
-        <v>272</v>
-      </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
+        <v>271</v>
+      </c>
+      <c r="J7" t="s">
         <v>277</v>
       </c>
-      <c r="I7" t="s">
-        <v>272</v>
-      </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>278</v>
       </c>
-      <c r="K7" t="s">
+      <c r="M7" t="s">
         <v>279</v>
       </c>
-      <c r="M7" t="s">
-        <v>280</v>
-      </c>
       <c r="O7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="Q7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="B8" s="15" t="s">
         <v>281</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="C8" s="15" t="s">
+        <v>392</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>393</v>
+      </c>
+      <c r="E8" s="15" t="s">
         <v>282</v>
       </c>
-      <c r="C8" s="15" t="s">
-        <v>393</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>394</v>
-      </c>
-      <c r="E8" s="15" t="s">
+      <c r="F8" s="15" t="s">
         <v>283</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="H8" t="s">
         <v>284</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
+        <v>269</v>
+      </c>
+      <c r="J8" t="s">
         <v>285</v>
       </c>
-      <c r="I8" t="s">
-        <v>270</v>
-      </c>
-      <c r="J8" t="s">
+      <c r="M8" t="s">
         <v>286</v>
       </c>
-      <c r="M8" t="s">
+      <c r="O8" t="s">
         <v>287</v>
-      </c>
-      <c r="O8" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="B9" s="15" t="s">
         <v>289</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="C9" s="15" t="s">
+        <v>394</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>395</v>
+      </c>
+      <c r="E9" s="15" t="s">
         <v>290</v>
       </c>
-      <c r="C9" s="15" t="s">
-        <v>395</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>396</v>
-      </c>
-      <c r="E9" s="15" t="s">
+      <c r="F9" s="15" t="s">
         <v>291</v>
       </c>
-      <c r="F9" s="15" t="s">
+      <c r="H9" t="s">
         <v>292</v>
       </c>
-      <c r="H9" t="s">
+      <c r="J9" t="s">
         <v>293</v>
       </c>
-      <c r="J9" t="s">
+      <c r="M9" t="s">
         <v>294</v>
       </c>
-      <c r="M9" t="s">
+      <c r="O9" t="s">
         <v>295</v>
-      </c>
-      <c r="O9" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="B10" s="15" t="s">
         <v>297</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="C10" s="15" t="s">
+        <v>396</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>397</v>
+      </c>
+      <c r="E10" s="15" t="s">
         <v>298</v>
       </c>
-      <c r="C10" s="15" t="s">
-        <v>397</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>398</v>
-      </c>
-      <c r="E10" s="15" t="s">
+      <c r="F10" s="15" t="s">
         <v>299</v>
       </c>
-      <c r="F10" s="15" t="s">
+      <c r="H10" t="s">
         <v>300</v>
       </c>
-      <c r="H10" t="s">
+      <c r="J10" t="s">
         <v>301</v>
       </c>
-      <c r="J10" t="s">
-        <v>302</v>
-      </c>
       <c r="M10" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="B11" s="15" t="s">
         <v>303</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="C11" s="15" t="s">
+        <v>398</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>399</v>
+      </c>
+      <c r="E11" s="15" t="s">
         <v>304</v>
       </c>
-      <c r="C11" s="15" t="s">
-        <v>399</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>400</v>
-      </c>
-      <c r="E11" s="15" t="s">
+      <c r="F11" s="15" t="s">
         <v>305</v>
       </c>
-      <c r="F11" s="15" t="s">
+      <c r="H11" t="s">
         <v>306</v>
-      </c>
-      <c r="H11" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="B12" s="15" t="s">
         <v>308</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="C12" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>401</v>
+      </c>
+      <c r="E12" s="15" t="s">
         <v>309</v>
       </c>
-      <c r="C12" s="15" t="s">
-        <v>401</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>402</v>
-      </c>
-      <c r="E12" s="15" t="s">
+      <c r="F12" s="15" t="s">
         <v>310</v>
       </c>
-      <c r="F12" s="15" t="s">
+      <c r="H12" t="s">
         <v>311</v>
-      </c>
-      <c r="H12" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="15" t="s">
+        <v>312</v>
+      </c>
+      <c r="B13" s="15" t="s">
         <v>313</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="C13" s="15" t="s">
+        <v>402</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>403</v>
+      </c>
+      <c r="E13" s="15" t="s">
         <v>314</v>
       </c>
-      <c r="C13" s="15" t="s">
-        <v>403</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>404</v>
-      </c>
-      <c r="E13" s="15" t="s">
+      <c r="F13" s="15" t="s">
         <v>315</v>
       </c>
-      <c r="F13" s="15" t="s">
+      <c r="H13" t="s">
         <v>316</v>
-      </c>
-      <c r="H13" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="B14" s="15" t="s">
         <v>318</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="C14" s="15" t="s">
+        <v>404</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>405</v>
+      </c>
+      <c r="E14" s="15" t="s">
         <v>319</v>
       </c>
-      <c r="C14" s="15" t="s">
-        <v>405</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>406</v>
-      </c>
-      <c r="E14" s="15" t="s">
+      <c r="F14" s="15" t="s">
         <v>320</v>
       </c>
-      <c r="F14" s="15" t="s">
+      <c r="H14" t="s">
         <v>321</v>
-      </c>
-      <c r="H14" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="15" spans="1:18">
       <c r="A15" s="15" t="s">
+        <v>322</v>
+      </c>
+      <c r="B15" s="15" t="s">
         <v>323</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="C15" s="15" t="s">
+        <v>406</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>407</v>
+      </c>
+      <c r="E15" s="15" t="s">
         <v>324</v>
       </c>
-      <c r="C15" s="15" t="s">
-        <v>407</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>408</v>
-      </c>
-      <c r="E15" s="15" t="s">
+      <c r="F15" s="15" t="s">
         <v>325</v>
-      </c>
-      <c r="F15" s="15" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="16" spans="1:18">
       <c r="A16" s="15" t="s">
+        <v>326</v>
+      </c>
+      <c r="B16" s="15" t="s">
         <v>327</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="C16" s="15" t="s">
+        <v>408</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>409</v>
+      </c>
+      <c r="E16" s="15" t="s">
         <v>328</v>
       </c>
-      <c r="C16" s="15" t="s">
-        <v>409</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>410</v>
-      </c>
-      <c r="E16" s="15" t="s">
+      <c r="F16" s="15" t="s">
         <v>329</v>
-      </c>
-      <c r="F16" s="15" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="15" t="s">
+        <v>330</v>
+      </c>
+      <c r="B17" s="15" t="s">
         <v>331</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="C17" s="15" t="s">
+        <v>410</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>411</v>
+      </c>
+      <c r="E17" s="15" t="s">
         <v>332</v>
       </c>
-      <c r="C17" s="15" t="s">
-        <v>411</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>412</v>
-      </c>
-      <c r="E17" s="15" t="s">
+      <c r="F17" s="15" t="s">
         <v>333</v>
-      </c>
-      <c r="F17" s="15" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="15" t="s">
+        <v>334</v>
+      </c>
+      <c r="B18" s="15" t="s">
         <v>335</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="C18" s="15" t="s">
+        <v>412</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>413</v>
+      </c>
+      <c r="E18" s="15" t="s">
         <v>336</v>
       </c>
-      <c r="C18" s="15" t="s">
-        <v>413</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>414</v>
-      </c>
-      <c r="E18" s="15" t="s">
+      <c r="F18" s="15" t="s">
         <v>337</v>
-      </c>
-      <c r="F18" s="15" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="B19" s="15" t="s">
         <v>339</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="C19" s="15" t="s">
+        <v>414</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>415</v>
+      </c>
+      <c r="E19" s="15" t="s">
         <v>340</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>415</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>416</v>
-      </c>
-      <c r="E19" s="15" t="s">
-        <v>341</v>
       </c>
       <c r="F19" s="15"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="15" t="s">
+        <v>341</v>
+      </c>
+      <c r="B20" s="15" t="s">
         <v>342</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="C20" s="15" t="s">
+        <v>416</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>417</v>
+      </c>
+      <c r="E20" s="15" t="s">
         <v>343</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>417</v>
-      </c>
-      <c r="D20" s="15" t="s">
-        <v>418</v>
-      </c>
-      <c r="E20" s="15" t="s">
-        <v>344</v>
       </c>
       <c r="F20" s="15"/>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="15" t="s">
+        <v>344</v>
+      </c>
+      <c r="B21" s="15" t="s">
         <v>345</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="C21" s="15" t="s">
+        <v>418</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>419</v>
+      </c>
+      <c r="E21" s="15" t="s">
         <v>346</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>419</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>420</v>
-      </c>
-      <c r="E21" s="15" t="s">
-        <v>347</v>
       </c>
       <c r="F21" s="15"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="15" t="s">
+        <v>347</v>
+      </c>
+      <c r="B22" s="15" t="s">
         <v>348</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="C22" s="15" t="s">
+        <v>420</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>421</v>
+      </c>
+      <c r="E22" s="15" t="s">
         <v>349</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>421</v>
-      </c>
-      <c r="D22" s="15" t="s">
-        <v>422</v>
-      </c>
-      <c r="E22" s="15" t="s">
-        <v>350</v>
       </c>
       <c r="F22" s="15"/>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="15" t="s">
+        <v>350</v>
+      </c>
+      <c r="B23" s="15" t="s">
         <v>351</v>
       </c>
-      <c r="B23" s="15" t="s">
+      <c r="C23" s="15" t="s">
+        <v>422</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>423</v>
+      </c>
+      <c r="E23" s="15" t="s">
         <v>352</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>423</v>
-      </c>
-      <c r="D23" s="15" t="s">
-        <v>424</v>
-      </c>
-      <c r="E23" s="15" t="s">
-        <v>353</v>
       </c>
       <c r="F23" s="15"/>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="15" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B24" s="15"/>
       <c r="C24" s="15"/>
       <c r="D24" s="15"/>
       <c r="E24" s="15" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F24" s="15"/>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="15" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B25" s="15"/>
       <c r="C25" s="15"/>
       <c r="D25" s="15"/>
       <c r="E25" s="15" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F25" s="15"/>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="15" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B26" s="15"/>
       <c r="C26" s="15"/>
       <c r="D26" s="15"/>
       <c r="E26" s="15" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F26" s="15"/>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="15" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B27" s="15"/>
       <c r="C27" s="15"/>
       <c r="D27" s="15"/>
       <c r="E27" s="15" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F27" s="15"/>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="15" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B28" s="15"/>
       <c r="C28" s="15"/>
       <c r="D28" s="15"/>
       <c r="E28" s="15" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F28" s="15"/>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="15" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B29" s="15"/>
       <c r="C29" s="15"/>
       <c r="D29" s="15"/>
       <c r="E29" s="15" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F29" s="15"/>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="15" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B30" s="15"/>
       <c r="C30" s="15"/>
       <c r="D30" s="15"/>
       <c r="E30" s="15" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F30" s="15"/>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="15" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B31" s="15"/>
       <c r="C31" s="15"/>
       <c r="D31" s="15"/>
       <c r="E31" s="15" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F31" s="15"/>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="15" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B32" s="15"/>
       <c r="C32" s="15"/>
       <c r="D32" s="15"/>
       <c r="E32" s="15" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F32" s="15"/>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="15" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B33" s="15"/>
       <c r="C33" s="15"/>
       <c r="D33" s="15"/>
       <c r="E33" s="15" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F33" s="15"/>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="15" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B34" s="15"/>
       <c r="C34" s="15"/>
       <c r="D34" s="15"/>
       <c r="E34" s="15" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F34" s="15"/>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
@@ -4606,7 +4604,7 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="15" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B36" s="15"/>
       <c r="C36" s="15"/>

--- a/testdata/Smoke_WEB_MED_098_NEWREPORT_01.xlsx
+++ b/testdata/Smoke_WEB_MED_098_NEWREPORT_01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\docker0814\test_RobotFramework\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E9F1FF5-1B46-4685-98F6-6F6AF8F2BA4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{290E081E-81C6-470F-B19A-F97746F3375E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8060" yWindow="690" windowWidth="9960" windowHeight="9510" tabRatio="603" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-40" yWindow="130" windowWidth="13890" windowHeight="9620" tabRatio="603" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -73,6 +73,8 @@
   <authors>
     <author>tc={CAFB994B-4ABE-45EF-A6F2-EEA53B9C2487}</author>
     <author>tc={90E03971-CF29-4D6B-8B5A-AD5712B9E6A4}</author>
+    <author>tc={36AA75BC-9145-4B95-B3DF-E4C2EE55E540}</author>
+    <author>tc={5F897820-D07C-48B1-A540-699171BA2EE6}</author>
   </authors>
   <commentList>
     <comment ref="Z4" authorId="0" shapeId="0" xr:uid="{CAFB994B-4ABE-45EF-A6F2-EEA53B9C2487}">
@@ -91,6 +93,22 @@
     細菌培養,染色鏡檢,PCR或其他檢驗方式偵測出淋菌抗原或基因</t>
       </text>
     </comment>
+    <comment ref="Z5" authorId="2" shapeId="0" xr:uid="{36AA75BC-9145-4B95-B3DF-E4C2EE55E540}">
+      <text>
+        <t>[對話串註解]
+您的 Excel 版本可讓您讀取此對話串註解; 但若以較新的 Excel 版本開啟此檔案，將會移除對它進行的所有編輯。深入了解: https://go.microsoft.com/fwlink/?linkid=870924。
+註解:
+    子宮頸炎,尿道炎,直腸感染,子宮內膜炎,輸卵管炎,骨盤腔腹膜炎,外陰陰道炎,新生兒淋菌性結膜炎,淋病性關節炎,其他症狀</t>
+      </text>
+    </comment>
+    <comment ref="AB5" authorId="3" shapeId="0" xr:uid="{5F897820-D07C-48B1-A540-699171BA2EE6}">
+      <text>
+        <t>[對話串註解]
+您的 Excel 版本可讓您讀取此對話串註解; 但若以較新的 Excel 版本開啟此檔案，將會移除對它進行的所有編輯。深入了解: https://go.microsoft.com/fwlink/?linkid=870924。
+註解:
+    細菌培養,染色鏡檢,PCR或其他檢驗方式偵測出淋菌抗原或基因</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -100,6 +118,8 @@
   <authors>
     <author>tc={35BCDAFB-7686-41AF-9F0B-64A3EB167631}</author>
     <author>tc={26CA25A0-603E-48A1-8273-FA4AA9CBBA28}</author>
+    <author>tc={89746B48-AAD6-4199-9E43-9AC19A8361B9}</author>
+    <author>tc={7693C667-CFB2-4464-A0BB-D5AEF01797D3}</author>
   </authors>
   <commentList>
     <comment ref="Z4" authorId="0" shapeId="0" xr:uid="{35BCDAFB-7686-41AF-9F0B-64A3EB167631}">
@@ -118,12 +138,28 @@
     細菌培養,染色鏡檢,PCR或其他檢驗方式偵測出淋菌抗原或基因</t>
       </text>
     </comment>
+    <comment ref="Z5" authorId="2" shapeId="0" xr:uid="{89746B48-AAD6-4199-9E43-9AC19A8361B9}">
+      <text>
+        <t>[對話串註解]
+您的 Excel 版本可讓您讀取此對話串註解; 但若以較新的 Excel 版本開啟此檔案，將會移除對它進行的所有編輯。深入了解: https://go.microsoft.com/fwlink/?linkid=870924。
+註解:
+    子宮頸炎,尿道炎,直腸感染,子宮內膜炎,輸卵管炎,骨盤腔腹膜炎,外陰陰道炎,新生兒淋菌性結膜炎,淋病性關節炎,其他症狀</t>
+      </text>
+    </comment>
+    <comment ref="AB5" authorId="3" shapeId="0" xr:uid="{7693C667-CFB2-4464-A0BB-D5AEF01797D3}">
+      <text>
+        <t>[對話串註解]
+您的 Excel 版本可讓您讀取此對話串註解; 但若以較新的 Excel 版本開啟此檔案，將會移除對它進行的所有編輯。深入了解: https://go.microsoft.com/fwlink/?linkid=870924。
+註解:
+    細菌培養,染色鏡檢,PCR或其他檢驗方式偵測出淋菌抗原或基因</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="462">
   <si>
     <t>User</t>
   </si>
@@ -666,9 +702,6 @@
     <t>REMARK</t>
   </si>
   <si>
-    <t>無症狀</t>
-  </si>
-  <si>
     <t>098</t>
   </si>
   <si>
@@ -716,18 +749,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>民國70/06/02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>測試醫師</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>農業人員</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Num</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1534,12 +1559,6 @@
   <si>
     <t>樂華村</t>
     <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>東引鄉</t>
-  </si>
-  <si>
-    <t>樂華村</t>
   </si>
   <si>
     <t>前者為TRUE需填寫
@@ -1549,12 +1568,159 @@
 3 國外居住史</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>全測試</t>
+  </si>
+  <si>
+    <t>請填寫1~5/不填寫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不填寫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黃色: 必填項目
+橙色: 由衛生局審核項目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>民國34/04/02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>民國80/06/02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烏日區</t>
+  </si>
+  <si>
+    <t>光明里</t>
+  </si>
+  <si>
+    <t>竹田鄉</t>
+  </si>
+  <si>
+    <t>二崙村</t>
+  </si>
+  <si>
+    <t>淋病性關節炎,其他症狀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>測試</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>細菌,PCR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魚池鄉</t>
+  </si>
+  <si>
+    <t>大林村</t>
+  </si>
+  <si>
+    <t>必填</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改必填</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改衛生局審核</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>疾病名稱</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>疾病</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>嚴重特殊傳染性肺炎(併發症)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>006</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿米巴性痢疾</t>
+  </si>
+  <si>
+    <t>010</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>登革熱</t>
+  </si>
+  <si>
+    <t>19CVS</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>結核病</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>044</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>人類免疫缺乏病毒感染(含母子垂直感染及孕產婦疑似個案)</t>
+  </si>
+  <si>
+    <t>061</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>梅毒</t>
+  </si>
+  <si>
+    <t>090</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>098</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>鉤端螺旋體病</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>鼠疫</t>
+  </si>
+  <si>
+    <t>020</t>
+  </si>
+  <si>
+    <t>退伍軍人病</t>
+  </si>
+  <si>
+    <t>4828</t>
+  </si>
+  <si>
+    <t>霍亂</t>
+  </si>
+  <si>
+    <t>001</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
+  </numFmts>
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1598,8 +1764,15 @@
       <family val="2"/>
       <charset val="136"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="標楷體"/>
+      <family val="4"/>
+      <charset val="136"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1615,6 +1788,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1646,7 +1825,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1655,38 +1834,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1699,6 +1851,51 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1992,6 +2189,12 @@
   <threadedComment ref="AB4" dT="2023-11-13T09:10:15.41" personId="{1CCA55A1-3C9F-4269-AB9F-945B41E29FA6}" id="{90E03971-CF29-4D6B-8B5A-AD5712B9E6A4}">
     <text>細菌培養,染色鏡檢,PCR或其他檢驗方式偵測出淋菌抗原或基因</text>
   </threadedComment>
+  <threadedComment ref="Z5" dT="2023-11-13T09:09:40.02" personId="{1CCA55A1-3C9F-4269-AB9F-945B41E29FA6}" id="{36AA75BC-9145-4B95-B3DF-E4C2EE55E540}">
+    <text>子宮頸炎,尿道炎,直腸感染,子宮內膜炎,輸卵管炎,骨盤腔腹膜炎,外陰陰道炎,新生兒淋菌性結膜炎,淋病性關節炎,其他症狀</text>
+  </threadedComment>
+  <threadedComment ref="AB5" dT="2023-11-13T09:10:15.41" personId="{1CCA55A1-3C9F-4269-AB9F-945B41E29FA6}" id="{5F897820-D07C-48B1-A540-699171BA2EE6}">
+    <text>細菌培養,染色鏡檢,PCR或其他檢驗方式偵測出淋菌抗原或基因</text>
+  </threadedComment>
 </ThreadedComments>
 </file>
 
@@ -2001,6 +2204,12 @@
     <text>子宮頸炎,尿道炎,直腸感染,子宮內膜炎,輸卵管炎,骨盤腔腹膜炎,外陰陰道炎,新生兒淋菌性結膜炎,淋病性關節炎,其他症狀</text>
   </threadedComment>
   <threadedComment ref="AB4" dT="2023-11-13T09:10:15.41" personId="{1CCA55A1-3C9F-4269-AB9F-945B41E29FA6}" id="{26CA25A0-603E-48A1-8273-FA4AA9CBBA28}">
+    <text>細菌培養,染色鏡檢,PCR或其他檢驗方式偵測出淋菌抗原或基因</text>
+  </threadedComment>
+  <threadedComment ref="Z5" dT="2023-11-13T09:09:40.02" personId="{1CCA55A1-3C9F-4269-AB9F-945B41E29FA6}" id="{89746B48-AAD6-4199-9E43-9AC19A8361B9}">
+    <text>子宮頸炎,尿道炎,直腸感染,子宮內膜炎,輸卵管炎,骨盤腔腹膜炎,外陰陰道炎,新生兒淋菌性結膜炎,淋病性關節炎,其他症狀</text>
+  </threadedComment>
+  <threadedComment ref="AB5" dT="2023-11-13T09:10:15.41" personId="{1CCA55A1-3C9F-4269-AB9F-945B41E29FA6}" id="{7693C667-CFB2-4464-A0BB-D5AEF01797D3}">
     <text>細菌培養,染色鏡檢,PCR或其他檢驗方式偵測出淋菌抗原或基因</text>
   </threadedComment>
 </ThreadedComments>
@@ -2057,15 +2266,15 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="工作表1"/>
-  <dimension ref="A1:BQ4"/>
+  <dimension ref="A1:BQ5"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="8.796875" style="11" customWidth="1"/>
+    <col min="1" max="1" width="8.796875" style="4" customWidth="1"/>
     <col min="3" max="3" width="17.3984375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.3984375" style="1" customWidth="1"/>
     <col min="6" max="6" width="23.59765625" bestFit="1" customWidth="1"/>
@@ -2123,745 +2332,880 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:69" ht="43.5" customHeight="1">
-      <c r="A1" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="13" t="s">
         <v>7</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="E1" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="E1" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="J1" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="15" t="s">
         <v>174</v>
       </c>
-      <c r="M1" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="P1" s="17" t="s">
+      <c r="P1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="R1" s="18" t="s">
+      <c r="R1" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="S1" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="T1" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="U1" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="V1" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="W1" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="X1" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="Y1" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="Z1" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AA1" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="AB1" s="5" t="s">
+      <c r="AB1" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="AC1" s="5" t="s">
+      <c r="AC1" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="AD1" s="5" t="s">
+      <c r="AD1" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="AE1" s="7" t="s">
+      <c r="AE1" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="AF1" s="8" t="s">
+      <c r="AF1" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="AG1" s="5" t="s">
+      <c r="AG1" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="AH1" s="4" t="s">
+      <c r="AH1" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="AI1" s="4" t="s">
+      <c r="AI1" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="AJ1" s="4" t="s">
+      <c r="AJ1" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="AK1" s="4" t="s">
+      <c r="AK1" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="AL1" s="4" t="s">
+      <c r="AL1" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="AM1" s="4" t="s">
+      <c r="AM1" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="AN1" s="4" t="s">
+      <c r="AN1" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="AO1" s="4" t="s">
+      <c r="AO1" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="AP1" s="4" t="s">
+      <c r="AP1" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="AQ1" s="4" t="s">
+      <c r="AQ1" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="AR1" s="4" t="s">
+      <c r="AR1" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="AS1" s="4" t="s">
+      <c r="AS1" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="AT1" s="4" t="s">
+      <c r="AT1" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="AU1" s="4" t="s">
+      <c r="AU1" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="AV1" s="4" t="s">
+      <c r="AV1" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="AW1" s="4" t="s">
+      <c r="AW1" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="AX1" s="4" t="s">
+      <c r="AX1" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="AY1" s="4" t="s">
+      <c r="AY1" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="AZ1" s="4" t="s">
+      <c r="AZ1" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="BA1" s="4" t="s">
+      <c r="BA1" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="BB1" s="4" t="s">
+      <c r="BB1" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="BC1" s="4" t="s">
+      <c r="BC1" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="BD1" s="4" t="s">
+      <c r="BD1" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="BE1" s="4" t="s">
+      <c r="BE1" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="BF1" s="4" t="s">
+      <c r="BF1" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="BG1" s="4" t="s">
+      <c r="BG1" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="BH1" s="4" t="s">
+      <c r="BH1" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="BI1" s="4" t="s">
+      <c r="BI1" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="BJ1" s="4" t="s">
+      <c r="BJ1" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="BK1" s="4" t="s">
+      <c r="BK1" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="BL1" s="4" t="s">
+      <c r="BL1" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="BM1" s="4" t="s">
+      <c r="BM1" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="BN1" s="4" t="s">
+      <c r="BN1" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="BO1" s="9" t="s">
+      <c r="BO1" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="BP1" s="4" t="s">
+      <c r="BP1" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="BQ1" s="4" t="s">
+      <c r="BQ1" s="13" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:69" s="2" customFormat="1" ht="55" customHeight="1">
-      <c r="A2" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="E2" s="4" t="s">
+      <c r="A2" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="C2" s="13"/>
+      <c r="D2" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="E2" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="18"/>
-      <c r="S2" s="4" t="s">
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="T2" s="4" t="s">
+      <c r="T2" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="U2" s="4" t="s">
+      <c r="U2" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="V2" s="4" t="s">
+      <c r="V2" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="W2" s="4" t="s">
+      <c r="W2" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="X2" s="4" t="s">
+      <c r="X2" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="Y2" s="4" t="s">
+      <c r="Y2" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="Z2" s="4" t="s">
+      <c r="Z2" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="AA2" s="4" t="s">
+      <c r="AA2" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="AB2" s="4" t="s">
+      <c r="AB2" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="AC2" s="4" t="s">
+      <c r="AC2" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="AD2" s="4"/>
-      <c r="AE2" s="4" t="s">
+      <c r="AD2" s="13"/>
+      <c r="AE2" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="AF2" s="4" t="s">
+      <c r="AF2" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="AG2" s="4" t="s">
+      <c r="AG2" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="AH2" s="4" t="s">
-        <v>426</v>
-      </c>
-      <c r="AI2" s="4" t="s">
+      <c r="AH2" s="13" t="s">
+        <v>421</v>
+      </c>
+      <c r="AI2" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="AJ2" s="4" t="s">
+      <c r="AJ2" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="AK2" s="4" t="s">
+      <c r="AK2" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="AL2" s="4" t="s">
+      <c r="AL2" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="AM2" s="4" t="s">
+      <c r="AM2" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="AN2" s="4" t="s">
+      <c r="AN2" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="AO2" s="4" t="s">
+      <c r="AO2" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="AP2" s="4" t="s">
+      <c r="AP2" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="AQ2" s="4" t="s">
+      <c r="AQ2" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="AR2" s="4"/>
-      <c r="AS2" s="4" t="s">
+      <c r="AR2" s="13"/>
+      <c r="AS2" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="AT2" s="4" t="s">
+      <c r="AT2" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="AU2" s="4" t="s">
+      <c r="AU2" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="AV2" s="4" t="s">
+      <c r="AV2" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="AW2" s="4"/>
-      <c r="AX2" s="4" t="s">
+      <c r="AW2" s="13"/>
+      <c r="AX2" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="AY2" s="4" t="s">
+      <c r="AY2" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="AZ2" s="4"/>
-      <c r="BA2" s="4"/>
-      <c r="BB2" s="4" t="s">
+      <c r="AZ2" s="13"/>
+      <c r="BA2" s="13"/>
+      <c r="BB2" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="BC2" s="4" t="s">
+      <c r="BC2" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="BD2" s="4" t="s">
+      <c r="BD2" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="BE2" s="4" t="s">
+      <c r="BE2" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="BF2" s="4" t="s">
+      <c r="BF2" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="BG2" s="4" t="s">
+      <c r="BG2" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="BH2" s="4" t="s">
+      <c r="BH2" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="BI2" s="4" t="s">
+      <c r="BI2" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="BJ2" s="4" t="s">
+      <c r="BJ2" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="BK2" s="4" t="s">
+      <c r="BK2" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="BL2" s="4" t="s">
+      <c r="BL2" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="BM2" s="4" t="s">
+      <c r="BM2" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="BN2" s="4"/>
-      <c r="BO2" s="4" t="s">
+      <c r="BN2" s="13"/>
+      <c r="BO2" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="BP2" s="4"/>
-      <c r="BQ2" s="4"/>
+      <c r="BP2" s="13"/>
+      <c r="BQ2" s="13"/>
     </row>
     <row r="3" spans="1:69" s="3" customFormat="1" ht="53" customHeight="1">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="D3" s="20" t="s">
         <v>182</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="L3" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="M3" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="N3" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="O3" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="P3" s="18" t="s">
+      <c r="P3" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="Q3" s="4" t="s">
+      <c r="Q3" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="R3" s="18" t="s">
+      <c r="R3" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="S3" s="4" t="s">
+      <c r="S3" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="T3" s="4" t="s">
+      <c r="T3" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="U3" s="4" t="s">
+      <c r="U3" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="V3" s="4" t="s">
+      <c r="V3" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="W3" s="4" t="s">
+      <c r="W3" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="X3" s="4" t="s">
+      <c r="X3" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="Y3" s="4" t="s">
+      <c r="Y3" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="Z3" s="4" t="s">
+      <c r="Z3" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="AA3" s="4" t="s">
+      <c r="AA3" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="AB3" s="4" t="s">
+      <c r="AB3" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="AC3" s="4" t="s">
+      <c r="AC3" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="AD3" s="4" t="s">
+      <c r="AD3" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="AE3" s="8" t="s">
+      <c r="AE3" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="AF3" s="8" t="s">
+      <c r="AF3" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="AG3" s="4" t="s">
+      <c r="AG3" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="AH3" s="4" t="s">
+      <c r="AH3" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="AI3" s="4" t="s">
+      <c r="AI3" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="AJ3" s="4" t="s">
+      <c r="AJ3" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="AK3" s="4" t="s">
+      <c r="AK3" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="AL3" s="4" t="s">
+      <c r="AL3" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="AM3" s="4" t="s">
+      <c r="AM3" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="AN3" s="4" t="s">
+      <c r="AN3" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="AO3" s="4" t="s">
+      <c r="AO3" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="AP3" s="4" t="s">
+      <c r="AP3" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="AQ3" s="4" t="s">
+      <c r="AQ3" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="AR3" s="4" t="s">
+      <c r="AR3" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="AS3" s="4" t="s">
+      <c r="AS3" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="AT3" s="4" t="s">
+      <c r="AT3" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="AU3" s="4" t="s">
+      <c r="AU3" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="AV3" s="4" t="s">
+      <c r="AV3" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="AW3" s="4" t="s">
+      <c r="AW3" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="AX3" s="4" t="s">
+      <c r="AX3" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="AY3" s="4" t="s">
+      <c r="AY3" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="AZ3" s="4" t="s">
+      <c r="AZ3" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="BA3" s="4" t="s">
+      <c r="BA3" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="BB3" s="4" t="s">
+      <c r="BB3" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="BC3" s="4" t="s">
+      <c r="BC3" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="BD3" s="4" t="s">
+      <c r="BD3" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="BE3" s="4" t="s">
+      <c r="BE3" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="BF3" s="4" t="s">
+      <c r="BF3" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="BG3" s="4" t="s">
+      <c r="BG3" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="BH3" s="4" t="s">
+      <c r="BH3" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="BI3" s="4" t="s">
+      <c r="BI3" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="BJ3" s="4" t="s">
+      <c r="BJ3" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="BK3" s="4" t="s">
+      <c r="BK3" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="BL3" s="4" t="s">
+      <c r="BL3" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="BM3" s="4" t="s">
+      <c r="BM3" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="BN3" s="4" t="s">
+      <c r="BN3" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="BO3" s="4" t="s">
+      <c r="BO3" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="BP3" s="4" t="s">
+      <c r="BP3" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="BQ3" s="4" t="s">
+      <c r="BQ3" s="13" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="4" spans="1:69" s="11" customFormat="1" ht="48.5" customHeight="1">
-      <c r="A4" s="11">
+    <row r="4" spans="1:69" s="4" customFormat="1" ht="48.5" customHeight="1">
+      <c r="A4" s="12">
         <v>1</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="13">
         <v>1</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>374</v>
+      </c>
+      <c r="E4" s="13"/>
+      <c r="F4" s="9">
+        <v>3</v>
+      </c>
+      <c r="G4" s="20" t="s">
         <v>166</v>
       </c>
-      <c r="D4" s="10" t="s">
-        <v>377</v>
-      </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="12">
+      <c r="H4" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="L4" s="13" t="s">
+        <v>426</v>
+      </c>
+      <c r="M4" s="13">
+        <v>12345</v>
+      </c>
+      <c r="N4" s="13">
+        <v>54321</v>
+      </c>
+      <c r="O4" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="P4" s="13" t="s">
+        <v>428</v>
+      </c>
+      <c r="Q4" s="13" t="s">
+        <v>429</v>
+      </c>
+      <c r="R4" s="9"/>
+      <c r="S4" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="T4" s="13">
+        <v>-1</v>
+      </c>
+      <c r="U4" s="13">
+        <v>-40</v>
+      </c>
+      <c r="V4" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="W4" s="13">
+        <v>-20</v>
+      </c>
+      <c r="X4" s="13">
+        <v>-20</v>
+      </c>
+      <c r="Y4" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="13" t="s">
+        <v>432</v>
+      </c>
+      <c r="AA4" s="13" t="s">
+        <v>433</v>
+      </c>
+      <c r="AB4" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="AC4" s="13">
+        <v>2</v>
+      </c>
+      <c r="AD4" s="13" t="s">
+        <v>323</v>
+      </c>
+      <c r="AE4" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF4" s="18">
+        <v>-20</v>
+      </c>
+      <c r="AG4" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH4" s="13">
+        <v>2</v>
+      </c>
+      <c r="AI4" s="13"/>
+      <c r="AJ4" s="13"/>
+      <c r="AK4" s="13"/>
+      <c r="AL4" s="13" t="s">
+        <v>340</v>
+      </c>
+      <c r="AM4" s="13">
+        <v>-50</v>
+      </c>
+      <c r="AN4" s="13">
+        <v>-50</v>
+      </c>
+      <c r="AO4" s="13"/>
+      <c r="AP4" s="13"/>
+      <c r="AQ4" s="13"/>
+      <c r="AR4" s="13"/>
+      <c r="AS4" s="13"/>
+      <c r="AT4" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU4" s="13"/>
+      <c r="AV4" s="13"/>
+      <c r="AW4" s="13"/>
+      <c r="AX4" s="13"/>
+      <c r="AY4" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AZ4" s="13"/>
+      <c r="BA4" s="13"/>
+      <c r="BB4" s="9"/>
+      <c r="BC4" s="13"/>
+      <c r="BD4" s="13"/>
+      <c r="BE4" s="13"/>
+      <c r="BF4" s="13"/>
+      <c r="BG4" s="13"/>
+      <c r="BH4" s="13"/>
+      <c r="BI4" s="13"/>
+      <c r="BJ4" s="13"/>
+      <c r="BK4" s="13"/>
+      <c r="BL4" s="13"/>
+      <c r="BM4" s="13"/>
+      <c r="BN4" s="13"/>
+      <c r="BO4" s="13"/>
+      <c r="BP4" s="13"/>
+      <c r="BQ4" s="13"/>
+    </row>
+    <row r="5" spans="1:69" s="4" customFormat="1" ht="48.5" customHeight="1">
+      <c r="A5" s="12">
+        <v>1</v>
+      </c>
+      <c r="B5" s="13">
+        <v>2</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>437</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>374</v>
+      </c>
+      <c r="E5" s="13"/>
+      <c r="F5" s="9">
         <v>3</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G5" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="H5" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="H4" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="J4" s="4" t="s">
+      <c r="I5" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="K5" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="K4" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="M4" s="4">
+      <c r="L5" s="13" t="s">
+        <v>427</v>
+      </c>
+      <c r="M5" s="13">
         <v>12345</v>
       </c>
-      <c r="N4" s="4">
+      <c r="N5" s="13">
         <v>54321</v>
       </c>
-      <c r="O4" s="4" t="s">
-        <v>351</v>
-      </c>
-      <c r="P4" s="4" t="s">
-        <v>424</v>
-      </c>
-      <c r="Q4" s="4" t="s">
-        <v>425</v>
-      </c>
-      <c r="R4" s="18"/>
-      <c r="S4" s="4" t="b">
+      <c r="O5" s="13" t="s">
+        <v>320</v>
+      </c>
+      <c r="P5" s="13" t="s">
+        <v>430</v>
+      </c>
+      <c r="Q5" s="13" t="s">
+        <v>431</v>
+      </c>
+      <c r="R5" s="9"/>
+      <c r="S5" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
-      <c r="V4" s="4" t="b">
+      <c r="T5" s="13"/>
+      <c r="U5" s="13"/>
+      <c r="V5" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="W4" s="4">
-        <v>-10</v>
-      </c>
-      <c r="X4" s="4">
-        <v>-9</v>
-      </c>
-      <c r="Y4" s="4" t="b">
+      <c r="W5" s="13">
+        <v>-25</v>
+      </c>
+      <c r="X5" s="13">
+        <v>-25</v>
+      </c>
+      <c r="Y5" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="Z4" s="4"/>
-      <c r="AA4" s="4"/>
-      <c r="AB4" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="AC4" s="4">
-        <v>2</v>
-      </c>
-      <c r="AD4" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="AE4" s="4" t="b">
+      <c r="Z5" s="13"/>
+      <c r="AA5" s="13"/>
+      <c r="AB5" s="13" t="s">
+        <v>434</v>
+      </c>
+      <c r="AC5" s="13">
+        <v>1</v>
+      </c>
+      <c r="AD5" s="13" t="s">
+        <v>338</v>
+      </c>
+      <c r="AE5" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="AF4" s="8"/>
-      <c r="AG4" s="4" t="b">
+      <c r="AF5" s="18"/>
+      <c r="AG5" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="AH4" s="4"/>
-      <c r="AI4" s="4"/>
-      <c r="AJ4" s="4"/>
-      <c r="AK4" s="4"/>
-      <c r="AL4" s="4"/>
-      <c r="AM4" s="4"/>
-      <c r="AN4" s="4"/>
-      <c r="AO4" s="4"/>
-      <c r="AP4" s="4"/>
-      <c r="AQ4" s="4"/>
-      <c r="AR4" s="4"/>
-      <c r="AS4" s="4"/>
-      <c r="AT4" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="AU4" s="4"/>
-      <c r="AV4" s="4"/>
-      <c r="AW4" s="4"/>
-      <c r="AX4" s="4"/>
-      <c r="AY4" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="AZ4" s="4"/>
-      <c r="BA4" s="4"/>
-      <c r="BB4" s="12"/>
-      <c r="BC4" s="4"/>
-      <c r="BD4" s="4"/>
-      <c r="BE4" s="4"/>
-      <c r="BF4" s="4"/>
-      <c r="BG4" s="4"/>
-      <c r="BH4" s="4"/>
-      <c r="BI4" s="4"/>
-      <c r="BJ4" s="4"/>
-      <c r="BK4" s="4"/>
-      <c r="BL4" s="4"/>
-      <c r="BM4" s="4"/>
-      <c r="BN4" s="4"/>
-      <c r="BO4" s="4"/>
-      <c r="BP4" s="4"/>
-      <c r="BQ4" s="4"/>
+      <c r="AH5" s="13"/>
+      <c r="AI5" s="13"/>
+      <c r="AJ5" s="13"/>
+      <c r="AK5" s="13"/>
+      <c r="AL5" s="13"/>
+      <c r="AM5" s="13"/>
+      <c r="AN5" s="13"/>
+      <c r="AO5" s="13"/>
+      <c r="AP5" s="13"/>
+      <c r="AQ5" s="13"/>
+      <c r="AR5" s="13"/>
+      <c r="AS5" s="13"/>
+      <c r="AT5" s="13"/>
+      <c r="AU5" s="13"/>
+      <c r="AV5" s="13"/>
+      <c r="AW5" s="13"/>
+      <c r="AX5" s="13"/>
+      <c r="AY5" s="13"/>
+      <c r="AZ5" s="13"/>
+      <c r="BA5" s="13"/>
+      <c r="BB5" s="9"/>
+      <c r="BC5" s="13"/>
+      <c r="BD5" s="13"/>
+      <c r="BE5" s="13"/>
+      <c r="BF5" s="13"/>
+      <c r="BG5" s="13"/>
+      <c r="BH5" s="13"/>
+      <c r="BI5" s="13"/>
+      <c r="BJ5" s="13"/>
+      <c r="BK5" s="13"/>
+      <c r="BL5" s="13"/>
+      <c r="BM5" s="13"/>
+      <c r="BN5" s="13"/>
+      <c r="BO5" s="13"/>
+      <c r="BP5" s="13"/>
+      <c r="BQ5" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="9">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4" xr:uid="{A8F7BDED-0BCA-4093-A7BB-C2E9042B2100}">
-      <formula1>"嚴重特殊傳染性肺炎(併發症),阿米巴性痢疾,登革熱,結核病,人類免疫缺乏病毒感染(含母子垂直感染及孕產婦疑似個案),梅毒,淋病,鉤端螺旋體病,"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4" xr:uid="{3C62DD74-FBA9-4439-A321-05134A0DEA19}">
-      <formula1>"006,010,19CVS,044,061,090,098,100"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4" xr:uid="{F5924ECB-DA59-4406-90DE-EFD62BCCC046}">
+  <dataValidations count="7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F5" xr:uid="{F5924ECB-DA59-4406-90DE-EFD62BCCC046}">
       <formula1>"1,2,3,4,5"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4" xr:uid="{FCD0EBFF-13FA-47CC-914F-3502715AB811}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D5" xr:uid="{FCD0EBFF-13FA-47CC-914F-3502715AB811}">
       <formula1>"True,False"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S4 V4 Y4 AE4 AG4 AT4 AY4" xr:uid="{5827D3C6-C2F0-4CB3-A42B-DC743E52BAE5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S4:S5 V4:V5 Y4:Y5 AE4:AE5 AG4:AG5 AT4:AT5 AY4:AY5" xr:uid="{5827D3C6-C2F0-4CB3-A42B-DC743E52BAE5}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC4 BI4" xr:uid="{9528A280-150E-4E8C-8E60-8F8C168E21FB}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC4:AC5 BI4:BI5" xr:uid="{9528A280-150E-4E8C-8E60-8F8C168E21FB}">
       <formula1>"1,2"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH4 AS4" xr:uid="{3F5E04E2-8B33-49ED-B701-F1F8594B7A0E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH4:AH5 AS4:AS5" xr:uid="{3F5E04E2-8B33-49ED-B701-F1F8594B7A0E}">
       <formula1>"1,2,3"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BB4" xr:uid="{DAE093D4-4D6B-4B26-ABAC-957C8E9ED758}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BB4:BB5" xr:uid="{DAE093D4-4D6B-4B26-ABAC-957C8E9ED758}">
       <formula1>"1,2,3,4,5,6,7,8"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P4:Q4" xr:uid="{35BDC457-8DA0-4F88-BFC5-47AD3BD7B4BE}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P4:Q5" xr:uid="{35BDC457-8DA0-4F88-BFC5-47AD3BD7B4BE}">
       <formula1>INDIRECT(O4)</formula1>
     </dataValidation>
   </dataValidations>
@@ -2870,48 +3214,60 @@
   <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="7">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="9">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{18292119-A2F5-4A34-9CF7-E2D474674763}">
           <x14:formula1>
             <xm:f>清單!$B$2:$B$23</xm:f>
           </x14:formula1>
-          <xm:sqref>O4 AI4 BK4</xm:sqref>
+          <xm:sqref>O4:O5 AI4:AI5 BK4:BK5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{66E2B47E-8874-4025-8622-8DCD995A9438}">
           <x14:formula1>
             <xm:f>清單!$A$2:$A$36</xm:f>
           </x14:formula1>
-          <xm:sqref>AD4</xm:sqref>
+          <xm:sqref>AD4:AD5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{FB2D6F89-E306-4673-BE5A-66567DDFD945}">
           <x14:formula1>
             <xm:f>清單!$E$2:$E$34</xm:f>
           </x14:formula1>
-          <xm:sqref>AL4 AO4 AU4</xm:sqref>
+          <xm:sqref>AL4:AL5 AO4:AO5 AU4:AU5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D3635C2B-D303-41F9-82D8-8A2A915DCB31}">
           <x14:formula1>
             <xm:f>清單!$I$2:$I$8</xm:f>
           </x14:formula1>
-          <xm:sqref>AW4</xm:sqref>
+          <xm:sqref>AW4:AW5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1888A707-C4FD-45EA-951D-983AFEC06EBB}">
           <x14:formula1>
             <xm:f>清單!$J$2:$J$10</xm:f>
           </x14:formula1>
-          <xm:sqref>AZ4</xm:sqref>
+          <xm:sqref>AZ4:AZ5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{FF35CE2A-FBC6-4D23-B935-5C99EE6D39F9}">
           <x14:formula1>
             <xm:f>清單!$K$2:$K$7</xm:f>
           </x14:formula1>
-          <xm:sqref>BA4</xm:sqref>
+          <xm:sqref>BA4:BA5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{5DD4A195-05D9-4193-9CEE-012E6775FC3A}">
           <x14:formula1>
             <xm:f>清單!$G$5:$G$7</xm:f>
           </x14:formula1>
-          <xm:sqref>BL4</xm:sqref>
+          <xm:sqref>BL4:BL5</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{CA5AD469-4B1D-4BA5-949C-E7F93B2F74E8}">
+          <x14:formula1>
+            <xm:f>清單!$T$2:$T$12</xm:f>
+          </x14:formula1>
+          <xm:sqref>G4:G5</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{ACDC2D86-1B77-4262-A53D-9F9C9110ECC3}">
+          <x14:formula1>
+            <xm:f>清單!$S$2:$S$12</xm:f>
+          </x14:formula1>
+          <xm:sqref>H4:H5</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2921,732 +3277,826 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:BS4"/>
+  <dimension ref="A1:BS5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AO1" workbookViewId="0">
-      <selection activeCell="AV5" sqref="AV5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="2" width="8.796875" style="11" customWidth="1"/>
-    <col min="3" max="4" width="8.796875" style="11"/>
+    <col min="1" max="2" width="8.796875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="17.8984375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="16.09765625" style="4" customWidth="1"/>
     <col min="5" max="5" width="17.3984375" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.796875" style="11"/>
+    <col min="6" max="16384" width="8.796875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:71" s="13" customFormat="1" ht="58" customHeight="1">
-      <c r="A1" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="1:71" s="5" customFormat="1" ht="58" customHeight="1">
+      <c r="A1" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="13" t="s">
         <v>7</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="E1" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="E1" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="J1" s="22" t="s">
         <v>171</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="22" t="s">
         <v>172</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="22" t="s">
         <v>173</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="22" t="s">
         <v>174</v>
       </c>
-      <c r="M1" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="P1" s="17" t="s">
+      <c r="P1" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="R1" s="18" t="s">
+      <c r="R1" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="S1" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="T1" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="U1" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="V1" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="W1" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="X1" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="Y1" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="Z1" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AA1" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="AB1" s="5" t="s">
+      <c r="AB1" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="AC1" s="5" t="s">
+      <c r="AC1" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="AD1" s="5" t="s">
+      <c r="AD1" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="AE1" s="7" t="s">
+      <c r="AE1" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="AF1" s="8" t="s">
+      <c r="AF1" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="AG1" s="5" t="s">
+      <c r="AG1" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="AH1" s="4" t="s">
+      <c r="AH1" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="AI1" s="4" t="s">
+      <c r="AI1" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="AJ1" s="4" t="s">
+      <c r="AJ1" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="AK1" s="4" t="s">
+      <c r="AK1" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="AL1" s="4" t="s">
+      <c r="AL1" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="AM1" s="4" t="s">
+      <c r="AM1" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="AN1" s="4" t="s">
+      <c r="AN1" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="AO1" s="4" t="s">
+      <c r="AO1" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="AP1" s="4" t="s">
+      <c r="AP1" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="AQ1" s="4" t="s">
+      <c r="AQ1" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="AR1" s="4" t="s">
+      <c r="AR1" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="AS1" s="4" t="s">
+      <c r="AS1" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="AT1" s="4" t="s">
+      <c r="AT1" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="AU1" s="4" t="s">
+      <c r="AU1" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="AV1" s="4" t="s">
+      <c r="AV1" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="AW1" s="4" t="s">
+      <c r="AW1" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="AX1" s="4" t="s">
+      <c r="AX1" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="AY1" s="4" t="s">
+      <c r="AY1" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="AZ1" s="4" t="s">
+      <c r="AZ1" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="BA1" s="4" t="s">
+      <c r="BA1" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="BB1" s="4" t="s">
+      <c r="BB1" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="BC1" s="4" t="s">
+      <c r="BC1" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="BD1" s="4" t="s">
+      <c r="BD1" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="BE1" s="4" t="s">
+      <c r="BE1" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="BF1" s="4" t="s">
+      <c r="BF1" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="BG1" s="4" t="s">
+      <c r="BG1" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="BH1" s="4" t="s">
+      <c r="BH1" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="BI1" s="4" t="s">
+      <c r="BI1" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="BJ1" s="4" t="s">
+      <c r="BJ1" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="BK1" s="4" t="s">
+      <c r="BK1" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="BL1" s="4" t="s">
+      <c r="BL1" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="BM1" s="4" t="s">
+      <c r="BM1" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="BN1" s="4" t="s">
+      <c r="BN1" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="BO1" s="9" t="s">
+      <c r="BO1" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="BP1" s="4" t="s">
+      <c r="BP1" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="BQ1" s="4" t="s">
+      <c r="BQ1" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="BR1" s="4" t="s">
+      <c r="BR1" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="BS1" s="4" t="s">
+      <c r="BS1" s="13" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:71" ht="91" customHeight="1">
-      <c r="A2" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4" t="s">
+      <c r="A2" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B2" s="13"/>
+      <c r="C2" s="10" t="s">
+        <v>425</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="E2" s="13"/>
+      <c r="F2" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="G2" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="9" t="s">
+        <v>424</v>
+      </c>
+      <c r="I2" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="H2" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="18"/>
-      <c r="S2" s="4" t="s">
+      <c r="J2" s="11"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="T2" s="4" t="s">
+      <c r="T2" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="U2" s="4" t="s">
+      <c r="U2" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="V2" s="4" t="s">
+      <c r="V2" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="W2" s="4" t="s">
+      <c r="W2" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="X2" s="4" t="s">
+      <c r="X2" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="Y2" s="4" t="s">
+      <c r="Y2" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="Z2" s="4" t="s">
+      <c r="Z2" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="AA2" s="4" t="s">
+      <c r="AA2" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="AB2" s="4" t="s">
+      <c r="AB2" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="AC2" s="4" t="s">
+      <c r="AC2" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="AD2" s="4"/>
-      <c r="AE2" s="4" t="s">
+      <c r="AD2" s="13"/>
+      <c r="AE2" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="AF2" s="4" t="s">
+      <c r="AF2" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="AG2" s="4" t="s">
+      <c r="AG2" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="AH2" s="4" t="s">
-        <v>426</v>
-      </c>
-      <c r="AI2" s="4" t="s">
+      <c r="AH2" s="13" t="s">
+        <v>421</v>
+      </c>
+      <c r="AI2" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="AJ2" s="4" t="s">
+      <c r="AJ2" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="AK2" s="4" t="s">
+      <c r="AK2" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="AL2" s="4" t="s">
+      <c r="AL2" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="AM2" s="4" t="s">
+      <c r="AM2" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="AN2" s="4" t="s">
+      <c r="AN2" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="AO2" s="4" t="s">
+      <c r="AO2" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="AP2" s="4" t="s">
+      <c r="AP2" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="AQ2" s="4" t="s">
+      <c r="AQ2" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="AR2" s="4"/>
-      <c r="AS2" s="4" t="s">
+      <c r="AR2" s="13"/>
+      <c r="AS2" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="AT2" s="4" t="s">
+      <c r="AT2" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="AU2" s="4" t="s">
+      <c r="AU2" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="AV2" s="4" t="s">
+      <c r="AV2" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="AW2" s="4"/>
-      <c r="AX2" s="4" t="s">
+      <c r="AW2" s="13"/>
+      <c r="AX2" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="AY2" s="4" t="s">
+      <c r="AY2" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="AZ2" s="4"/>
-      <c r="BA2" s="4"/>
-      <c r="BB2" s="4" t="s">
+      <c r="AZ2" s="13"/>
+      <c r="BA2" s="13"/>
+      <c r="BB2" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="BC2" s="4" t="s">
+      <c r="BC2" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="BD2" s="4" t="s">
+      <c r="BD2" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="BE2" s="4" t="s">
+      <c r="BE2" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="BF2" s="4" t="s">
+      <c r="BF2" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="BG2" s="4" t="s">
+      <c r="BG2" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="BH2" s="4" t="s">
+      <c r="BH2" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="BI2" s="4" t="s">
+      <c r="BI2" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="BJ2" s="4" t="s">
+      <c r="BJ2" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="BK2" s="4" t="s">
+      <c r="BK2" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="BL2" s="4" t="s">
+      <c r="BL2" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="BM2" s="4" t="s">
+      <c r="BM2" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="BN2" s="4"/>
-      <c r="BO2" s="4" t="s">
+      <c r="BN2" s="13"/>
+      <c r="BO2" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="BP2" s="4"/>
-      <c r="BQ2" s="4"/>
-      <c r="BR2" s="4"/>
-      <c r="BS2" s="4"/>
+      <c r="BP2" s="13"/>
+      <c r="BQ2" s="13"/>
+      <c r="BR2" s="13"/>
+      <c r="BS2" s="13"/>
     </row>
     <row r="3" spans="1:71" ht="58" customHeight="1">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="D3" s="20" t="s">
         <v>182</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="L3" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="M3" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="N3" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="O3" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="P3" s="18" t="s">
+      <c r="P3" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="Q3" s="4" t="s">
+      <c r="Q3" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="R3" s="18" t="s">
+      <c r="R3" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="S3" s="4" t="s">
+      <c r="S3" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="T3" s="4" t="s">
+      <c r="T3" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="U3" s="4" t="s">
+      <c r="U3" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="V3" s="4" t="s">
+      <c r="V3" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="W3" s="4" t="s">
+      <c r="W3" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="X3" s="4" t="s">
+      <c r="X3" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="Y3" s="4" t="s">
+      <c r="Y3" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="Z3" s="4" t="s">
+      <c r="Z3" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="AA3" s="4" t="s">
+      <c r="AA3" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="AB3" s="4" t="s">
+      <c r="AB3" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="AC3" s="4" t="s">
+      <c r="AC3" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="AD3" s="4" t="s">
+      <c r="AD3" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="AE3" s="8" t="s">
+      <c r="AE3" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="AF3" s="8" t="s">
+      <c r="AF3" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="AG3" s="4" t="s">
+      <c r="AG3" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="AH3" s="4" t="s">
+      <c r="AH3" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="AI3" s="4" t="s">
+      <c r="AI3" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="AJ3" s="4" t="s">
+      <c r="AJ3" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="AK3" s="4" t="s">
+      <c r="AK3" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="AL3" s="4" t="s">
+      <c r="AL3" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="AM3" s="4" t="s">
+      <c r="AM3" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="AN3" s="4" t="s">
+      <c r="AN3" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="AO3" s="4" t="s">
+      <c r="AO3" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="AP3" s="4" t="s">
+      <c r="AP3" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="AQ3" s="4" t="s">
+      <c r="AQ3" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="AR3" s="4" t="s">
+      <c r="AR3" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="AS3" s="4" t="s">
+      <c r="AS3" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="AT3" s="4" t="s">
+      <c r="AT3" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="AU3" s="4" t="s">
+      <c r="AU3" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="AV3" s="4" t="s">
+      <c r="AV3" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="AW3" s="4" t="s">
+      <c r="AW3" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="AX3" s="4" t="s">
+      <c r="AX3" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="AY3" s="4" t="s">
+      <c r="AY3" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="AZ3" s="4" t="s">
+      <c r="AZ3" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="BA3" s="4" t="s">
+      <c r="BA3" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="BB3" s="4" t="s">
+      <c r="BB3" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="BC3" s="4" t="s">
+      <c r="BC3" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="BD3" s="4" t="s">
+      <c r="BD3" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="BE3" s="4" t="s">
+      <c r="BE3" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="BF3" s="4" t="s">
+      <c r="BF3" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="BG3" s="4" t="s">
+      <c r="BG3" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="BH3" s="4" t="s">
+      <c r="BH3" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="BI3" s="4" t="s">
+      <c r="BI3" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="BJ3" s="4" t="s">
+      <c r="BJ3" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="BK3" s="4" t="s">
+      <c r="BK3" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="BL3" s="4" t="s">
+      <c r="BL3" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="BM3" s="4" t="s">
+      <c r="BM3" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="BN3" s="4" t="s">
+      <c r="BN3" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="BO3" s="4" t="s">
+      <c r="BO3" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="BP3" s="4" t="s">
+      <c r="BP3" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="BQ3" s="4" t="s">
+      <c r="BQ3" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="BR3" s="4" t="s">
+      <c r="BR3" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="BS3" s="4" t="s">
+      <c r="BS3" s="13" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:71" ht="48.5" customHeight="1">
-      <c r="A4" s="11">
+      <c r="A4" s="12">
         <v>2</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="13">
         <v>1</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="10" t="s">
-        <v>377</v>
-      </c>
-      <c r="E4" s="4">
-        <v>1121</v>
-      </c>
-      <c r="F4" s="12"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="18"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
-      <c r="V4" s="4"/>
-      <c r="W4" s="4"/>
-      <c r="X4" s="4"/>
-      <c r="Y4" s="4"/>
-      <c r="Z4" s="4"/>
-      <c r="AA4" s="4"/>
-      <c r="AB4" s="4"/>
-      <c r="AC4" s="4"/>
-      <c r="AD4" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="AE4" s="4"/>
-      <c r="AF4" s="8"/>
-      <c r="AG4" s="4"/>
-      <c r="AH4" s="4"/>
-      <c r="AI4" s="4"/>
-      <c r="AJ4" s="4"/>
-      <c r="AK4" s="4"/>
-      <c r="AL4" s="4"/>
-      <c r="AM4" s="4"/>
-      <c r="AN4" s="4"/>
-      <c r="AO4" s="4"/>
-      <c r="AP4" s="4"/>
-      <c r="AQ4" s="4"/>
-      <c r="AR4" s="4"/>
-      <c r="AS4" s="4"/>
-      <c r="AT4" s="4"/>
-      <c r="AU4" s="4"/>
-      <c r="AV4" s="4"/>
-      <c r="AW4" s="4"/>
-      <c r="AX4" s="4"/>
-      <c r="AY4" s="4"/>
-      <c r="AZ4" s="4"/>
-      <c r="BA4" s="4"/>
-      <c r="BB4" s="12"/>
-      <c r="BC4" s="4"/>
-      <c r="BD4" s="4"/>
-      <c r="BE4" s="4"/>
-      <c r="BF4" s="4"/>
-      <c r="BG4" s="4"/>
-      <c r="BH4" s="4"/>
-      <c r="BI4" s="4"/>
-      <c r="BJ4" s="4"/>
-      <c r="BK4" s="4"/>
-      <c r="BL4" s="4"/>
-      <c r="BM4" s="4"/>
-      <c r="BN4" s="4"/>
-      <c r="BO4" s="4"/>
-      <c r="BP4" s="4"/>
-      <c r="BQ4" s="4"/>
-      <c r="BR4" s="4"/>
-      <c r="BS4" s="4"/>
+      <c r="C4" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>374</v>
+      </c>
+      <c r="E4" s="21">
+        <v>45306</v>
+      </c>
+      <c r="F4" s="9"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="T4" s="13"/>
+      <c r="U4" s="13"/>
+      <c r="V4" s="13"/>
+      <c r="W4" s="13"/>
+      <c r="X4" s="13"/>
+      <c r="Y4" s="13"/>
+      <c r="Z4" s="13"/>
+      <c r="AA4" s="13"/>
+      <c r="AB4" s="13"/>
+      <c r="AC4" s="13"/>
+      <c r="AD4" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="AE4" s="13"/>
+      <c r="AF4" s="18"/>
+      <c r="AG4" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="13"/>
+      <c r="AI4" s="13"/>
+      <c r="AJ4" s="13"/>
+      <c r="AK4" s="13"/>
+      <c r="AL4" s="13"/>
+      <c r="AM4" s="13"/>
+      <c r="AN4" s="13"/>
+      <c r="AO4" s="13"/>
+      <c r="AP4" s="13"/>
+      <c r="AQ4" s="13"/>
+      <c r="AR4" s="13"/>
+      <c r="AS4" s="13"/>
+      <c r="AT4" s="13"/>
+      <c r="AU4" s="13"/>
+      <c r="AV4" s="13"/>
+      <c r="AW4" s="13"/>
+      <c r="AX4" s="13"/>
+      <c r="AY4" s="13"/>
+      <c r="AZ4" s="13"/>
+      <c r="BA4" s="13"/>
+      <c r="BB4" s="9"/>
+      <c r="BC4" s="13"/>
+      <c r="BD4" s="13"/>
+      <c r="BE4" s="13"/>
+      <c r="BF4" s="13"/>
+      <c r="BG4" s="13"/>
+      <c r="BH4" s="13"/>
+      <c r="BI4" s="13"/>
+      <c r="BJ4" s="13"/>
+      <c r="BK4" s="13"/>
+      <c r="BL4" s="13"/>
+      <c r="BM4" s="13"/>
+      <c r="BN4" s="13"/>
+      <c r="BO4" s="13"/>
+      <c r="BP4" s="13"/>
+      <c r="BQ4" s="13"/>
+      <c r="BR4" s="13"/>
+      <c r="BS4" s="13"/>
+    </row>
+    <row r="5" spans="1:71" ht="48.5" customHeight="1">
+      <c r="A5" s="12">
+        <v>2</v>
+      </c>
+      <c r="B5" s="13">
+        <v>2</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>439</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>374</v>
+      </c>
+      <c r="E5" s="21">
+        <v>45306</v>
+      </c>
+      <c r="F5" s="9"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13" t="s">
+        <v>305</v>
+      </c>
+      <c r="P5" s="13" t="s">
+        <v>435</v>
+      </c>
+      <c r="Q5" s="13" t="s">
+        <v>436</v>
+      </c>
+      <c r="R5" s="9"/>
+      <c r="S5" s="13"/>
+      <c r="T5" s="13"/>
+      <c r="U5" s="13"/>
+      <c r="V5" s="13"/>
+      <c r="W5" s="13"/>
+      <c r="X5" s="13"/>
+      <c r="Y5" s="13"/>
+      <c r="Z5" s="13"/>
+      <c r="AA5" s="13"/>
+      <c r="AB5" s="13"/>
+      <c r="AC5" s="13"/>
+      <c r="AD5" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="AE5" s="13"/>
+      <c r="AF5" s="18"/>
+      <c r="AG5" s="13"/>
+      <c r="AH5" s="13"/>
+      <c r="AI5" s="13"/>
+      <c r="AJ5" s="13"/>
+      <c r="AK5" s="13"/>
+      <c r="AL5" s="13"/>
+      <c r="AM5" s="13"/>
+      <c r="AN5" s="13"/>
+      <c r="AO5" s="13"/>
+      <c r="AP5" s="13"/>
+      <c r="AQ5" s="13"/>
+      <c r="AR5" s="13"/>
+      <c r="AS5" s="13"/>
+      <c r="AT5" s="13"/>
+      <c r="AU5" s="13"/>
+      <c r="AV5" s="13"/>
+      <c r="AW5" s="13"/>
+      <c r="AX5" s="13"/>
+      <c r="AY5" s="13"/>
+      <c r="AZ5" s="13"/>
+      <c r="BA5" s="13"/>
+      <c r="BB5" s="9"/>
+      <c r="BC5" s="13"/>
+      <c r="BD5" s="13"/>
+      <c r="BE5" s="13"/>
+      <c r="BF5" s="13"/>
+      <c r="BG5" s="13"/>
+      <c r="BH5" s="13"/>
+      <c r="BI5" s="13"/>
+      <c r="BJ5" s="13"/>
+      <c r="BK5" s="13"/>
+      <c r="BL5" s="13"/>
+      <c r="BM5" s="13"/>
+      <c r="BN5" s="13"/>
+      <c r="BO5" s="13"/>
+      <c r="BP5" s="13"/>
+      <c r="BQ5" s="13"/>
+      <c r="BR5" s="13"/>
+      <c r="BS5" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="9">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BB4" xr:uid="{0D05B73B-1AF4-4E61-BCA0-59D9935A6132}">
+  <dataValidations count="7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BB4:BB5" xr:uid="{0D05B73B-1AF4-4E61-BCA0-59D9935A6132}">
       <formula1>"1,2,3,4,5,6,7,8"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH4 AS4" xr:uid="{74A45F55-5698-4E2A-9212-FCB23402CA20}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH4:AH5 AS4:AS5" xr:uid="{74A45F55-5698-4E2A-9212-FCB23402CA20}">
       <formula1>"1,2,3"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC4 BI4" xr:uid="{D597E4B9-B129-483E-8BA8-64FA17C275B2}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC4:AC5 BI4:BI5" xr:uid="{D597E4B9-B129-483E-8BA8-64FA17C275B2}">
       <formula1>"1,2"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S4 V4 Y4 AE4 AG4 AT4 AY4" xr:uid="{8926036D-355C-4452-93FF-45F077BF62F1}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S4:S5 V4:V5 Y4:Y5 AE4:AE5 AG4:AG5 AT4:AT5 AY4:AY5" xr:uid="{8926036D-355C-4452-93FF-45F077BF62F1}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4" xr:uid="{50F953FC-373D-430F-85C3-088CC1656335}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D5" xr:uid="{50F953FC-373D-430F-85C3-088CC1656335}">
       <formula1>"True,False"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4" xr:uid="{22025847-BA43-41FC-BCAF-50D417D07C45}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F5" xr:uid="{22025847-BA43-41FC-BCAF-50D417D07C45}">
       <formula1>"1,2,3,4,5"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4" xr:uid="{300966C6-22FF-46CA-9925-DE008F99EE00}">
-      <formula1>"006,010,19CVS,044,061,090,098,100"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4" xr:uid="{24EDE952-00C9-4C32-A099-8CAD986C2A90}">
-      <formula1>"嚴重特殊傳染性肺炎(併發症),阿米巴性痢疾,登革熱,結核病,人類免疫缺乏病毒感染(含母子垂直感染及孕產婦疑似個案),梅毒,淋病,鉤端螺旋體病,"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P4:Q4" xr:uid="{0C141F16-0DC0-435C-BDFE-A61F331E4C1C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P4:Q5" xr:uid="{0C141F16-0DC0-435C-BDFE-A61F331E4C1C}">
       <formula1>INDIRECT(O4)</formula1>
     </dataValidation>
   </dataValidations>
@@ -3655,48 +4105,60 @@
   <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="7">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="9">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7EB42FF1-7ECB-4A04-8393-1B9A083CFE92}">
           <x14:formula1>
             <xm:f>清單!$G$5:$G$7</xm:f>
           </x14:formula1>
-          <xm:sqref>BL4</xm:sqref>
+          <xm:sqref>BL4:BL5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{845C1F6B-2353-4D45-BB46-D618426EE074}">
           <x14:formula1>
             <xm:f>清單!$K$2:$K$7</xm:f>
           </x14:formula1>
-          <xm:sqref>BA4</xm:sqref>
+          <xm:sqref>BA4:BA5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{85D12E18-2D1A-45BF-91D0-8F16AF46ABD5}">
           <x14:formula1>
             <xm:f>清單!$J$2:$J$10</xm:f>
           </x14:formula1>
-          <xm:sqref>AZ4</xm:sqref>
+          <xm:sqref>AZ4:AZ5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{FDD13840-72E6-48E9-A5AC-9570EE4567B5}">
           <x14:formula1>
             <xm:f>清單!$I$2:$I$8</xm:f>
           </x14:formula1>
-          <xm:sqref>AW4</xm:sqref>
+          <xm:sqref>AW4:AW5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E8E58E2C-DFB0-47F6-BEB5-38493EEB5A5D}">
           <x14:formula1>
             <xm:f>清單!$E$2:$E$34</xm:f>
           </x14:formula1>
-          <xm:sqref>AL4 AO4 AU4</xm:sqref>
+          <xm:sqref>AL4:AL5 AO4:AO5 AU4:AU5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{90320258-0AA9-43BA-BDB7-F643DDAFF417}">
           <x14:formula1>
             <xm:f>清單!$A$2:$A$36</xm:f>
           </x14:formula1>
-          <xm:sqref>AD4</xm:sqref>
+          <xm:sqref>AD4:AD5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B57CB2FD-1892-403C-BD8A-22FD1A18B997}">
           <x14:formula1>
             <xm:f>清單!$B$2:$B$23</xm:f>
           </x14:formula1>
-          <xm:sqref>BK4 AI4 O4</xm:sqref>
+          <xm:sqref>BK4:BK5 AI4:AI5 O4:O5</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C7C60D15-09C3-4002-B59F-C52445461552}">
+          <x14:formula1>
+            <xm:f>清單!$T$2:$T$12</xm:f>
+          </x14:formula1>
+          <xm:sqref>G4:G5</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C7636DB4-0EF6-441B-8865-3471F01DDC21}">
+          <x14:formula1>
+            <xm:f>清單!$S$2:$S$12</xm:f>
+          </x14:formula1>
+          <xm:sqref>H4:H5</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3706,10 +4168,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{387F435E-3A48-48A5-BC4B-9A8D72C80066}">
-  <dimension ref="A1:R36"/>
+  <dimension ref="A1:T36"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="S1" sqref="S1:T1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -3729,888 +4191,962 @@
     <col min="14" max="14" width="15" bestFit="1" customWidth="1"/>
     <col min="15" max="17" width="10.19921875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="15" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="34.5" customWidth="1"/>
+    <col min="20" max="20" width="8.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15.5">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:20" ht="15.5">
+      <c r="A1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="C1" s="15" t="s">
-        <v>378</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>379</v>
-      </c>
-      <c r="E1" s="15" t="s">
+      <c r="H1" t="s">
         <v>188</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="I1" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="J1" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="L1" s="6" t="s">
         <v>192</v>
-      </c>
-      <c r="J1" s="15" t="s">
-        <v>193</v>
-      </c>
-      <c r="K1" s="15" t="s">
-        <v>194</v>
-      </c>
-      <c r="L1" s="15" t="s">
-        <v>195</v>
       </c>
       <c r="M1" t="s">
         <v>25</v>
       </c>
       <c r="N1" t="s">
+        <v>193</v>
+      </c>
+      <c r="O1" t="s">
+        <v>194</v>
+      </c>
+      <c r="P1" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q1" t="s">
         <v>196</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
         <v>197</v>
       </c>
-      <c r="P1" t="s">
+      <c r="S1" t="s">
+        <v>440</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
+      <c r="A2" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="B2" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="R1" t="s">
+      <c r="C2" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>200</v>
       </c>
+      <c r="F2" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="H2" t="s">
+        <v>203</v>
+      </c>
+      <c r="I2" t="s">
+        <v>204</v>
+      </c>
+      <c r="J2" t="s">
+        <v>205</v>
+      </c>
+      <c r="K2" t="s">
+        <v>206</v>
+      </c>
+      <c r="L2" t="s">
+        <v>207</v>
+      </c>
+      <c r="M2" t="s">
+        <v>208</v>
+      </c>
+      <c r="N2" t="s">
+        <v>209</v>
+      </c>
+      <c r="O2" t="s">
+        <v>210</v>
+      </c>
+      <c r="P2" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>211</v>
+      </c>
+      <c r="R2" t="s">
+        <v>212</v>
+      </c>
+      <c r="S2" t="s">
+        <v>442</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>443</v>
+      </c>
     </row>
-    <row r="2" spans="1:18">
-      <c r="A2" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>202</v>
-      </c>
-      <c r="C2" s="15" t="s">
+    <row r="3" spans="1:20">
+      <c r="A3" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>380</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="E3" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="H3" t="s">
+        <v>218</v>
+      </c>
+      <c r="I3" t="s">
+        <v>219</v>
+      </c>
+      <c r="J3" t="s">
+        <v>220</v>
+      </c>
+      <c r="K3" t="s">
+        <v>221</v>
+      </c>
+      <c r="L3" t="s">
+        <v>222</v>
+      </c>
+      <c r="M3" t="s">
+        <v>223</v>
+      </c>
+      <c r="N3" t="s">
+        <v>224</v>
+      </c>
+      <c r="O3" t="s">
+        <v>225</v>
+      </c>
+      <c r="P3" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>226</v>
+      </c>
+      <c r="R3" t="s">
+        <v>227</v>
+      </c>
+      <c r="S3" t="s">
+        <v>444</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>381</v>
       </c>
-      <c r="E2" s="15" t="s">
-        <v>203</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>204</v>
-      </c>
-      <c r="G2" s="15" t="s">
-        <v>205</v>
-      </c>
-      <c r="H2" t="s">
-        <v>206</v>
-      </c>
-      <c r="I2" t="s">
-        <v>207</v>
-      </c>
-      <c r="J2" t="s">
-        <v>208</v>
-      </c>
-      <c r="K2" t="s">
-        <v>209</v>
-      </c>
-      <c r="L2" t="s">
-        <v>210</v>
-      </c>
-      <c r="M2" t="s">
-        <v>211</v>
-      </c>
-      <c r="N2" t="s">
-        <v>212</v>
-      </c>
-      <c r="O2" t="s">
-        <v>213</v>
-      </c>
-      <c r="P2" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>214</v>
-      </c>
-      <c r="R2" t="s">
-        <v>215</v>
+      <c r="D4" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="H4" t="s">
+        <v>233</v>
+      </c>
+      <c r="I4" t="s">
+        <v>234</v>
+      </c>
+      <c r="J4" t="s">
+        <v>235</v>
+      </c>
+      <c r="K4" t="s">
+        <v>236</v>
+      </c>
+      <c r="L4" t="s">
+        <v>237</v>
+      </c>
+      <c r="M4" t="s">
+        <v>238</v>
+      </c>
+      <c r="N4" t="s">
+        <v>239</v>
+      </c>
+      <c r="O4" t="s">
+        <v>240</v>
+      </c>
+      <c r="P4" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>224</v>
+      </c>
+      <c r="R4" t="s">
+        <v>241</v>
+      </c>
+      <c r="S4" t="s">
+        <v>446</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>447</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
-      <c r="A3" s="15" t="s">
-        <v>216</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>217</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>382</v>
-      </c>
-      <c r="D3" s="15" t="s">
+    <row r="5" spans="1:20">
+      <c r="A5" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>383</v>
       </c>
-      <c r="E3" s="15" t="s">
-        <v>218</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>219</v>
-      </c>
-      <c r="G3" s="15" t="s">
-        <v>220</v>
-      </c>
-      <c r="H3" t="s">
-        <v>221</v>
-      </c>
-      <c r="I3" t="s">
-        <v>222</v>
-      </c>
-      <c r="J3" t="s">
-        <v>223</v>
-      </c>
-      <c r="K3" t="s">
+      <c r="D5" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="H5" t="s">
+        <v>247</v>
+      </c>
+      <c r="I5" t="s">
+        <v>248</v>
+      </c>
+      <c r="J5" t="s">
+        <v>249</v>
+      </c>
+      <c r="K5" t="s">
+        <v>250</v>
+      </c>
+      <c r="L5" t="s">
+        <v>251</v>
+      </c>
+      <c r="M5" t="s">
+        <v>252</v>
+      </c>
+      <c r="N5" t="s">
+        <v>253</v>
+      </c>
+      <c r="O5" t="s">
+        <v>254</v>
+      </c>
+      <c r="P5" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>256</v>
+      </c>
+      <c r="R5" t="s">
+        <v>257</v>
+      </c>
+      <c r="S5" t="s">
+        <v>448</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="H6" t="s">
+        <v>263</v>
+      </c>
+      <c r="I6" t="s">
+        <v>264</v>
+      </c>
+      <c r="J6" t="s">
+        <v>265</v>
+      </c>
+      <c r="K6" t="s">
+        <v>266</v>
+      </c>
+      <c r="M6" t="s">
+        <v>267</v>
+      </c>
+      <c r="O6" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>255</v>
+      </c>
+      <c r="R6" t="s">
+        <v>268</v>
+      </c>
+      <c r="S6" t="s">
+        <v>450</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="G7" t="s">
+        <v>268</v>
+      </c>
+      <c r="H7" t="s">
+        <v>273</v>
+      </c>
+      <c r="I7" t="s">
+        <v>268</v>
+      </c>
+      <c r="J7" t="s">
+        <v>274</v>
+      </c>
+      <c r="K7" t="s">
+        <v>275</v>
+      </c>
+      <c r="M7" t="s">
+        <v>276</v>
+      </c>
+      <c r="O7" t="s">
         <v>224</v>
       </c>
-      <c r="L3" t="s">
-        <v>225</v>
-      </c>
-      <c r="M3" t="s">
-        <v>226</v>
-      </c>
-      <c r="N3" t="s">
-        <v>227</v>
-      </c>
-      <c r="O3" t="s">
-        <v>228</v>
-      </c>
-      <c r="P3" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>229</v>
-      </c>
-      <c r="R3" t="s">
-        <v>230</v>
+      <c r="Q7" t="s">
+        <v>268</v>
+      </c>
+      <c r="S7" t="s">
+        <v>452</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>453</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
-      <c r="A4" s="15" t="s">
-        <v>231</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>232</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>384</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>385</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>233</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>234</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>235</v>
-      </c>
-      <c r="H4" t="s">
-        <v>236</v>
-      </c>
-      <c r="I4" t="s">
-        <v>237</v>
-      </c>
-      <c r="J4" t="s">
-        <v>238</v>
-      </c>
-      <c r="K4" t="s">
-        <v>239</v>
-      </c>
-      <c r="L4" t="s">
-        <v>240</v>
-      </c>
-      <c r="M4" t="s">
-        <v>241</v>
-      </c>
-      <c r="N4" t="s">
-        <v>242</v>
-      </c>
-      <c r="O4" t="s">
-        <v>243</v>
-      </c>
-      <c r="P4" t="s">
-        <v>227</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>227</v>
-      </c>
-      <c r="R4" t="s">
-        <v>244</v>
+    <row r="8" spans="1:20">
+      <c r="A8" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="H8" t="s">
+        <v>281</v>
+      </c>
+      <c r="I8" t="s">
+        <v>266</v>
+      </c>
+      <c r="J8" t="s">
+        <v>282</v>
+      </c>
+      <c r="M8" t="s">
+        <v>283</v>
+      </c>
+      <c r="O8" t="s">
+        <v>284</v>
+      </c>
+      <c r="S8" t="s">
+        <v>167</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>454</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
-      <c r="A5" s="15" t="s">
-        <v>245</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>246</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>386</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>387</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>247</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>248</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>249</v>
-      </c>
-      <c r="H5" t="s">
-        <v>250</v>
-      </c>
-      <c r="I5" t="s">
-        <v>251</v>
-      </c>
-      <c r="J5" t="s">
-        <v>252</v>
-      </c>
-      <c r="K5" t="s">
-        <v>253</v>
-      </c>
-      <c r="L5" t="s">
-        <v>254</v>
-      </c>
-      <c r="M5" t="s">
-        <v>255</v>
-      </c>
-      <c r="N5" t="s">
-        <v>256</v>
-      </c>
-      <c r="O5" t="s">
-        <v>257</v>
-      </c>
-      <c r="P5" t="s">
-        <v>258</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>259</v>
-      </c>
-      <c r="R5" t="s">
-        <v>260</v>
+    <row r="9" spans="1:20">
+      <c r="A9" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="H9" t="s">
+        <v>289</v>
+      </c>
+      <c r="J9" t="s">
+        <v>290</v>
+      </c>
+      <c r="M9" t="s">
+        <v>291</v>
+      </c>
+      <c r="O9" t="s">
+        <v>292</v>
+      </c>
+      <c r="S9" t="s">
+        <v>455</v>
+      </c>
+      <c r="T9" s="1">
+        <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
-      <c r="A6" s="15" t="s">
-        <v>261</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>262</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>388</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>389</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>263</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>264</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>265</v>
-      </c>
-      <c r="H6" t="s">
-        <v>266</v>
-      </c>
-      <c r="I6" t="s">
-        <v>267</v>
-      </c>
-      <c r="J6" t="s">
+    <row r="10" spans="1:20">
+      <c r="A10" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="H10" t="s">
+        <v>297</v>
+      </c>
+      <c r="J10" t="s">
+        <v>298</v>
+      </c>
+      <c r="M10" t="s">
         <v>268</v>
       </c>
-      <c r="K6" t="s">
-        <v>269</v>
-      </c>
-      <c r="M6" t="s">
-        <v>270</v>
-      </c>
-      <c r="O6" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>258</v>
-      </c>
-      <c r="R6" t="s">
-        <v>271</v>
+      <c r="S10" s="24" t="s">
+        <v>456</v>
+      </c>
+      <c r="T10" s="24" t="s">
+        <v>457</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
-      <c r="A7" s="15" t="s">
-        <v>272</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>273</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>390</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>391</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>274</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>275</v>
-      </c>
-      <c r="G7" t="s">
-        <v>271</v>
-      </c>
-      <c r="H7" t="s">
-        <v>276</v>
-      </c>
-      <c r="I7" t="s">
-        <v>271</v>
-      </c>
-      <c r="J7" t="s">
-        <v>277</v>
-      </c>
-      <c r="K7" t="s">
-        <v>278</v>
-      </c>
-      <c r="M7" t="s">
-        <v>279</v>
-      </c>
-      <c r="O7" t="s">
-        <v>227</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>271</v>
+    <row r="11" spans="1:20">
+      <c r="A11" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="H11" t="s">
+        <v>303</v>
+      </c>
+      <c r="S11" s="24" t="s">
+        <v>458</v>
+      </c>
+      <c r="T11" s="24" t="s">
+        <v>459</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
-      <c r="A8" s="15" t="s">
-        <v>280</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>281</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>392</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>393</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>282</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>283</v>
-      </c>
-      <c r="H8" t="s">
-        <v>284</v>
-      </c>
-      <c r="I8" t="s">
-        <v>269</v>
-      </c>
-      <c r="J8" t="s">
-        <v>285</v>
-      </c>
-      <c r="M8" t="s">
-        <v>286</v>
-      </c>
-      <c r="O8" t="s">
-        <v>287</v>
+    <row r="12" spans="1:20">
+      <c r="A12" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="H12" t="s">
+        <v>308</v>
+      </c>
+      <c r="S12" s="24" t="s">
+        <v>460</v>
+      </c>
+      <c r="T12" s="24" t="s">
+        <v>461</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
-      <c r="A9" s="15" t="s">
-        <v>288</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>289</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>394</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>395</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>290</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>291</v>
-      </c>
-      <c r="H9" t="s">
-        <v>292</v>
-      </c>
-      <c r="J9" t="s">
-        <v>293</v>
-      </c>
-      <c r="M9" t="s">
-        <v>294</v>
-      </c>
-      <c r="O9" t="s">
-        <v>295</v>
+    <row r="13" spans="1:20">
+      <c r="A13" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="H13" t="s">
+        <v>313</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
-      <c r="A10" s="15" t="s">
-        <v>296</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>297</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>396</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>397</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>298</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>299</v>
-      </c>
-      <c r="H10" t="s">
-        <v>300</v>
-      </c>
-      <c r="J10" t="s">
-        <v>301</v>
-      </c>
-      <c r="M10" t="s">
-        <v>271</v>
+    <row r="14" spans="1:20">
+      <c r="A14" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="H14" t="s">
+        <v>318</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
-      <c r="A11" s="15" t="s">
-        <v>302</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>303</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>398</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>399</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>305</v>
-      </c>
-      <c r="H11" t="s">
-        <v>306</v>
+    <row r="15" spans="1:20">
+      <c r="A15" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>322</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
-      <c r="A12" s="15" t="s">
-        <v>307</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>308</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>400</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>401</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>309</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>310</v>
-      </c>
-      <c r="H12" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
-      <c r="A13" s="15" t="s">
-        <v>312</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>313</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>402</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>403</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>314</v>
-      </c>
-      <c r="F13" s="15" t="s">
-        <v>315</v>
-      </c>
-      <c r="H13" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
-      <c r="A14" s="15" t="s">
-        <v>317</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>318</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>404</v>
-      </c>
-      <c r="D14" s="15" t="s">
+    <row r="16" spans="1:20">
+      <c r="A16" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>405</v>
       </c>
-      <c r="E14" s="15" t="s">
-        <v>319</v>
-      </c>
-      <c r="F14" s="15" t="s">
-        <v>320</v>
-      </c>
-      <c r="H14" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
-      <c r="A15" s="15" t="s">
-        <v>322</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>323</v>
-      </c>
-      <c r="C15" s="15" t="s">
+      <c r="D16" s="6" t="s">
         <v>406</v>
       </c>
-      <c r="D15" s="15" t="s">
-        <v>407</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>324</v>
-      </c>
-      <c r="F15" s="15" t="s">
+      <c r="E16" s="6" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="16" spans="1:18">
-      <c r="A16" s="15" t="s">
+      <c r="F16" s="6" t="s">
         <v>326</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>327</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>408</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>409</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>328</v>
-      </c>
-      <c r="F16" s="15" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="F17" s="6" t="s">
         <v>330</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>331</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>410</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>411</v>
-      </c>
-      <c r="E17" s="15" t="s">
-        <v>332</v>
-      </c>
-      <c r="F17" s="15" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="F18" s="6" t="s">
         <v>334</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>335</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>412</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>413</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>336</v>
-      </c>
-      <c r="F18" s="15" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="15" t="s">
-        <v>338</v>
-      </c>
-      <c r="B19" s="15" t="s">
-        <v>339</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>414</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>415</v>
-      </c>
-      <c r="E19" s="15" t="s">
-        <v>340</v>
-      </c>
-      <c r="F19" s="15"/>
+      <c r="A19" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="F19" s="6"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="15" t="s">
-        <v>341</v>
-      </c>
-      <c r="B20" s="15" t="s">
-        <v>342</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>416</v>
-      </c>
-      <c r="D20" s="15" t="s">
-        <v>417</v>
-      </c>
-      <c r="E20" s="15" t="s">
-        <v>343</v>
-      </c>
-      <c r="F20" s="15"/>
+      <c r="A20" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="F20" s="6"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="15" t="s">
-        <v>344</v>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>345</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>418</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>419</v>
-      </c>
-      <c r="E21" s="15" t="s">
-        <v>346</v>
-      </c>
-      <c r="F21" s="15"/>
+      <c r="A21" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="F21" s="6"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="15" t="s">
-        <v>347</v>
-      </c>
-      <c r="B22" s="15" t="s">
-        <v>348</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>420</v>
-      </c>
-      <c r="D22" s="15" t="s">
-        <v>421</v>
-      </c>
-      <c r="E22" s="15" t="s">
-        <v>349</v>
-      </c>
-      <c r="F22" s="15"/>
+      <c r="A22" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="F22" s="6"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="15" t="s">
-        <v>350</v>
-      </c>
-      <c r="B23" s="15" t="s">
-        <v>351</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>422</v>
-      </c>
-      <c r="D23" s="15" t="s">
-        <v>423</v>
-      </c>
-      <c r="E23" s="15" t="s">
-        <v>352</v>
-      </c>
-      <c r="F23" s="15"/>
+      <c r="A23" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="F23" s="6"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="15" t="s">
-        <v>353</v>
-      </c>
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15" t="s">
-        <v>354</v>
-      </c>
-      <c r="F24" s="15"/>
+      <c r="A24" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="F24" s="6"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="15" t="s">
-        <v>355</v>
-      </c>
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15" t="s">
-        <v>356</v>
-      </c>
-      <c r="F25" s="15"/>
+      <c r="A25" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="F25" s="6"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="15" t="s">
-        <v>357</v>
-      </c>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15" t="s">
-        <v>358</v>
-      </c>
-      <c r="F26" s="15"/>
+      <c r="A26" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="15" t="s">
-        <v>359</v>
-      </c>
-      <c r="B27" s="15"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15" t="s">
-        <v>360</v>
-      </c>
-      <c r="F27" s="15"/>
+      <c r="A27" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="F27" s="6"/>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="15" t="s">
-        <v>361</v>
-      </c>
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15" t="s">
-        <v>362</v>
-      </c>
-      <c r="F28" s="15"/>
+      <c r="A28" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="F28" s="6"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="15" t="s">
-        <v>363</v>
-      </c>
-      <c r="B29" s="15"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15" t="s">
-        <v>364</v>
-      </c>
-      <c r="F29" s="15"/>
+      <c r="A29" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="F29" s="6"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="15" t="s">
-        <v>365</v>
-      </c>
-      <c r="B30" s="15"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15" t="s">
-        <v>366</v>
-      </c>
-      <c r="F30" s="15"/>
+      <c r="A30" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="F30" s="6"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="15" t="s">
-        <v>367</v>
-      </c>
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15" t="s">
-        <v>368</v>
-      </c>
-      <c r="F31" s="15"/>
+      <c r="A31" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="F31" s="6"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="15" t="s">
-        <v>369</v>
-      </c>
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15" t="s">
-        <v>370</v>
-      </c>
-      <c r="F32" s="15"/>
+      <c r="A32" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="F32" s="6"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="15" t="s">
-        <v>371</v>
-      </c>
-      <c r="B33" s="15"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15" t="s">
-        <v>372</v>
-      </c>
-      <c r="F33" s="15"/>
+      <c r="A33" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="F33" s="6"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="15" t="s">
-        <v>373</v>
-      </c>
-      <c r="B34" s="15"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15" t="s">
-        <v>374</v>
-      </c>
-      <c r="F34" s="15"/>
+      <c r="A34" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="F34" s="6"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="15" t="s">
-        <v>375</v>
-      </c>
-      <c r="B35" s="15"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
+      <c r="A35" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="15" t="s">
-        <v>376</v>
-      </c>
-      <c r="B36" s="15"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="15"/>
+      <c r="A36" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/testdata/Smoke_WEB_MED_098_NEWREPORT_01.xlsx
+++ b/testdata/Smoke_WEB_MED_098_NEWREPORT_01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\docker0814\test_RobotFramework\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{290E081E-81C6-470F-B19A-F97746F3375E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04A3E236-D603-4A5E-99CD-C40E7E85E900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-40" yWindow="130" windowWidth="13890" windowHeight="9620" tabRatio="603" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2240" yWindow="430" windowWidth="12620" windowHeight="9930" tabRatio="603" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -77,7 +77,7 @@
     <author>tc={5F897820-D07C-48B1-A540-699171BA2EE6}</author>
   </authors>
   <commentList>
-    <comment ref="Z4" authorId="0" shapeId="0" xr:uid="{CAFB994B-4ABE-45EF-A6F2-EEA53B9C2487}">
+    <comment ref="AA4" authorId="0" shapeId="0" xr:uid="{CAFB994B-4ABE-45EF-A6F2-EEA53B9C2487}">
       <text>
         <t>[對話串註解]
 您的 Excel 版本可讓您讀取此對話串註解; 但若以較新的 Excel 版本開啟此檔案，將會移除對它進行的所有編輯。深入了解: https://go.microsoft.com/fwlink/?linkid=870924。
@@ -85,7 +85,7 @@
     子宮頸炎,尿道炎,直腸感染,子宮內膜炎,輸卵管炎,骨盤腔腹膜炎,外陰陰道炎,新生兒淋菌性結膜炎,淋病性關節炎,其他症狀</t>
       </text>
     </comment>
-    <comment ref="AB4" authorId="1" shapeId="0" xr:uid="{90E03971-CF29-4D6B-8B5A-AD5712B9E6A4}">
+    <comment ref="AC4" authorId="1" shapeId="0" xr:uid="{90E03971-CF29-4D6B-8B5A-AD5712B9E6A4}">
       <text>
         <t>[對話串註解]
 您的 Excel 版本可讓您讀取此對話串註解; 但若以較新的 Excel 版本開啟此檔案，將會移除對它進行的所有編輯。深入了解: https://go.microsoft.com/fwlink/?linkid=870924。
@@ -93,7 +93,7 @@
     細菌培養,染色鏡檢,PCR或其他檢驗方式偵測出淋菌抗原或基因</t>
       </text>
     </comment>
-    <comment ref="Z5" authorId="2" shapeId="0" xr:uid="{36AA75BC-9145-4B95-B3DF-E4C2EE55E540}">
+    <comment ref="AA5" authorId="2" shapeId="0" xr:uid="{36AA75BC-9145-4B95-B3DF-E4C2EE55E540}">
       <text>
         <t>[對話串註解]
 您的 Excel 版本可讓您讀取此對話串註解; 但若以較新的 Excel 版本開啟此檔案，將會移除對它進行的所有編輯。深入了解: https://go.microsoft.com/fwlink/?linkid=870924。
@@ -101,7 +101,7 @@
     子宮頸炎,尿道炎,直腸感染,子宮內膜炎,輸卵管炎,骨盤腔腹膜炎,外陰陰道炎,新生兒淋菌性結膜炎,淋病性關節炎,其他症狀</t>
       </text>
     </comment>
-    <comment ref="AB5" authorId="3" shapeId="0" xr:uid="{5F897820-D07C-48B1-A540-699171BA2EE6}">
+    <comment ref="AC5" authorId="3" shapeId="0" xr:uid="{5F897820-D07C-48B1-A540-699171BA2EE6}">
       <text>
         <t>[對話串註解]
 您的 Excel 版本可讓您讀取此對話串註解; 但若以較新的 Excel 版本開啟此檔案，將會移除對它進行的所有編輯。深入了解: https://go.microsoft.com/fwlink/?linkid=870924。
@@ -122,7 +122,7 @@
     <author>tc={7693C667-CFB2-4464-A0BB-D5AEF01797D3}</author>
   </authors>
   <commentList>
-    <comment ref="Z4" authorId="0" shapeId="0" xr:uid="{35BCDAFB-7686-41AF-9F0B-64A3EB167631}">
+    <comment ref="AA4" authorId="0" shapeId="0" xr:uid="{35BCDAFB-7686-41AF-9F0B-64A3EB167631}">
       <text>
         <t>[對話串註解]
 您的 Excel 版本可讓您讀取此對話串註解; 但若以較新的 Excel 版本開啟此檔案，將會移除對它進行的所有編輯。深入了解: https://go.microsoft.com/fwlink/?linkid=870924。
@@ -130,7 +130,7 @@
     子宮頸炎,尿道炎,直腸感染,子宮內膜炎,輸卵管炎,骨盤腔腹膜炎,外陰陰道炎,新生兒淋菌性結膜炎,淋病性關節炎,其他症狀</t>
       </text>
     </comment>
-    <comment ref="AB4" authorId="1" shapeId="0" xr:uid="{26CA25A0-603E-48A1-8273-FA4AA9CBBA28}">
+    <comment ref="AC4" authorId="1" shapeId="0" xr:uid="{26CA25A0-603E-48A1-8273-FA4AA9CBBA28}">
       <text>
         <t>[對話串註解]
 您的 Excel 版本可讓您讀取此對話串註解; 但若以較新的 Excel 版本開啟此檔案，將會移除對它進行的所有編輯。深入了解: https://go.microsoft.com/fwlink/?linkid=870924。
@@ -138,7 +138,7 @@
     細菌培養,染色鏡檢,PCR或其他檢驗方式偵測出淋菌抗原或基因</t>
       </text>
     </comment>
-    <comment ref="Z5" authorId="2" shapeId="0" xr:uid="{89746B48-AAD6-4199-9E43-9AC19A8361B9}">
+    <comment ref="AA5" authorId="2" shapeId="0" xr:uid="{89746B48-AAD6-4199-9E43-9AC19A8361B9}">
       <text>
         <t>[對話串註解]
 您的 Excel 版本可讓您讀取此對話串註解; 但若以較新的 Excel 版本開啟此檔案，將會移除對它進行的所有編輯。深入了解: https://go.microsoft.com/fwlink/?linkid=870924。
@@ -146,7 +146,7 @@
     子宮頸炎,尿道炎,直腸感染,子宮內膜炎,輸卵管炎,骨盤腔腹膜炎,外陰陰道炎,新生兒淋菌性結膜炎,淋病性關節炎,其他症狀</t>
       </text>
     </comment>
-    <comment ref="AB5" authorId="3" shapeId="0" xr:uid="{7693C667-CFB2-4464-A0BB-D5AEF01797D3}">
+    <comment ref="AC5" authorId="3" shapeId="0" xr:uid="{7693C667-CFB2-4464-A0BB-D5AEF01797D3}">
       <text>
         <t>[對話串註解]
 您的 Excel 版本可讓您讀取此對話串註解; 但若以較新的 Excel 版本開啟此檔案，將會移除對它進行的所有編輯。深入了解: https://go.microsoft.com/fwlink/?linkid=870924。
@@ -159,7 +159,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="464">
   <si>
     <t>User</t>
   </si>
@@ -1711,6 +1711,14 @@
   </si>
   <si>
     <t>001</t>
+  </si>
+  <si>
+    <t>編號</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1825,7 +1833,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1895,6 +1903,12 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -2183,16 +2197,16 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="Z4" dT="2023-11-13T09:09:40.02" personId="{1CCA55A1-3C9F-4269-AB9F-945B41E29FA6}" id="{CAFB994B-4ABE-45EF-A6F2-EEA53B9C2487}">
+  <threadedComment ref="AA4" dT="2023-11-13T09:09:40.02" personId="{1CCA55A1-3C9F-4269-AB9F-945B41E29FA6}" id="{CAFB994B-4ABE-45EF-A6F2-EEA53B9C2487}">
     <text>子宮頸炎,尿道炎,直腸感染,子宮內膜炎,輸卵管炎,骨盤腔腹膜炎,外陰陰道炎,新生兒淋菌性結膜炎,淋病性關節炎,其他症狀</text>
   </threadedComment>
-  <threadedComment ref="AB4" dT="2023-11-13T09:10:15.41" personId="{1CCA55A1-3C9F-4269-AB9F-945B41E29FA6}" id="{90E03971-CF29-4D6B-8B5A-AD5712B9E6A4}">
+  <threadedComment ref="AC4" dT="2023-11-13T09:10:15.41" personId="{1CCA55A1-3C9F-4269-AB9F-945B41E29FA6}" id="{90E03971-CF29-4D6B-8B5A-AD5712B9E6A4}">
     <text>細菌培養,染色鏡檢,PCR或其他檢驗方式偵測出淋菌抗原或基因</text>
   </threadedComment>
-  <threadedComment ref="Z5" dT="2023-11-13T09:09:40.02" personId="{1CCA55A1-3C9F-4269-AB9F-945B41E29FA6}" id="{36AA75BC-9145-4B95-B3DF-E4C2EE55E540}">
+  <threadedComment ref="AA5" dT="2023-11-13T09:09:40.02" personId="{1CCA55A1-3C9F-4269-AB9F-945B41E29FA6}" id="{36AA75BC-9145-4B95-B3DF-E4C2EE55E540}">
     <text>子宮頸炎,尿道炎,直腸感染,子宮內膜炎,輸卵管炎,骨盤腔腹膜炎,外陰陰道炎,新生兒淋菌性結膜炎,淋病性關節炎,其他症狀</text>
   </threadedComment>
-  <threadedComment ref="AB5" dT="2023-11-13T09:10:15.41" personId="{1CCA55A1-3C9F-4269-AB9F-945B41E29FA6}" id="{5F897820-D07C-48B1-A540-699171BA2EE6}">
+  <threadedComment ref="AC5" dT="2023-11-13T09:10:15.41" personId="{1CCA55A1-3C9F-4269-AB9F-945B41E29FA6}" id="{5F897820-D07C-48B1-A540-699171BA2EE6}">
     <text>細菌培養,染色鏡檢,PCR或其他檢驗方式偵測出淋菌抗原或基因</text>
   </threadedComment>
 </ThreadedComments>
@@ -2200,16 +2214,16 @@
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="Z4" dT="2023-11-13T09:09:40.02" personId="{1CCA55A1-3C9F-4269-AB9F-945B41E29FA6}" id="{35BCDAFB-7686-41AF-9F0B-64A3EB167631}">
+  <threadedComment ref="AA4" dT="2023-11-13T09:09:40.02" personId="{1CCA55A1-3C9F-4269-AB9F-945B41E29FA6}" id="{35BCDAFB-7686-41AF-9F0B-64A3EB167631}">
     <text>子宮頸炎,尿道炎,直腸感染,子宮內膜炎,輸卵管炎,骨盤腔腹膜炎,外陰陰道炎,新生兒淋菌性結膜炎,淋病性關節炎,其他症狀</text>
   </threadedComment>
-  <threadedComment ref="AB4" dT="2023-11-13T09:10:15.41" personId="{1CCA55A1-3C9F-4269-AB9F-945B41E29FA6}" id="{26CA25A0-603E-48A1-8273-FA4AA9CBBA28}">
+  <threadedComment ref="AC4" dT="2023-11-13T09:10:15.41" personId="{1CCA55A1-3C9F-4269-AB9F-945B41E29FA6}" id="{26CA25A0-603E-48A1-8273-FA4AA9CBBA28}">
     <text>細菌培養,染色鏡檢,PCR或其他檢驗方式偵測出淋菌抗原或基因</text>
   </threadedComment>
-  <threadedComment ref="Z5" dT="2023-11-13T09:09:40.02" personId="{1CCA55A1-3C9F-4269-AB9F-945B41E29FA6}" id="{89746B48-AAD6-4199-9E43-9AC19A8361B9}">
+  <threadedComment ref="AA5" dT="2023-11-13T09:09:40.02" personId="{1CCA55A1-3C9F-4269-AB9F-945B41E29FA6}" id="{89746B48-AAD6-4199-9E43-9AC19A8361B9}">
     <text>子宮頸炎,尿道炎,直腸感染,子宮內膜炎,輸卵管炎,骨盤腔腹膜炎,外陰陰道炎,新生兒淋菌性結膜炎,淋病性關節炎,其他症狀</text>
   </threadedComment>
-  <threadedComment ref="AB5" dT="2023-11-13T09:10:15.41" personId="{1CCA55A1-3C9F-4269-AB9F-945B41E29FA6}" id="{7693C667-CFB2-4464-A0BB-D5AEF01797D3}">
+  <threadedComment ref="AC5" dT="2023-11-13T09:10:15.41" personId="{1CCA55A1-3C9F-4269-AB9F-945B41E29FA6}" id="{7693C667-CFB2-4464-A0BB-D5AEF01797D3}">
     <text>細菌培養,染色鏡檢,PCR或其他檢驗方式偵測出淋菌抗原或基因</text>
   </threadedComment>
 </ThreadedComments>
@@ -2266,786 +2280,796 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="工作表1"/>
-  <dimension ref="A1:BQ5"/>
+  <dimension ref="A1:BR5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="8.796875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="17.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.3984375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23.59765625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.19921875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.19921875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.19921875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.8984375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.09765625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.8984375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="23.3984375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="21.796875" customWidth="1"/>
-    <col min="22" max="22" width="15.19921875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="18.19921875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="17.59765625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="21" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="29.3984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="42.19921875" style="2" customWidth="1"/>
-    <col min="30" max="30" width="30.8984375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="22.296875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="22.296875" customWidth="1"/>
-    <col min="33" max="33" width="26.3984375" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="28.796875" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="26.3984375" customWidth="1"/>
-    <col min="36" max="36" width="28.796875" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="26.296875" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="26.3984375" customWidth="1"/>
-    <col min="39" max="39" width="28.796875" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="26.296875" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="18.09765625" customWidth="1"/>
-    <col min="42" max="42" width="28.796875" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="26.296875" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="26" bestFit="1" customWidth="1"/>
-    <col min="45" max="50" width="26" customWidth="1"/>
-    <col min="51" max="51" width="16.09765625" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="29.09765625" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="12.69921875" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="19.59765625" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="26.5" bestFit="1" customWidth="1"/>
-    <col min="56" max="57" width="22.19921875" customWidth="1"/>
-    <col min="58" max="58" width="27.8984375" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="33.3984375" bestFit="1" customWidth="1"/>
-    <col min="60" max="61" width="22.19921875" customWidth="1"/>
-    <col min="62" max="62" width="32.59765625" bestFit="1" customWidth="1"/>
-    <col min="63" max="64" width="32.59765625" customWidth="1"/>
-    <col min="65" max="65" width="32.09765625" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="23.59765625" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="31" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="10.296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.796875" style="6"/>
+    <col min="2" max="2" width="8.796875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="17.3984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.3984375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="23.59765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.19921875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.19921875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.8984375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.09765625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.8984375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="23.3984375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="21.796875" customWidth="1"/>
+    <col min="23" max="23" width="15.19921875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="18.19921875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="17.59765625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="21" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="29.3984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="42.19921875" style="2" customWidth="1"/>
+    <col min="31" max="31" width="30.8984375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="22.296875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="22.296875" customWidth="1"/>
+    <col min="34" max="34" width="26.3984375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="28.796875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="26.3984375" customWidth="1"/>
+    <col min="37" max="37" width="28.796875" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="26.296875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="26.3984375" customWidth="1"/>
+    <col min="40" max="40" width="28.796875" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="26.296875" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="18.09765625" customWidth="1"/>
+    <col min="43" max="43" width="28.796875" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="26.296875" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="26" bestFit="1" customWidth="1"/>
+    <col min="46" max="51" width="26" customWidth="1"/>
+    <col min="52" max="52" width="16.09765625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="29.09765625" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="12.69921875" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="19.59765625" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="26.5" bestFit="1" customWidth="1"/>
+    <col min="57" max="58" width="22.19921875" customWidth="1"/>
+    <col min="59" max="59" width="27.8984375" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="33.3984375" bestFit="1" customWidth="1"/>
+    <col min="61" max="62" width="22.19921875" customWidth="1"/>
+    <col min="63" max="63" width="32.59765625" bestFit="1" customWidth="1"/>
+    <col min="64" max="65" width="32.59765625" customWidth="1"/>
+    <col min="66" max="66" width="32.09765625" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="23.59765625" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="31" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="10.296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:69" ht="43.5" customHeight="1">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:70" ht="43.5" customHeight="1">
+      <c r="A1" s="25" t="s">
+        <v>462</v>
+      </c>
+      <c r="B1" s="26" t="s">
         <v>180</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="C1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="D1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="E1" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="F1" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="G1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="H1" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="I1" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="J1" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="K1" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="L1" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="L1" s="15" t="s">
+      <c r="M1" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="M1" s="15" t="s">
+      <c r="N1" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="15" t="s">
+      <c r="O1" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="15" t="s">
+      <c r="P1" s="15" t="s">
         <v>174</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="Q1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="13" t="s">
+      <c r="R1" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="R1" s="9" t="s">
+      <c r="S1" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="S1" s="15" t="s">
+      <c r="T1" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="T1" s="13" t="s">
+      <c r="U1" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="U1" s="15" t="s">
+      <c r="V1" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="V1" s="15" t="s">
+      <c r="W1" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="W1" s="15" t="s">
+      <c r="X1" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="X1" s="15" t="s">
+      <c r="Y1" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="Y1" s="15" t="s">
+      <c r="Z1" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="Z1" s="13" t="s">
+      <c r="AA1" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="AA1" s="13" t="s">
+      <c r="AB1" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="AB1" s="15" t="s">
+      <c r="AC1" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="AC1" s="15" t="s">
+      <c r="AD1" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="AD1" s="15" t="s">
+      <c r="AE1" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="AE1" s="17" t="s">
+      <c r="AF1" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="AF1" s="18" t="s">
+      <c r="AG1" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="AG1" s="15" t="s">
+      <c r="AH1" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="AH1" s="13" t="s">
+      <c r="AI1" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="AI1" s="13" t="s">
+      <c r="AJ1" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="AJ1" s="13" t="s">
+      <c r="AK1" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="AK1" s="13" t="s">
+      <c r="AL1" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="AL1" s="13" t="s">
+      <c r="AM1" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="AM1" s="13" t="s">
+      <c r="AN1" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="AN1" s="13" t="s">
+      <c r="AO1" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="AO1" s="13" t="s">
+      <c r="AP1" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="AP1" s="13" t="s">
+      <c r="AQ1" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="AQ1" s="13" t="s">
+      <c r="AR1" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="AR1" s="13" t="s">
+      <c r="AS1" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="AS1" s="13" t="s">
+      <c r="AT1" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="AT1" s="13" t="s">
+      <c r="AU1" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="AU1" s="13" t="s">
+      <c r="AV1" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="AV1" s="13" t="s">
+      <c r="AW1" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="AW1" s="13" t="s">
+      <c r="AX1" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="AX1" s="13" t="s">
+      <c r="AY1" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="AY1" s="13" t="s">
+      <c r="AZ1" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="AZ1" s="13" t="s">
+      <c r="BA1" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="BA1" s="13" t="s">
+      <c r="BB1" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="BB1" s="13" t="s">
+      <c r="BC1" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="BC1" s="13" t="s">
+      <c r="BD1" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="BD1" s="13" t="s">
+      <c r="BE1" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="BE1" s="13" t="s">
+      <c r="BF1" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="BF1" s="13" t="s">
+      <c r="BG1" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="BG1" s="13" t="s">
+      <c r="BH1" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="BH1" s="13" t="s">
+      <c r="BI1" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="BI1" s="13" t="s">
+      <c r="BJ1" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="BJ1" s="13" t="s">
+      <c r="BK1" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="BK1" s="13" t="s">
+      <c r="BL1" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="BL1" s="13" t="s">
+      <c r="BM1" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="BM1" s="13" t="s">
+      <c r="BN1" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="BN1" s="13" t="s">
+      <c r="BO1" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="BO1" s="19" t="s">
+      <c r="BP1" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="BP1" s="13" t="s">
+      <c r="BQ1" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="BQ1" s="13" t="s">
+      <c r="BR1" s="13" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:69" s="2" customFormat="1" ht="55" customHeight="1">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:70" s="2" customFormat="1" ht="55" customHeight="1">
+      <c r="A2" s="6"/>
+      <c r="B2" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="C2" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="13"/>
+      <c r="E2" s="20" t="s">
         <v>183</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="F2" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="G2" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="G2" s="20"/>
       <c r="H2" s="20"/>
-      <c r="I2" s="13"/>
+      <c r="I2" s="20"/>
       <c r="J2" s="13"/>
       <c r="K2" s="13"/>
       <c r="L2" s="13"/>
       <c r="M2" s="13"/>
       <c r="N2" s="13"/>
       <c r="O2" s="13"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="9"/>
-      <c r="S2" s="13" t="s">
+      <c r="P2" s="13"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="T2" s="13" t="s">
+      <c r="U2" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="U2" s="13" t="s">
+      <c r="V2" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="V2" s="13" t="s">
+      <c r="W2" s="13" t="s">
         <v>70</v>
-      </c>
-      <c r="W2" s="13" t="s">
-        <v>73</v>
       </c>
       <c r="X2" s="13" t="s">
         <v>73</v>
       </c>
       <c r="Y2" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z2" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="Z2" s="13" t="s">
+      <c r="AA2" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="AA2" s="13" t="s">
+      <c r="AB2" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="AB2" s="13" t="s">
+      <c r="AC2" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="AC2" s="13" t="s">
+      <c r="AD2" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="AD2" s="13"/>
-      <c r="AE2" s="13" t="s">
+      <c r="AE2" s="13"/>
+      <c r="AF2" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="AF2" s="13" t="s">
+      <c r="AG2" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="AG2" s="13" t="s">
+      <c r="AH2" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="AH2" s="13" t="s">
+      <c r="AI2" s="13" t="s">
         <v>421</v>
       </c>
-      <c r="AI2" s="13" t="s">
+      <c r="AJ2" s="13" t="s">
         <v>79</v>
-      </c>
-      <c r="AJ2" s="13" t="s">
-        <v>80</v>
       </c>
       <c r="AK2" s="13" t="s">
         <v>80</v>
       </c>
       <c r="AL2" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="AM2" s="13" t="s">
         <v>81</v>
-      </c>
-      <c r="AM2" s="13" t="s">
-        <v>82</v>
       </c>
       <c r="AN2" s="13" t="s">
         <v>82</v>
       </c>
       <c r="AO2" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="AP2" s="13" t="s">
         <v>83</v>
-      </c>
-      <c r="AP2" s="13" t="s">
-        <v>84</v>
       </c>
       <c r="AQ2" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="AR2" s="13"/>
-      <c r="AS2" s="13" t="s">
+      <c r="AR2" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="AS2" s="13"/>
+      <c r="AT2" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="AT2" s="13" t="s">
+      <c r="AU2" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="AU2" s="13" t="s">
+      <c r="AV2" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="AV2" s="13" t="s">
+      <c r="AW2" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="AW2" s="13"/>
-      <c r="AX2" s="13" t="s">
+      <c r="AX2" s="13"/>
+      <c r="AY2" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="AY2" s="13" t="s">
+      <c r="AZ2" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="AZ2" s="13"/>
       <c r="BA2" s="13"/>
-      <c r="BB2" s="13" t="s">
+      <c r="BB2" s="13"/>
+      <c r="BC2" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="BC2" s="13" t="s">
+      <c r="BD2" s="13" t="s">
         <v>91</v>
-      </c>
-      <c r="BD2" s="13" t="s">
-        <v>92</v>
       </c>
       <c r="BE2" s="13" t="s">
         <v>92</v>
       </c>
       <c r="BF2" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BG2" s="13" t="s">
         <v>93</v>
       </c>
       <c r="BH2" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="BI2" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="BI2" s="13" t="s">
+      <c r="BJ2" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="BJ2" s="13" t="s">
+      <c r="BK2" s="13" t="s">
         <v>96</v>
-      </c>
-      <c r="BK2" s="13" t="s">
-        <v>97</v>
       </c>
       <c r="BL2" s="13" t="s">
         <v>97</v>
       </c>
       <c r="BM2" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="BN2" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="BN2" s="13"/>
-      <c r="BO2" s="13" t="s">
+      <c r="BO2" s="13"/>
+      <c r="BP2" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="BP2" s="13"/>
       <c r="BQ2" s="13"/>
+      <c r="BR2" s="13"/>
     </row>
-    <row r="3" spans="1:69" s="3" customFormat="1" ht="53" customHeight="1">
-      <c r="A3" s="12" t="s">
+    <row r="3" spans="1:70" s="3" customFormat="1" ht="53" customHeight="1">
+      <c r="A3" s="6" t="s">
+        <v>463</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="C3" s="13" t="s">
         <v>179</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="D3" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="E3" s="20" t="s">
         <v>182</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="F3" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="G3" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="H3" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="H3" s="20" t="s">
+      <c r="I3" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="J3" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="J3" s="13" t="s">
+      <c r="K3" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="K3" s="13" t="s">
+      <c r="L3" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="L3" s="13" t="s">
+      <c r="M3" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="M3" s="13" t="s">
+      <c r="N3" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="N3" s="13" t="s">
+      <c r="O3" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="O3" s="13" t="s">
+      <c r="P3" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="P3" s="9" t="s">
+      <c r="Q3" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="Q3" s="13" t="s">
+      <c r="R3" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="R3" s="9" t="s">
+      <c r="S3" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="S3" s="13" t="s">
+      <c r="T3" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="T3" s="13" t="s">
+      <c r="U3" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="U3" s="13" t="s">
+      <c r="V3" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="V3" s="13" t="s">
+      <c r="W3" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="W3" s="13" t="s">
+      <c r="X3" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="X3" s="13" t="s">
+      <c r="Y3" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="Y3" s="13" t="s">
+      <c r="Z3" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="Z3" s="13" t="s">
+      <c r="AA3" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="AA3" s="13" t="s">
+      <c r="AB3" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="AB3" s="13" t="s">
+      <c r="AC3" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="AC3" s="13" t="s">
+      <c r="AD3" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="AD3" s="13" t="s">
+      <c r="AE3" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="AE3" s="18" t="s">
+      <c r="AF3" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="AF3" s="18" t="s">
+      <c r="AG3" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="AG3" s="13" t="s">
+      <c r="AH3" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="AH3" s="13" t="s">
+      <c r="AI3" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="AI3" s="13" t="s">
+      <c r="AJ3" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="AJ3" s="13" t="s">
+      <c r="AK3" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="AK3" s="13" t="s">
+      <c r="AL3" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="AL3" s="13" t="s">
+      <c r="AM3" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="AM3" s="13" t="s">
+      <c r="AN3" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="AN3" s="13" t="s">
+      <c r="AO3" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="AO3" s="13" t="s">
+      <c r="AP3" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="AP3" s="13" t="s">
+      <c r="AQ3" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="AQ3" s="13" t="s">
+      <c r="AR3" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="AR3" s="13" t="s">
+      <c r="AS3" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="AS3" s="13" t="s">
+      <c r="AT3" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="AT3" s="13" t="s">
+      <c r="AU3" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="AU3" s="13" t="s">
+      <c r="AV3" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="AV3" s="13" t="s">
+      <c r="AW3" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="AW3" s="13" t="s">
+      <c r="AX3" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="AX3" s="13" t="s">
+      <c r="AY3" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="AY3" s="13" t="s">
+      <c r="AZ3" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="AZ3" s="13" t="s">
+      <c r="BA3" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="BA3" s="13" t="s">
+      <c r="BB3" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="BB3" s="13" t="s">
+      <c r="BC3" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="BC3" s="13" t="s">
+      <c r="BD3" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="BD3" s="13" t="s">
+      <c r="BE3" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="BE3" s="13" t="s">
+      <c r="BF3" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="BF3" s="13" t="s">
+      <c r="BG3" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="BG3" s="13" t="s">
+      <c r="BH3" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="BH3" s="13" t="s">
+      <c r="BI3" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="BI3" s="13" t="s">
+      <c r="BJ3" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="BJ3" s="13" t="s">
+      <c r="BK3" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="BK3" s="13" t="s">
+      <c r="BL3" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="BL3" s="13" t="s">
+      <c r="BM3" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="BM3" s="13" t="s">
+      <c r="BN3" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="BN3" s="13" t="s">
+      <c r="BO3" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="BO3" s="13" t="s">
+      <c r="BP3" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="BP3" s="13" t="s">
+      <c r="BQ3" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="BQ3" s="13" t="s">
+      <c r="BR3" s="13" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="4" spans="1:69" s="4" customFormat="1" ht="48.5" customHeight="1">
-      <c r="A4" s="12">
+    <row r="4" spans="1:70" s="4" customFormat="1" ht="48.5" customHeight="1">
+      <c r="A4" s="6">
         <v>1</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="12">
         <v>1</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="13">
+        <v>1</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>422</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="E4" s="20" t="s">
         <v>374</v>
       </c>
-      <c r="E4" s="13"/>
-      <c r="F4" s="9">
+      <c r="F4" s="13"/>
+      <c r="G4" s="9">
         <v>3</v>
       </c>
-      <c r="G4" s="20" t="s">
+      <c r="H4" s="20" t="s">
         <v>166</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="I4" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="I4" s="13" t="s">
+      <c r="J4" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="J4" s="13" t="s">
+      <c r="K4" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="K4" s="13" t="s">
+      <c r="L4" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="L4" s="13" t="s">
+      <c r="M4" s="13" t="s">
         <v>426</v>
       </c>
-      <c r="M4" s="13">
+      <c r="N4" s="13">
         <v>12345</v>
       </c>
-      <c r="N4" s="13">
+      <c r="O4" s="13">
         <v>54321</v>
       </c>
-      <c r="O4" s="13" t="s">
+      <c r="P4" s="13" t="s">
         <v>243</v>
       </c>
-      <c r="P4" s="13" t="s">
+      <c r="Q4" s="13" t="s">
         <v>428</v>
       </c>
-      <c r="Q4" s="13" t="s">
+      <c r="R4" s="13" t="s">
         <v>429</v>
       </c>
-      <c r="R4" s="9"/>
-      <c r="S4" s="13" t="b">
+      <c r="S4" s="9"/>
+      <c r="T4" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="T4" s="13">
+      <c r="U4" s="13">
         <v>-1</v>
       </c>
-      <c r="U4" s="13">
+      <c r="V4" s="13">
         <v>-40</v>
       </c>
-      <c r="V4" s="13" t="b">
+      <c r="W4" s="13" t="b">
         <v>0</v>
-      </c>
-      <c r="W4" s="13">
-        <v>-20</v>
       </c>
       <c r="X4" s="13">
         <v>-20</v>
       </c>
-      <c r="Y4" s="13" t="b">
+      <c r="Y4" s="13">
+        <v>-20</v>
+      </c>
+      <c r="Z4" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="Z4" s="13" t="s">
+      <c r="AA4" s="13" t="s">
         <v>432</v>
       </c>
-      <c r="AA4" s="13" t="s">
+      <c r="AB4" s="13" t="s">
         <v>433</v>
       </c>
-      <c r="AB4" s="13" t="s">
+      <c r="AC4" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="AC4" s="13">
+      <c r="AD4" s="13">
         <v>2</v>
       </c>
-      <c r="AD4" s="13" t="s">
+      <c r="AE4" s="13" t="s">
         <v>323</v>
       </c>
-      <c r="AE4" s="13" t="b">
+      <c r="AF4" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="AF4" s="18">
+      <c r="AG4" s="18">
         <v>-20</v>
       </c>
-      <c r="AG4" s="13" t="b">
+      <c r="AH4" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="AH4" s="13">
+      <c r="AI4" s="13">
         <v>2</v>
       </c>
-      <c r="AI4" s="13"/>
       <c r="AJ4" s="13"/>
       <c r="AK4" s="13"/>
-      <c r="AL4" s="13" t="s">
+      <c r="AL4" s="13"/>
+      <c r="AM4" s="13" t="s">
         <v>340</v>
-      </c>
-      <c r="AM4" s="13">
-        <v>-50</v>
       </c>
       <c r="AN4" s="13">
         <v>-50</v>
       </c>
-      <c r="AO4" s="13"/>
+      <c r="AO4" s="13">
+        <v>-50</v>
+      </c>
       <c r="AP4" s="13"/>
       <c r="AQ4" s="13"/>
       <c r="AR4" s="13"/>
       <c r="AS4" s="13"/>
-      <c r="AT4" s="13" t="b">
+      <c r="AT4" s="13"/>
+      <c r="AU4" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="AU4" s="13"/>
       <c r="AV4" s="13"/>
       <c r="AW4" s="13"/>
       <c r="AX4" s="13"/>
-      <c r="AY4" s="13" t="b">
+      <c r="AY4" s="13"/>
+      <c r="AZ4" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="AZ4" s="13"/>
       <c r="BA4" s="13"/>
-      <c r="BB4" s="9"/>
-      <c r="BC4" s="13"/>
+      <c r="BB4" s="13"/>
+      <c r="BC4" s="9"/>
       <c r="BD4" s="13"/>
       <c r="BE4" s="13"/>
       <c r="BF4" s="13"/>
@@ -3060,93 +3084,998 @@
       <c r="BO4" s="13"/>
       <c r="BP4" s="13"/>
       <c r="BQ4" s="13"/>
+      <c r="BR4" s="13"/>
     </row>
-    <row r="5" spans="1:69" s="4" customFormat="1" ht="48.5" customHeight="1">
-      <c r="A5" s="12">
+    <row r="5" spans="1:70" s="4" customFormat="1" ht="48.5" customHeight="1">
+      <c r="A5" s="6">
+        <v>2</v>
+      </c>
+      <c r="B5" s="12">
         <v>1</v>
       </c>
-      <c r="B5" s="13">
+      <c r="C5" s="13">
         <v>2</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="D5" s="10" t="s">
         <v>437</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="E5" s="20" t="s">
         <v>374</v>
       </c>
-      <c r="E5" s="13"/>
-      <c r="F5" s="9">
+      <c r="F5" s="13"/>
+      <c r="G5" s="9">
         <v>3</v>
       </c>
-      <c r="G5" s="20" t="s">
+      <c r="H5" s="20" t="s">
         <v>166</v>
       </c>
-      <c r="H5" s="13" t="s">
+      <c r="I5" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="I5" s="13" t="s">
+      <c r="J5" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="J5" s="13" t="s">
+      <c r="K5" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="K5" s="13" t="s">
+      <c r="L5" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="L5" s="13" t="s">
+      <c r="M5" s="13" t="s">
         <v>427</v>
       </c>
-      <c r="M5" s="13">
+      <c r="N5" s="13">
         <v>12345</v>
       </c>
-      <c r="N5" s="13">
+      <c r="O5" s="13">
         <v>54321</v>
       </c>
-      <c r="O5" s="13" t="s">
+      <c r="P5" s="13" t="s">
         <v>320</v>
       </c>
+      <c r="Q5" s="13" t="s">
+        <v>430</v>
+      </c>
+      <c r="R5" s="13" t="s">
+        <v>431</v>
+      </c>
+      <c r="S5" s="9"/>
+      <c r="T5" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="U5" s="13"/>
+      <c r="V5" s="13"/>
+      <c r="W5" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="X5" s="13">
+        <v>-25</v>
+      </c>
+      <c r="Y5" s="13">
+        <v>-25</v>
+      </c>
+      <c r="Z5" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="13"/>
+      <c r="AB5" s="13"/>
+      <c r="AC5" s="13" t="s">
+        <v>434</v>
+      </c>
+      <c r="AD5" s="13">
+        <v>1</v>
+      </c>
+      <c r="AE5" s="13" t="s">
+        <v>338</v>
+      </c>
+      <c r="AF5" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="18"/>
+      <c r="AH5" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="13"/>
+      <c r="AJ5" s="13"/>
+      <c r="AK5" s="13"/>
+      <c r="AL5" s="13"/>
+      <c r="AM5" s="13"/>
+      <c r="AN5" s="13"/>
+      <c r="AO5" s="13"/>
+      <c r="AP5" s="13"/>
+      <c r="AQ5" s="13"/>
+      <c r="AR5" s="13"/>
+      <c r="AS5" s="13"/>
+      <c r="AT5" s="13"/>
+      <c r="AU5" s="13"/>
+      <c r="AV5" s="13"/>
+      <c r="AW5" s="13"/>
+      <c r="AX5" s="13"/>
+      <c r="AY5" s="13"/>
+      <c r="AZ5" s="13"/>
+      <c r="BA5" s="13"/>
+      <c r="BB5" s="13"/>
+      <c r="BC5" s="9"/>
+      <c r="BD5" s="13"/>
+      <c r="BE5" s="13"/>
+      <c r="BF5" s="13"/>
+      <c r="BG5" s="13"/>
+      <c r="BH5" s="13"/>
+      <c r="BI5" s="13"/>
+      <c r="BJ5" s="13"/>
+      <c r="BK5" s="13"/>
+      <c r="BL5" s="13"/>
+      <c r="BM5" s="13"/>
+      <c r="BN5" s="13"/>
+      <c r="BO5" s="13"/>
+      <c r="BP5" s="13"/>
+      <c r="BQ5" s="13"/>
+      <c r="BR5" s="13"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4:G5" xr:uid="{F5924ECB-DA59-4406-90DE-EFD62BCCC046}">
+      <formula1>"1,2,3,4,5"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E5" xr:uid="{FCD0EBFF-13FA-47CC-914F-3502715AB811}">
+      <formula1>"True,False"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T4:T5 W4:W5 Z4:Z5 AF4:AF5 AH4:AH5 AU4:AU5 AZ4:AZ5" xr:uid="{5827D3C6-C2F0-4CB3-A42B-DC743E52BAE5}">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD4:AD5 BJ4:BJ5" xr:uid="{9528A280-150E-4E8C-8E60-8F8C168E21FB}">
+      <formula1>"1,2"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI4:AI5 AT4:AT5" xr:uid="{3F5E04E2-8B33-49ED-B701-F1F8594B7A0E}">
+      <formula1>"1,2,3"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BC4:BC5" xr:uid="{DAE093D4-4D6B-4B26-ABAC-957C8E9ED758}">
+      <formula1>"1,2,3,4,5,6,7,8"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q4:R5" xr:uid="{35BDC457-8DA0-4F88-BFC5-47AD3BD7B4BE}">
+      <formula1>INDIRECT(P4)</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="9">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{18292119-A2F5-4A34-9CF7-E2D474674763}">
+          <x14:formula1>
+            <xm:f>清單!$B$2:$B$23</xm:f>
+          </x14:formula1>
+          <xm:sqref>P4:P5 AJ4:AJ5 BL4:BL5</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{66E2B47E-8874-4025-8622-8DCD995A9438}">
+          <x14:formula1>
+            <xm:f>清單!$A$2:$A$36</xm:f>
+          </x14:formula1>
+          <xm:sqref>AE4:AE5</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{FB2D6F89-E306-4673-BE5A-66567DDFD945}">
+          <x14:formula1>
+            <xm:f>清單!$E$2:$E$34</xm:f>
+          </x14:formula1>
+          <xm:sqref>AM4:AM5 AP4:AP5 AV4:AV5</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D3635C2B-D303-41F9-82D8-8A2A915DCB31}">
+          <x14:formula1>
+            <xm:f>清單!$I$2:$I$8</xm:f>
+          </x14:formula1>
+          <xm:sqref>AX4:AX5</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1888A707-C4FD-45EA-951D-983AFEC06EBB}">
+          <x14:formula1>
+            <xm:f>清單!$J$2:$J$10</xm:f>
+          </x14:formula1>
+          <xm:sqref>BA4:BA5</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{FF35CE2A-FBC6-4D23-B935-5C99EE6D39F9}">
+          <x14:formula1>
+            <xm:f>清單!$K$2:$K$7</xm:f>
+          </x14:formula1>
+          <xm:sqref>BB4:BB5</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{5DD4A195-05D9-4193-9CEE-012E6775FC3A}">
+          <x14:formula1>
+            <xm:f>清單!$G$5:$G$7</xm:f>
+          </x14:formula1>
+          <xm:sqref>BM4:BM5</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{CA5AD469-4B1D-4BA5-949C-E7F93B2F74E8}">
+          <x14:formula1>
+            <xm:f>清單!$T$2:$T$12</xm:f>
+          </x14:formula1>
+          <xm:sqref>H4:H5</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{ACDC2D86-1B77-4262-A53D-9F9C9110ECC3}">
+          <x14:formula1>
+            <xm:f>清單!$S$2:$S$12</xm:f>
+          </x14:formula1>
+          <xm:sqref>I4:I5</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:BT5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="8.796875" style="6"/>
+    <col min="2" max="3" width="8.796875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="17.8984375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="16.09765625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="17.3984375" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.796875" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:72" s="5" customFormat="1" ht="58" customHeight="1">
+      <c r="A1" s="25" t="s">
+        <v>462</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>180</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="K1" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="L1" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="M1" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="N1" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q1" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="S1" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="T1" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="U1" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="V1" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="W1" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="X1" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y1" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z1" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA1" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB1" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC1" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD1" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE1" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF1" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="AG1" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="AH1" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="AI1" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="AJ1" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="AK1" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="AL1" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="AM1" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="AN1" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="AO1" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="AP1" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="AQ1" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="AR1" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="AS1" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="AT1" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="AU1" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="AV1" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="AW1" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="AX1" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="AY1" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="AZ1" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="BA1" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="BB1" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="BC1" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="BD1" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="BE1" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="BF1" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="BG1" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="BH1" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="BI1" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="BJ1" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="BK1" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="BL1" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="BM1" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="BN1" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="BO1" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="BP1" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="BQ1" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="BR1" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="BS1" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="BT1" s="13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:72" ht="91" customHeight="1">
+      <c r="B2" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="C2" s="13"/>
+      <c r="D2" s="10" t="s">
+        <v>425</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="F2" s="13"/>
+      <c r="G2" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>424</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="K2" s="11"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="U2" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="V2" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="W2" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="X2" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y2" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z2" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA2" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB2" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC2" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD2" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="AE2" s="13"/>
+      <c r="AF2" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG2" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="AH2" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="AI2" s="13" t="s">
+        <v>421</v>
+      </c>
+      <c r="AJ2" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="AK2" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="AL2" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="AM2" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="AN2" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="AO2" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="AP2" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="AQ2" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="AR2" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="AS2" s="13"/>
+      <c r="AT2" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="AU2" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="AV2" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="AW2" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="AX2" s="13"/>
+      <c r="AY2" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="AZ2" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="BA2" s="13"/>
+      <c r="BB2" s="13"/>
+      <c r="BC2" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="BD2" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="BE2" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="BF2" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="BG2" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="BH2" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="BI2" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="BJ2" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="BK2" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="BL2" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="BM2" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="BN2" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="BO2" s="13"/>
+      <c r="BP2" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="BQ2" s="13"/>
+      <c r="BR2" s="13"/>
+      <c r="BS2" s="13"/>
+      <c r="BT2" s="13"/>
+    </row>
+    <row r="3" spans="1:72" ht="58" customHeight="1">
+      <c r="A3" s="6" t="s">
+        <v>463</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="H3" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="I3" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="L3" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="M3" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="N3" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="O3" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="P3" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q3" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="R3" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="S3" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="T3" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="U3" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="V3" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="W3" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="X3" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y3" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="Z3" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="AA3" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="AB3" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="AC3" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="AD3" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="AE3" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="AF3" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="AG3" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="AH3" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="AI3" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="AJ3" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="AK3" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="AL3" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="AM3" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="AN3" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="AO3" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="AP3" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="AQ3" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="AR3" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="AS3" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="AT3" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="AU3" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="AV3" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="AW3" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="AX3" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="AY3" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="AZ3" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="BA3" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="BB3" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="BC3" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="BD3" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="BE3" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="BF3" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="BG3" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="BH3" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="BI3" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="BJ3" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="BK3" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="BL3" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="BM3" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="BN3" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="BO3" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="BP3" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="BQ3" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="BR3" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="BS3" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="BT3" s="13" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="4" spans="1:72" ht="48.5" customHeight="1">
+      <c r="A4" s="6">
+        <v>1</v>
+      </c>
+      <c r="B4" s="12">
+        <v>2</v>
+      </c>
+      <c r="C4" s="13">
+        <v>1</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>374</v>
+      </c>
+      <c r="F4" s="21">
+        <v>45306</v>
+      </c>
+      <c r="G4" s="9"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="13"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="U4" s="13"/>
+      <c r="V4" s="13"/>
+      <c r="W4" s="13"/>
+      <c r="X4" s="13"/>
+      <c r="Y4" s="13"/>
+      <c r="Z4" s="13"/>
+      <c r="AA4" s="13"/>
+      <c r="AB4" s="13"/>
+      <c r="AC4" s="13"/>
+      <c r="AD4" s="13"/>
+      <c r="AE4" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="AF4" s="13"/>
+      <c r="AG4" s="18"/>
+      <c r="AH4" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI4" s="13"/>
+      <c r="AJ4" s="13"/>
+      <c r="AK4" s="13"/>
+      <c r="AL4" s="13"/>
+      <c r="AM4" s="13"/>
+      <c r="AN4" s="13"/>
+      <c r="AO4" s="13"/>
+      <c r="AP4" s="13"/>
+      <c r="AQ4" s="13"/>
+      <c r="AR4" s="13"/>
+      <c r="AS4" s="13"/>
+      <c r="AT4" s="13"/>
+      <c r="AU4" s="13"/>
+      <c r="AV4" s="13"/>
+      <c r="AW4" s="13"/>
+      <c r="AX4" s="13"/>
+      <c r="AY4" s="13"/>
+      <c r="AZ4" s="13"/>
+      <c r="BA4" s="13"/>
+      <c r="BB4" s="13"/>
+      <c r="BC4" s="9"/>
+      <c r="BD4" s="13"/>
+      <c r="BE4" s="13"/>
+      <c r="BF4" s="13"/>
+      <c r="BG4" s="13"/>
+      <c r="BH4" s="13"/>
+      <c r="BI4" s="13"/>
+      <c r="BJ4" s="13"/>
+      <c r="BK4" s="13"/>
+      <c r="BL4" s="13"/>
+      <c r="BM4" s="13"/>
+      <c r="BN4" s="13"/>
+      <c r="BO4" s="13"/>
+      <c r="BP4" s="13"/>
+      <c r="BQ4" s="13"/>
+      <c r="BR4" s="13"/>
+      <c r="BS4" s="13"/>
+      <c r="BT4" s="13"/>
+    </row>
+    <row r="5" spans="1:72" ht="48.5" customHeight="1">
+      <c r="A5" s="6">
+        <v>2</v>
+      </c>
+      <c r="B5" s="12">
+        <v>2</v>
+      </c>
+      <c r="C5" s="13">
+        <v>2</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>439</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>374</v>
+      </c>
+      <c r="F5" s="21">
+        <v>45306</v>
+      </c>
+      <c r="G5" s="9"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
       <c r="P5" s="13" t="s">
-        <v>430</v>
+        <v>305</v>
       </c>
       <c r="Q5" s="13" t="s">
-        <v>431</v>
-      </c>
-      <c r="R5" s="9"/>
-      <c r="S5" s="13" t="b">
-        <v>0</v>
-      </c>
+        <v>435</v>
+      </c>
+      <c r="R5" s="13" t="s">
+        <v>436</v>
+      </c>
+      <c r="S5" s="9"/>
       <c r="T5" s="13"/>
       <c r="U5" s="13"/>
-      <c r="V5" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="W5" s="13">
-        <v>-25</v>
-      </c>
-      <c r="X5" s="13">
-        <v>-25</v>
-      </c>
-      <c r="Y5" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="V5" s="13"/>
+      <c r="W5" s="13"/>
+      <c r="X5" s="13"/>
+      <c r="Y5" s="13"/>
       <c r="Z5" s="13"/>
       <c r="AA5" s="13"/>
-      <c r="AB5" s="13" t="s">
-        <v>434</v>
-      </c>
-      <c r="AC5" s="13">
-        <v>1</v>
-      </c>
-      <c r="AD5" s="13" t="s">
-        <v>338</v>
-      </c>
-      <c r="AE5" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF5" s="18"/>
-      <c r="AG5" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="AB5" s="13"/>
+      <c r="AC5" s="13"/>
+      <c r="AD5" s="13"/>
+      <c r="AE5" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="AF5" s="13"/>
+      <c r="AG5" s="18"/>
       <c r="AH5" s="13"/>
       <c r="AI5" s="13"/>
       <c r="AJ5" s="13"/>
@@ -3167,897 +4096,8 @@
       <c r="AY5" s="13"/>
       <c r="AZ5" s="13"/>
       <c r="BA5" s="13"/>
-      <c r="BB5" s="9"/>
-      <c r="BC5" s="13"/>
-      <c r="BD5" s="13"/>
-      <c r="BE5" s="13"/>
-      <c r="BF5" s="13"/>
-      <c r="BG5" s="13"/>
-      <c r="BH5" s="13"/>
-      <c r="BI5" s="13"/>
-      <c r="BJ5" s="13"/>
-      <c r="BK5" s="13"/>
-      <c r="BL5" s="13"/>
-      <c r="BM5" s="13"/>
-      <c r="BN5" s="13"/>
-      <c r="BO5" s="13"/>
-      <c r="BP5" s="13"/>
-      <c r="BQ5" s="13"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F5" xr:uid="{F5924ECB-DA59-4406-90DE-EFD62BCCC046}">
-      <formula1>"1,2,3,4,5"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D5" xr:uid="{FCD0EBFF-13FA-47CC-914F-3502715AB811}">
-      <formula1>"True,False"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S4:S5 V4:V5 Y4:Y5 AE4:AE5 AG4:AG5 AT4:AT5 AY4:AY5" xr:uid="{5827D3C6-C2F0-4CB3-A42B-DC743E52BAE5}">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC4:AC5 BI4:BI5" xr:uid="{9528A280-150E-4E8C-8E60-8F8C168E21FB}">
-      <formula1>"1,2"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH4:AH5 AS4:AS5" xr:uid="{3F5E04E2-8B33-49ED-B701-F1F8594B7A0E}">
-      <formula1>"1,2,3"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BB4:BB5" xr:uid="{DAE093D4-4D6B-4B26-ABAC-957C8E9ED758}">
-      <formula1>"1,2,3,4,5,6,7,8"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P4:Q5" xr:uid="{35BDC457-8DA0-4F88-BFC5-47AD3BD7B4BE}">
-      <formula1>INDIRECT(O4)</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <legacyDrawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="9">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{18292119-A2F5-4A34-9CF7-E2D474674763}">
-          <x14:formula1>
-            <xm:f>清單!$B$2:$B$23</xm:f>
-          </x14:formula1>
-          <xm:sqref>O4:O5 AI4:AI5 BK4:BK5</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{66E2B47E-8874-4025-8622-8DCD995A9438}">
-          <x14:formula1>
-            <xm:f>清單!$A$2:$A$36</xm:f>
-          </x14:formula1>
-          <xm:sqref>AD4:AD5</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{FB2D6F89-E306-4673-BE5A-66567DDFD945}">
-          <x14:formula1>
-            <xm:f>清單!$E$2:$E$34</xm:f>
-          </x14:formula1>
-          <xm:sqref>AL4:AL5 AO4:AO5 AU4:AU5</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D3635C2B-D303-41F9-82D8-8A2A915DCB31}">
-          <x14:formula1>
-            <xm:f>清單!$I$2:$I$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>AW4:AW5</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1888A707-C4FD-45EA-951D-983AFEC06EBB}">
-          <x14:formula1>
-            <xm:f>清單!$J$2:$J$10</xm:f>
-          </x14:formula1>
-          <xm:sqref>AZ4:AZ5</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{FF35CE2A-FBC6-4D23-B935-5C99EE6D39F9}">
-          <x14:formula1>
-            <xm:f>清單!$K$2:$K$7</xm:f>
-          </x14:formula1>
-          <xm:sqref>BA4:BA5</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{5DD4A195-05D9-4193-9CEE-012E6775FC3A}">
-          <x14:formula1>
-            <xm:f>清單!$G$5:$G$7</xm:f>
-          </x14:formula1>
-          <xm:sqref>BL4:BL5</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{CA5AD469-4B1D-4BA5-949C-E7F93B2F74E8}">
-          <x14:formula1>
-            <xm:f>清單!$T$2:$T$12</xm:f>
-          </x14:formula1>
-          <xm:sqref>G4:G5</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{ACDC2D86-1B77-4262-A53D-9F9C9110ECC3}">
-          <x14:formula1>
-            <xm:f>清單!$S$2:$S$12</xm:f>
-          </x14:formula1>
-          <xm:sqref>H4:H5</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:BS5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
-  <cols>
-    <col min="1" max="2" width="8.796875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="17.8984375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="16.09765625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="17.3984375" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.796875" style="4"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:71" s="5" customFormat="1" ht="58" customHeight="1">
-      <c r="A1" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="J1" s="22" t="s">
-        <v>171</v>
-      </c>
-      <c r="K1" s="22" t="s">
-        <v>172</v>
-      </c>
-      <c r="L1" s="22" t="s">
-        <v>173</v>
-      </c>
-      <c r="M1" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="22" t="s">
-        <v>174</v>
-      </c>
-      <c r="P1" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="R1" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="S1" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="T1" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="U1" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="V1" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="W1" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="X1" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y1" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z1" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA1" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="AB1" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="AC1" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="AD1" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="AE1" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="AF1" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="AG1" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="AH1" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="AI1" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="AJ1" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="AK1" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="AL1" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="AM1" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="AN1" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="AO1" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="AP1" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="AQ1" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="AR1" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="AS1" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="AT1" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="AU1" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="AV1" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="AW1" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="AX1" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="AY1" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="AZ1" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="BA1" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="BB1" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="BC1" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="BD1" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="BE1" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="BF1" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="BG1" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="BH1" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="BI1" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="BJ1" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="BK1" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="BL1" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="BM1" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="BN1" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="BO1" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="BP1" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="BQ1" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="BR1" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="BS1" s="13" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:71" ht="91" customHeight="1">
-      <c r="A2" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="10" t="s">
-        <v>425</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>183</v>
-      </c>
-      <c r="E2" s="13"/>
-      <c r="F2" s="9" t="s">
-        <v>423</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>424</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="J2" s="11"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="9"/>
-      <c r="S2" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="T2" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="U2" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="V2" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="W2" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="X2" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y2" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z2" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA2" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="AB2" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="AC2" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="AD2" s="13"/>
-      <c r="AE2" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="AF2" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="AG2" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="AH2" s="13" t="s">
-        <v>421</v>
-      </c>
-      <c r="AI2" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="AJ2" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="AK2" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="AL2" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="AM2" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="AN2" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="AO2" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="AP2" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="AQ2" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="AR2" s="13"/>
-      <c r="AS2" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="AT2" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="AU2" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="AV2" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="AW2" s="13"/>
-      <c r="AX2" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="AY2" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="AZ2" s="13"/>
-      <c r="BA2" s="13"/>
-      <c r="BB2" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="BC2" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="BD2" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="BE2" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="BF2" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="BG2" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="BH2" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="BI2" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="BJ2" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="BK2" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="BL2" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="BM2" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="BN2" s="13"/>
-      <c r="BO2" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="BP2" s="13"/>
-      <c r="BQ2" s="13"/>
-      <c r="BR2" s="13"/>
-      <c r="BS2" s="13"/>
-    </row>
-    <row r="3" spans="1:71" ht="58" customHeight="1">
-      <c r="A3" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>182</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="G3" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="H3" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="I3" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="J3" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="K3" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="L3" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="M3" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="N3" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="O3" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="P3" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q3" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="R3" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="S3" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="T3" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="U3" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="V3" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="W3" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="X3" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="Y3" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="Z3" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="AA3" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="AB3" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="AC3" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="AD3" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="AE3" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="AF3" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="AG3" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="AH3" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="AI3" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="AJ3" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="AK3" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="AL3" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="AM3" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="AN3" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="AO3" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="AP3" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="AQ3" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="AR3" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="AS3" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="AT3" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="AU3" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="AV3" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="AW3" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="AX3" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="AY3" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="AZ3" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="BA3" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="BB3" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="BC3" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="BD3" s="13" t="s">
-        <v>152</v>
-      </c>
-      <c r="BE3" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="BF3" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="BG3" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="BH3" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="BI3" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="BJ3" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="BK3" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="BL3" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="BM3" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="BN3" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="BO3" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="BP3" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="BQ3" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="BR3" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="BS3" s="13" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="4" spans="1:71" ht="48.5" customHeight="1">
-      <c r="A4" s="12">
-        <v>2</v>
-      </c>
-      <c r="B4" s="13">
-        <v>1</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>438</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>374</v>
-      </c>
-      <c r="E4" s="21">
-        <v>45306</v>
-      </c>
-      <c r="F4" s="9"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="13"/>
-      <c r="R4" s="9"/>
-      <c r="S4" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="T4" s="13"/>
-      <c r="U4" s="13"/>
-      <c r="V4" s="13"/>
-      <c r="W4" s="13"/>
-      <c r="X4" s="13"/>
-      <c r="Y4" s="13"/>
-      <c r="Z4" s="13"/>
-      <c r="AA4" s="13"/>
-      <c r="AB4" s="13"/>
-      <c r="AC4" s="13"/>
-      <c r="AD4" s="13" t="s">
-        <v>258</v>
-      </c>
-      <c r="AE4" s="13"/>
-      <c r="AF4" s="18"/>
-      <c r="AG4" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH4" s="13"/>
-      <c r="AI4" s="13"/>
-      <c r="AJ4" s="13"/>
-      <c r="AK4" s="13"/>
-      <c r="AL4" s="13"/>
-      <c r="AM4" s="13"/>
-      <c r="AN4" s="13"/>
-      <c r="AO4" s="13"/>
-      <c r="AP4" s="13"/>
-      <c r="AQ4" s="13"/>
-      <c r="AR4" s="13"/>
-      <c r="AS4" s="13"/>
-      <c r="AT4" s="13"/>
-      <c r="AU4" s="13"/>
-      <c r="AV4" s="13"/>
-      <c r="AW4" s="13"/>
-      <c r="AX4" s="13"/>
-      <c r="AY4" s="13"/>
-      <c r="AZ4" s="13"/>
-      <c r="BA4" s="13"/>
-      <c r="BB4" s="9"/>
-      <c r="BC4" s="13"/>
-      <c r="BD4" s="13"/>
-      <c r="BE4" s="13"/>
-      <c r="BF4" s="13"/>
-      <c r="BG4" s="13"/>
-      <c r="BH4" s="13"/>
-      <c r="BI4" s="13"/>
-      <c r="BJ4" s="13"/>
-      <c r="BK4" s="13"/>
-      <c r="BL4" s="13"/>
-      <c r="BM4" s="13"/>
-      <c r="BN4" s="13"/>
-      <c r="BO4" s="13"/>
-      <c r="BP4" s="13"/>
-      <c r="BQ4" s="13"/>
-      <c r="BR4" s="13"/>
-      <c r="BS4" s="13"/>
-    </row>
-    <row r="5" spans="1:71" ht="48.5" customHeight="1">
-      <c r="A5" s="12">
-        <v>2</v>
-      </c>
-      <c r="B5" s="13">
-        <v>2</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>439</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>374</v>
-      </c>
-      <c r="E5" s="21">
-        <v>45306</v>
-      </c>
-      <c r="F5" s="9"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13" t="s">
-        <v>305</v>
-      </c>
-      <c r="P5" s="13" t="s">
-        <v>435</v>
-      </c>
-      <c r="Q5" s="13" t="s">
-        <v>436</v>
-      </c>
-      <c r="R5" s="9"/>
-      <c r="S5" s="13"/>
-      <c r="T5" s="13"/>
-      <c r="U5" s="13"/>
-      <c r="V5" s="13"/>
-      <c r="W5" s="13"/>
-      <c r="X5" s="13"/>
-      <c r="Y5" s="13"/>
-      <c r="Z5" s="13"/>
-      <c r="AA5" s="13"/>
-      <c r="AB5" s="13"/>
-      <c r="AC5" s="13"/>
-      <c r="AD5" s="13" t="s">
-        <v>269</v>
-      </c>
-      <c r="AE5" s="13"/>
-      <c r="AF5" s="18"/>
-      <c r="AG5" s="13"/>
-      <c r="AH5" s="13"/>
-      <c r="AI5" s="13"/>
-      <c r="AJ5" s="13"/>
-      <c r="AK5" s="13"/>
-      <c r="AL5" s="13"/>
-      <c r="AM5" s="13"/>
-      <c r="AN5" s="13"/>
-      <c r="AO5" s="13"/>
-      <c r="AP5" s="13"/>
-      <c r="AQ5" s="13"/>
-      <c r="AR5" s="13"/>
-      <c r="AS5" s="13"/>
-      <c r="AT5" s="13"/>
-      <c r="AU5" s="13"/>
-      <c r="AV5" s="13"/>
-      <c r="AW5" s="13"/>
-      <c r="AX5" s="13"/>
-      <c r="AY5" s="13"/>
-      <c r="AZ5" s="13"/>
-      <c r="BA5" s="13"/>
-      <c r="BB5" s="9"/>
-      <c r="BC5" s="13"/>
+      <c r="BB5" s="13"/>
+      <c r="BC5" s="9"/>
       <c r="BD5" s="13"/>
       <c r="BE5" s="13"/>
       <c r="BF5" s="13"/>
@@ -4074,30 +4114,31 @@
       <c r="BQ5" s="13"/>
       <c r="BR5" s="13"/>
       <c r="BS5" s="13"/>
+      <c r="BT5" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BB4:BB5" xr:uid="{0D05B73B-1AF4-4E61-BCA0-59D9935A6132}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BC4:BC5" xr:uid="{0D05B73B-1AF4-4E61-BCA0-59D9935A6132}">
       <formula1>"1,2,3,4,5,6,7,8"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH4:AH5 AS4:AS5" xr:uid="{74A45F55-5698-4E2A-9212-FCB23402CA20}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI4:AI5 AT4:AT5" xr:uid="{74A45F55-5698-4E2A-9212-FCB23402CA20}">
       <formula1>"1,2,3"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC4:AC5 BI4:BI5" xr:uid="{D597E4B9-B129-483E-8BA8-64FA17C275B2}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD4:AD5 BJ4:BJ5" xr:uid="{D597E4B9-B129-483E-8BA8-64FA17C275B2}">
       <formula1>"1,2"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S4:S5 V4:V5 Y4:Y5 AE4:AE5 AG4:AG5 AT4:AT5 AY4:AY5" xr:uid="{8926036D-355C-4452-93FF-45F077BF62F1}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T4:T5 W4:W5 Z4:Z5 AF4:AF5 AH4:AH5 AU4:AU5 AZ4:AZ5" xr:uid="{8926036D-355C-4452-93FF-45F077BF62F1}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D5" xr:uid="{50F953FC-373D-430F-85C3-088CC1656335}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E5" xr:uid="{50F953FC-373D-430F-85C3-088CC1656335}">
       <formula1>"True,False"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F5" xr:uid="{22025847-BA43-41FC-BCAF-50D417D07C45}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4:G5" xr:uid="{22025847-BA43-41FC-BCAF-50D417D07C45}">
       <formula1>"1,2,3,4,5"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P4:Q5" xr:uid="{0C141F16-0DC0-435C-BDFE-A61F331E4C1C}">
-      <formula1>INDIRECT(O4)</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q4:R5" xr:uid="{0C141F16-0DC0-435C-BDFE-A61F331E4C1C}">
+      <formula1>INDIRECT(P4)</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4110,55 +4151,55 @@
           <x14:formula1>
             <xm:f>清單!$G$5:$G$7</xm:f>
           </x14:formula1>
-          <xm:sqref>BL4:BL5</xm:sqref>
+          <xm:sqref>BM4:BM5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{845C1F6B-2353-4D45-BB46-D618426EE074}">
           <x14:formula1>
             <xm:f>清單!$K$2:$K$7</xm:f>
           </x14:formula1>
-          <xm:sqref>BA4:BA5</xm:sqref>
+          <xm:sqref>BB4:BB5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{85D12E18-2D1A-45BF-91D0-8F16AF46ABD5}">
           <x14:formula1>
             <xm:f>清單!$J$2:$J$10</xm:f>
           </x14:formula1>
-          <xm:sqref>AZ4:AZ5</xm:sqref>
+          <xm:sqref>BA4:BA5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{FDD13840-72E6-48E9-A5AC-9570EE4567B5}">
           <x14:formula1>
             <xm:f>清單!$I$2:$I$8</xm:f>
           </x14:formula1>
-          <xm:sqref>AW4:AW5</xm:sqref>
+          <xm:sqref>AX4:AX5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E8E58E2C-DFB0-47F6-BEB5-38493EEB5A5D}">
           <x14:formula1>
             <xm:f>清單!$E$2:$E$34</xm:f>
           </x14:formula1>
-          <xm:sqref>AL4:AL5 AO4:AO5 AU4:AU5</xm:sqref>
+          <xm:sqref>AM4:AM5 AP4:AP5 AV4:AV5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{90320258-0AA9-43BA-BDB7-F643DDAFF417}">
           <x14:formula1>
             <xm:f>清單!$A$2:$A$36</xm:f>
           </x14:formula1>
-          <xm:sqref>AD4:AD5</xm:sqref>
+          <xm:sqref>AE4:AE5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B57CB2FD-1892-403C-BD8A-22FD1A18B997}">
           <x14:formula1>
             <xm:f>清單!$B$2:$B$23</xm:f>
           </x14:formula1>
-          <xm:sqref>BK4:BK5 AI4:AI5 O4:O5</xm:sqref>
+          <xm:sqref>BL4:BL5 AJ4:AJ5 P4:P5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C7C60D15-09C3-4002-B59F-C52445461552}">
           <x14:formula1>
             <xm:f>清單!$T$2:$T$12</xm:f>
           </x14:formula1>
-          <xm:sqref>G4:G5</xm:sqref>
+          <xm:sqref>H4:H5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C7636DB4-0EF6-441B-8865-3471F01DDC21}">
           <x14:formula1>
             <xm:f>清單!$S$2:$S$12</xm:f>
           </x14:formula1>
-          <xm:sqref>H4:H5</xm:sqref>
+          <xm:sqref>I4:I5</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
